--- a/wesm_exposure.xlsx
+++ b/wesm_exposure.xlsx
@@ -453,16 +453,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>67703.0315</v>
+        <v>61240.25</v>
       </c>
       <c r="C2" t="n">
-        <v>5641.968500000001</v>
+        <v>4978.75</v>
       </c>
       <c r="D2" t="n">
-        <v>65000</v>
+        <v>50000</v>
       </c>
       <c r="E2" t="n">
-        <v>-2938.937000000005</v>
+        <v>6261.5</v>
       </c>
     </row>
     <row r="3">
@@ -470,16 +470,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>64790.80725</v>
+        <v>59427.19653465346</v>
       </c>
       <c r="C3" t="n">
-        <v>5490.19275</v>
+        <v>4881.803465346536</v>
       </c>
       <c r="D3" t="n">
         <v>45000</v>
       </c>
       <c r="E3" t="n">
-        <v>14300.6145</v>
+        <v>9545.393069306927</v>
       </c>
     </row>
     <row r="4">
@@ -487,16 +487,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>62308.634</v>
+        <v>57342.8103960396</v>
       </c>
       <c r="C4" t="n">
-        <v>5406.366</v>
+        <v>4806.189603960396</v>
       </c>
       <c r="D4" t="n">
-        <v>45000</v>
+        <v>22500</v>
       </c>
       <c r="E4" t="n">
-        <v>11902.268</v>
+        <v>30036.6207920792</v>
       </c>
     </row>
     <row r="5">
@@ -504,16 +504,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>60619.319</v>
+        <v>55879.99554455445</v>
       </c>
       <c r="C5" t="n">
-        <v>5371.681</v>
+        <v>4777.004455445544</v>
       </c>
       <c r="D5" t="n">
-        <v>45000</v>
+        <v>22500</v>
       </c>
       <c r="E5" t="n">
-        <v>10247.63800000001</v>
+        <v>28602.9910891089</v>
       </c>
     </row>
     <row r="6">
@@ -521,16 +521,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>62242.02375</v>
+        <v>58140.97772277228</v>
       </c>
       <c r="C6" t="n">
-        <v>5318.97625</v>
+        <v>4817.022277227723</v>
       </c>
       <c r="D6" t="n">
-        <v>45000</v>
+        <v>22500</v>
       </c>
       <c r="E6" t="n">
-        <v>11923.0475</v>
+        <v>30823.95544554456</v>
       </c>
     </row>
     <row r="7">
@@ -538,16 +538,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>65883.98025000001</v>
+        <v>60279.41485148515</v>
       </c>
       <c r="C7" t="n">
-        <v>5408.019749999999</v>
+        <v>4993.585148514851</v>
       </c>
       <c r="D7" t="n">
-        <v>45000</v>
+        <v>22500</v>
       </c>
       <c r="E7" t="n">
-        <v>15475.96050000001</v>
+        <v>32785.8297029703</v>
       </c>
     </row>
     <row r="8">
@@ -555,16 +555,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>63684.768</v>
+        <v>58427.02326732673</v>
       </c>
       <c r="C8" t="n">
-        <v>5902.232</v>
+        <v>5791.976732673267</v>
       </c>
       <c r="D8" t="n">
-        <v>45000</v>
+        <v>22500</v>
       </c>
       <c r="E8" t="n">
-        <v>12782.53599999999</v>
+        <v>30135.04653465346</v>
       </c>
     </row>
     <row r="9">
@@ -572,16 +572,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>32595.16775</v>
+        <v>54495.32029702971</v>
       </c>
       <c r="C9" t="n">
-        <v>7337.83225</v>
+        <v>6508.679702970297</v>
       </c>
       <c r="D9" t="n">
-        <v>45000</v>
+        <v>50000</v>
       </c>
       <c r="E9" t="n">
-        <v>-19742.6645</v>
+        <v>-2013.35940594058</v>
       </c>
     </row>
     <row r="10">
@@ -589,16 +589,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>91402.42050000001</v>
+        <v>21714.68069306931</v>
       </c>
       <c r="C10" t="n">
-        <v>8426.187000000002</v>
+        <v>8013.319306930694</v>
       </c>
       <c r="D10" t="n">
-        <v>45000</v>
+        <v>65000</v>
       </c>
       <c r="E10" t="n">
-        <v>37976.2335</v>
+        <v>-51298.63861386139</v>
       </c>
     </row>
     <row r="11">
@@ -606,16 +606,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>98426.0895</v>
+        <v>51437.283</v>
       </c>
       <c r="C11" t="n">
-        <v>13930.83825</v>
+        <v>13327.75396039604</v>
       </c>
       <c r="D11" t="n">
         <v>65000</v>
       </c>
       <c r="E11" t="n">
-        <v>19495.25125</v>
+        <v>-26890.47096039604</v>
       </c>
     </row>
     <row r="12">
@@ -623,16 +623,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>106755.7075</v>
+        <v>53040.60050000001</v>
       </c>
       <c r="C12" t="n">
-        <v>15876.8085</v>
+        <v>14912.39801980198</v>
       </c>
       <c r="D12" t="n">
         <v>65000</v>
       </c>
       <c r="E12" t="n">
-        <v>25878.899</v>
+        <v>-26871.79751980197</v>
       </c>
     </row>
     <row r="13">
@@ -640,16 +640,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>99003.74249999999</v>
+        <v>53527.931</v>
       </c>
       <c r="C13" t="n">
-        <v>15790.39175</v>
+        <v>14866.84603960396</v>
       </c>
       <c r="D13" t="n">
         <v>65000</v>
       </c>
       <c r="E13" t="n">
-        <v>18213.35075</v>
+        <v>-26338.91503960396</v>
       </c>
     </row>
     <row r="14">
@@ -657,16 +657,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>111368.07675</v>
+        <v>53337.418</v>
       </c>
       <c r="C14" t="n">
-        <v>15707.13375</v>
+        <v>15166.13415841584</v>
       </c>
       <c r="D14" t="n">
         <v>65000</v>
       </c>
       <c r="E14" t="n">
-        <v>30660.943</v>
+        <v>-26828.71615841585</v>
       </c>
     </row>
     <row r="15">
@@ -674,16 +674,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>95043.31875000001</v>
+        <v>55907.9515</v>
       </c>
       <c r="C15" t="n">
-        <v>15725.78525</v>
+        <v>15342.26732673267</v>
       </c>
       <c r="D15" t="n">
         <v>65000</v>
       </c>
       <c r="E15" t="n">
-        <v>14317.53350000001</v>
+        <v>-24434.31582673267</v>
       </c>
     </row>
     <row r="16">
@@ -691,16 +691,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>102030.712</v>
+        <v>58895.0615</v>
       </c>
       <c r="C16" t="n">
-        <v>15851.95675</v>
+        <v>15647.49851485148</v>
       </c>
       <c r="D16" t="n">
         <v>65000</v>
       </c>
       <c r="E16" t="n">
-        <v>21178.75525</v>
+        <v>-21752.43701485148</v>
       </c>
     </row>
     <row r="17">
@@ -708,16 +708,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>98035.79075</v>
+        <v>56450.1975</v>
       </c>
       <c r="C17" t="n">
-        <v>16175.89925</v>
+        <v>15775.31782178218</v>
       </c>
       <c r="D17" t="n">
         <v>65000</v>
       </c>
       <c r="E17" t="n">
-        <v>16859.8915</v>
+        <v>-24325.12032178217</v>
       </c>
     </row>
     <row r="18">
@@ -725,16 +725,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>40619.2725</v>
+        <v>67467.57000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>16564.009</v>
+        <v>16246.4004950495</v>
       </c>
       <c r="D18" t="n">
         <v>65000</v>
       </c>
       <c r="E18" t="n">
-        <v>-40944.7365</v>
+        <v>-13778.83049504949</v>
       </c>
     </row>
     <row r="19">
@@ -742,16 +742,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>91169.15700000001</v>
+        <v>72066.9185</v>
       </c>
       <c r="C19" t="n">
-        <v>16344.52925</v>
+        <v>15938.57376237624</v>
       </c>
       <c r="D19" t="n">
         <v>65000</v>
       </c>
       <c r="E19" t="n">
-        <v>9824.627750000014</v>
+        <v>-8871.65526237624</v>
       </c>
     </row>
     <row r="20">
@@ -759,16 +759,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>91330.5615</v>
+        <v>74173.3315</v>
       </c>
       <c r="C20" t="n">
-        <v>15734.6105</v>
+        <v>15549.6094059406</v>
       </c>
       <c r="D20" t="n">
         <v>65000</v>
       </c>
       <c r="E20" t="n">
-        <v>10595.951</v>
+        <v>-6376.277905940602</v>
       </c>
     </row>
     <row r="21">
@@ -776,16 +776,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>69126.9225</v>
+        <v>72400.7075</v>
       </c>
       <c r="C21" t="n">
-        <v>13838.8285</v>
+        <v>13984.29504950495</v>
       </c>
       <c r="D21" t="n">
         <v>65000</v>
       </c>
       <c r="E21" t="n">
-        <v>-9711.906000000003</v>
+        <v>-6583.587549504948</v>
       </c>
     </row>
     <row r="22">
@@ -793,16 +793,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>85637.912</v>
+        <v>70217.473</v>
       </c>
       <c r="C22" t="n">
-        <v>12297.75575</v>
+        <v>12412.51089108911</v>
       </c>
       <c r="D22" t="n">
         <v>65000</v>
       </c>
       <c r="E22" t="n">
-        <v>8340.15625</v>
+        <v>-7195.037891089116</v>
       </c>
     </row>
     <row r="23">
@@ -810,16 +810,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>83045.7395</v>
+        <v>21309.33</v>
       </c>
       <c r="C23" t="n">
-        <v>9867.945500000002</v>
+        <v>9434.527227722774</v>
       </c>
       <c r="D23" t="n">
         <v>65000</v>
       </c>
       <c r="E23" t="n">
-        <v>8177.793999999994</v>
+        <v>-53125.19722772278</v>
       </c>
     </row>
     <row r="24">
@@ -827,27 +827,33 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>62070.815</v>
+        <v>69506.016</v>
       </c>
       <c r="C24" t="n">
-        <v>6893.563249999999</v>
+        <v>6390.105940594059</v>
       </c>
       <c r="D24" t="n">
         <v>65000</v>
       </c>
       <c r="E24" t="n">
-        <v>-9822.748249999997</v>
+        <v>-1884.089940594058</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>24</v>
       </c>
+      <c r="B25" t="n">
+        <v>44605.08100000001</v>
+      </c>
       <c r="C25" t="n">
-        <v>6008.644249999999</v>
+        <v>5462.339108910891</v>
       </c>
       <c r="D25" t="n">
         <v>65000</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-25857.25810891088</v>
       </c>
     </row>
   </sheetData>

--- a/wesm_exposure.xlsx
+++ b/wesm_exposure.xlsx
@@ -453,16 +453,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>61240.25</v>
+        <v>63003.5585</v>
       </c>
       <c r="C2" t="n">
-        <v>4978.75</v>
+        <v>5373.441499999999</v>
       </c>
       <c r="D2" t="n">
-        <v>50000</v>
+        <v>45000</v>
       </c>
       <c r="E2" t="n">
-        <v>6261.5</v>
+        <v>12630.117</v>
       </c>
     </row>
     <row r="3">
@@ -470,16 +470,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>59427.19653465346</v>
+        <v>60503.643</v>
       </c>
       <c r="C3" t="n">
-        <v>4881.803465346536</v>
+        <v>5250.357</v>
       </c>
       <c r="D3" t="n">
-        <v>45000</v>
+        <v>22500</v>
       </c>
       <c r="E3" t="n">
-        <v>9545.393069306927</v>
+        <v>32753.28599999999</v>
       </c>
     </row>
     <row r="4">
@@ -487,16 +487,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>57342.8103960396</v>
+        <v>58280.113</v>
       </c>
       <c r="C4" t="n">
-        <v>4806.189603960396</v>
+        <v>5171.886999999999</v>
       </c>
       <c r="D4" t="n">
         <v>22500</v>
       </c>
       <c r="E4" t="n">
-        <v>30036.6207920792</v>
+        <v>30608.226</v>
       </c>
     </row>
     <row r="5">
@@ -504,16 +504,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>55879.99554455445</v>
+        <v>56670.0195</v>
       </c>
       <c r="C5" t="n">
-        <v>4777.004455445544</v>
+        <v>5107.980499999999</v>
       </c>
       <c r="D5" t="n">
         <v>22500</v>
       </c>
       <c r="E5" t="n">
-        <v>28602.9910891089</v>
+        <v>29062.039</v>
       </c>
     </row>
     <row r="6">
@@ -521,16 +521,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>58140.97772277228</v>
+        <v>58596.607</v>
       </c>
       <c r="C6" t="n">
-        <v>4817.022277227723</v>
+        <v>5104.393</v>
       </c>
       <c r="D6" t="n">
         <v>22500</v>
       </c>
       <c r="E6" t="n">
-        <v>30823.95544554456</v>
+        <v>30992.21400000001</v>
       </c>
     </row>
     <row r="7">
@@ -538,16 +538,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>60279.41485148515</v>
+        <v>61690.523</v>
       </c>
       <c r="C7" t="n">
-        <v>4993.585148514851</v>
+        <v>5230.476999999999</v>
       </c>
       <c r="D7" t="n">
         <v>22500</v>
       </c>
       <c r="E7" t="n">
-        <v>32785.8297029703</v>
+        <v>33960.046</v>
       </c>
     </row>
     <row r="8">
@@ -555,16 +555,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>58427.02326732673</v>
+        <v>59656.1205</v>
       </c>
       <c r="C8" t="n">
-        <v>5791.976732673267</v>
+        <v>5902.879499999999</v>
       </c>
       <c r="D8" t="n">
         <v>22500</v>
       </c>
       <c r="E8" t="n">
-        <v>30135.04653465346</v>
+        <v>31253.24099999999</v>
       </c>
     </row>
     <row r="9">
@@ -572,16 +572,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>54495.32029702971</v>
+        <v>48688.998</v>
       </c>
       <c r="C9" t="n">
-        <v>6508.679702970297</v>
+        <v>7037.001999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>50000</v>
+        <v>45000</v>
       </c>
       <c r="E9" t="n">
-        <v>-2013.35940594058</v>
+        <v>-3348.004000000001</v>
       </c>
     </row>
     <row r="10">
@@ -589,16 +589,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21714.68069306931</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>8013.319306930694</v>
+        <v>8592.440500000001</v>
       </c>
       <c r="D10" t="n">
         <v>65000</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-51298.63861386139</v>
       </c>
     </row>
     <row r="11">
@@ -606,16 +603,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>51437.283</v>
+        <v>90861.24603960395</v>
       </c>
       <c r="C11" t="n">
-        <v>13327.75396039604</v>
+        <v>14095.0215</v>
       </c>
       <c r="D11" t="n">
         <v>65000</v>
       </c>
       <c r="E11" t="n">
-        <v>-26890.47096039604</v>
+        <v>11766.22453960395</v>
       </c>
     </row>
     <row r="12">
@@ -623,16 +620,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>53040.60050000001</v>
+        <v>89726.60198019801</v>
       </c>
       <c r="C12" t="n">
-        <v>14912.39801980198</v>
+        <v>15828.8445</v>
       </c>
       <c r="D12" t="n">
         <v>65000</v>
       </c>
       <c r="E12" t="n">
-        <v>-26871.79751980197</v>
+        <v>8897.757480198023</v>
       </c>
     </row>
     <row r="13">
@@ -640,16 +637,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>53527.931</v>
+        <v>90887.15396039604</v>
       </c>
       <c r="C13" t="n">
-        <v>14866.84603960396</v>
+        <v>15449.287</v>
       </c>
       <c r="D13" t="n">
         <v>65000</v>
       </c>
       <c r="E13" t="n">
-        <v>-26338.91503960396</v>
+        <v>10437.86696039604</v>
       </c>
     </row>
     <row r="14">
@@ -657,16 +654,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>53337.418</v>
+        <v>95761.86584158416</v>
       </c>
       <c r="C14" t="n">
-        <v>15166.13415841584</v>
+        <v>15803.2595</v>
       </c>
       <c r="D14" t="n">
         <v>65000</v>
       </c>
       <c r="E14" t="n">
-        <v>-26828.71615841585</v>
+        <v>14958.60634158416</v>
       </c>
     </row>
     <row r="15">
@@ -674,16 +671,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>55907.9515</v>
+        <v>74053.73267326732</v>
       </c>
       <c r="C15" t="n">
-        <v>15342.26732673267</v>
+        <v>15862.028</v>
       </c>
       <c r="D15" t="n">
         <v>65000</v>
       </c>
       <c r="E15" t="n">
-        <v>-24434.31582673267</v>
+        <v>-6808.295326732674</v>
       </c>
     </row>
     <row r="16">
@@ -691,16 +688,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>58895.0615</v>
+        <v>95771.50148514852</v>
       </c>
       <c r="C16" t="n">
-        <v>15647.49851485148</v>
+        <v>16032.3205</v>
       </c>
       <c r="D16" t="n">
         <v>65000</v>
       </c>
       <c r="E16" t="n">
-        <v>-21752.43701485148</v>
+        <v>14739.18098514852</v>
       </c>
     </row>
     <row r="17">
@@ -708,16 +705,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>56450.1975</v>
+        <v>84547.68217821782</v>
       </c>
       <c r="C17" t="n">
-        <v>15775.31782178218</v>
+        <v>16559.4275</v>
       </c>
       <c r="D17" t="n">
         <v>65000</v>
       </c>
       <c r="E17" t="n">
-        <v>-24325.12032178217</v>
+        <v>2988.254678217811</v>
       </c>
     </row>
     <row r="18">
@@ -725,16 +722,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>67467.57000000001</v>
+        <v>59953.5995049505</v>
       </c>
       <c r="C18" t="n">
-        <v>16246.4004950495</v>
+        <v>16683.57249999999</v>
       </c>
       <c r="D18" t="n">
         <v>65000</v>
       </c>
       <c r="E18" t="n">
-        <v>-13778.83049504949</v>
+        <v>-21729.97299504949</v>
       </c>
     </row>
     <row r="19">
@@ -745,13 +742,13 @@
         <v>72066.9185</v>
       </c>
       <c r="C19" t="n">
-        <v>15938.57376237624</v>
+        <v>16252.82049999999</v>
       </c>
       <c r="D19" t="n">
         <v>65000</v>
       </c>
       <c r="E19" t="n">
-        <v>-8871.65526237624</v>
+        <v>-9185.901999999987</v>
       </c>
     </row>
     <row r="20">
@@ -762,13 +759,13 @@
         <v>74173.3315</v>
       </c>
       <c r="C20" t="n">
-        <v>15549.6094059406</v>
+        <v>15546.958</v>
       </c>
       <c r="D20" t="n">
         <v>65000</v>
       </c>
       <c r="E20" t="n">
-        <v>-6376.277905940602</v>
+        <v>-6373.626499999998</v>
       </c>
     </row>
     <row r="21">
@@ -779,13 +776,13 @@
         <v>72400.7075</v>
       </c>
       <c r="C21" t="n">
-        <v>13984.29504950495</v>
+        <v>13748.4165</v>
       </c>
       <c r="D21" t="n">
         <v>65000</v>
       </c>
       <c r="E21" t="n">
-        <v>-6583.587549504948</v>
+        <v>-6347.708999999995</v>
       </c>
     </row>
     <row r="22">
@@ -796,13 +793,13 @@
         <v>70217.473</v>
       </c>
       <c r="C22" t="n">
-        <v>12412.51089108911</v>
+        <v>12030.7215</v>
       </c>
       <c r="D22" t="n">
         <v>65000</v>
       </c>
       <c r="E22" t="n">
-        <v>-7195.037891089116</v>
+        <v>-6813.248500000002</v>
       </c>
     </row>
     <row r="23">
@@ -813,13 +810,13 @@
         <v>21309.33</v>
       </c>
       <c r="C23" t="n">
-        <v>9434.527227722774</v>
+        <v>9319.645999999999</v>
       </c>
       <c r="D23" t="n">
         <v>65000</v>
       </c>
       <c r="E23" t="n">
-        <v>-53125.19722772278</v>
+        <v>-53010.316</v>
       </c>
     </row>
     <row r="24">
@@ -830,13 +827,13 @@
         <v>69506.016</v>
       </c>
       <c r="C24" t="n">
-        <v>6390.105940594059</v>
+        <v>6308.333499999995</v>
       </c>
       <c r="D24" t="n">
         <v>65000</v>
       </c>
       <c r="E24" t="n">
-        <v>-1884.089940594058</v>
+        <v>-1802.31749999999</v>
       </c>
     </row>
     <row r="25">
@@ -847,13 +844,13 @@
         <v>44605.08100000001</v>
       </c>
       <c r="C25" t="n">
-        <v>5462.339108910891</v>
+        <v>5687.261999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>65000</v>
+        <v>57000</v>
       </c>
       <c r="E25" t="n">
-        <v>-25857.25810891088</v>
+        <v>-18082.18099999998</v>
       </c>
     </row>
   </sheetData>

--- a/wesm_exposure.xlsx
+++ b/wesm_exposure.xlsx
@@ -453,16 +453,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>63003.5585</v>
+        <v>67370.23454447951</v>
       </c>
       <c r="C2" t="n">
-        <v>5373.441499999999</v>
+        <v>5181.7654555205</v>
       </c>
       <c r="D2" t="n">
         <v>45000</v>
       </c>
       <c r="E2" t="n">
-        <v>12630.117</v>
+        <v>17188.46908895901</v>
       </c>
     </row>
     <row r="3">
@@ -470,16 +470,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>60503.643</v>
+        <v>64380.537276847</v>
       </c>
       <c r="C3" t="n">
-        <v>5250.357</v>
+        <v>5107.462723152999</v>
       </c>
       <c r="D3" t="n">
-        <v>22500</v>
+        <v>45000</v>
       </c>
       <c r="E3" t="n">
-        <v>32753.28599999999</v>
+        <v>14273.07455369399</v>
       </c>
     </row>
     <row r="4">
@@ -487,16 +487,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>58280.113</v>
+        <v>61567.753522304</v>
       </c>
       <c r="C4" t="n">
-        <v>5171.886999999999</v>
+        <v>5078.246477696</v>
       </c>
       <c r="D4" t="n">
-        <v>22500</v>
+        <v>45000</v>
       </c>
       <c r="E4" t="n">
-        <v>30608.226</v>
+        <v>11489.50704460801</v>
       </c>
     </row>
     <row r="5">
@@ -504,16 +504,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>56670.0195</v>
+        <v>59871.0570819605</v>
       </c>
       <c r="C5" t="n">
-        <v>5107.980499999999</v>
+        <v>5023.9429180395</v>
       </c>
       <c r="D5" t="n">
-        <v>22500</v>
+        <v>45000</v>
       </c>
       <c r="E5" t="n">
-        <v>29062.039</v>
+        <v>9847.114163920996</v>
       </c>
     </row>
     <row r="6">
@@ -521,16 +521,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>58596.607</v>
+        <v>60809.218999097</v>
       </c>
       <c r="C6" t="n">
-        <v>5104.393</v>
+        <v>5058.781000903</v>
       </c>
       <c r="D6" t="n">
-        <v>22500</v>
+        <v>45000</v>
       </c>
       <c r="E6" t="n">
-        <v>30992.21400000001</v>
+        <v>10750.437998194</v>
       </c>
     </row>
     <row r="7">
@@ -538,16 +538,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>61690.523</v>
+        <v>63835.523678916</v>
       </c>
       <c r="C7" t="n">
-        <v>5230.476999999999</v>
+        <v>5188.476321084</v>
       </c>
       <c r="D7" t="n">
-        <v>22500</v>
+        <v>45000</v>
       </c>
       <c r="E7" t="n">
-        <v>33960.046</v>
+        <v>13647.04735783199</v>
       </c>
     </row>
     <row r="8">
@@ -555,16 +555,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>59656.1205</v>
+        <v>62827.073328831</v>
       </c>
       <c r="C8" t="n">
-        <v>5902.879499999999</v>
+        <v>5625.926671169</v>
       </c>
       <c r="D8" t="n">
-        <v>22500</v>
+        <v>45000</v>
       </c>
       <c r="E8" t="n">
-        <v>31253.24099999999</v>
+        <v>12201.146657662</v>
       </c>
     </row>
     <row r="9">
@@ -572,16 +572,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>48688.998</v>
+        <v>76527.48487499999</v>
       </c>
       <c r="C9" t="n">
-        <v>7037.001999999999</v>
+        <v>6893.515125000001</v>
       </c>
       <c r="D9" t="n">
-        <v>45000</v>
+        <v>55000</v>
       </c>
       <c r="E9" t="n">
-        <v>-3348.004000000001</v>
+        <v>14633.96974999999</v>
       </c>
     </row>
     <row r="10">
@@ -589,13 +589,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>89876.69653</v>
       </c>
       <c r="C10" t="n">
-        <v>8592.440500000001</v>
+        <v>8247.303470000001</v>
       </c>
       <c r="D10" t="n">
         <v>65000</v>
+      </c>
+      <c r="E10" t="n">
+        <v>16629.39306</v>
       </c>
     </row>
     <row r="11">
@@ -603,16 +606,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>90861.24603960395</v>
+        <v>95448.91248</v>
       </c>
       <c r="C11" t="n">
-        <v>14095.0215</v>
+        <v>13588.08752</v>
       </c>
       <c r="D11" t="n">
         <v>65000</v>
       </c>
       <c r="E11" t="n">
-        <v>11766.22453960395</v>
+        <v>16860.82496</v>
       </c>
     </row>
     <row r="12">
@@ -620,16 +623,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>89726.60198019801</v>
+        <v>96732.70662500001</v>
       </c>
       <c r="C12" t="n">
-        <v>15828.8445</v>
+        <v>15423.293375</v>
       </c>
       <c r="D12" t="n">
         <v>65000</v>
       </c>
       <c r="E12" t="n">
-        <v>8897.757480198023</v>
+        <v>16309.41325000001</v>
       </c>
     </row>
     <row r="13">
@@ -637,16 +640,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>90887.15396039604</v>
+        <v>95817.62115000001</v>
       </c>
       <c r="C13" t="n">
-        <v>15449.287</v>
+        <v>15250.37885</v>
       </c>
       <c r="D13" t="n">
         <v>65000</v>
       </c>
       <c r="E13" t="n">
-        <v>10437.86696039604</v>
+        <v>15567.24230000001</v>
       </c>
     </row>
     <row r="14">
@@ -654,16 +657,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>95761.86584158416</v>
+        <v>71700.798085</v>
       </c>
       <c r="C14" t="n">
-        <v>15803.2595</v>
+        <v>15267.201915</v>
       </c>
       <c r="D14" t="n">
         <v>65000</v>
       </c>
       <c r="E14" t="n">
-        <v>14958.60634158416</v>
+        <v>-8566.403829999996</v>
       </c>
     </row>
     <row r="15">
@@ -671,16 +674,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>74053.73267326732</v>
+        <v>96521.645535</v>
       </c>
       <c r="C15" t="n">
-        <v>15862.028</v>
+        <v>15408.354465</v>
       </c>
       <c r="D15" t="n">
         <v>65000</v>
       </c>
       <c r="E15" t="n">
-        <v>-6808.295326732674</v>
+        <v>16113.29107000001</v>
       </c>
     </row>
     <row r="16">
@@ -688,16 +691,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>95771.50148514852</v>
+        <v>79115.362155</v>
       </c>
       <c r="C16" t="n">
-        <v>16032.3205</v>
+        <v>15584.637845</v>
       </c>
       <c r="D16" t="n">
         <v>65000</v>
       </c>
       <c r="E16" t="n">
-        <v>14739.18098514852</v>
+        <v>-1469.275690000002</v>
       </c>
     </row>
     <row r="17">
@@ -705,16 +708,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>84547.68217821782</v>
+        <v>73382.254285</v>
       </c>
       <c r="C17" t="n">
-        <v>16559.4275</v>
+        <v>15990.745715</v>
       </c>
       <c r="D17" t="n">
         <v>65000</v>
       </c>
       <c r="E17" t="n">
-        <v>2988.254678217811</v>
+        <v>-7608.491429999995</v>
       </c>
     </row>
     <row r="18">
@@ -722,16 +725,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>59953.5995049505</v>
+        <v>51482.259325</v>
       </c>
       <c r="C18" t="n">
-        <v>16683.57249999999</v>
+        <v>16606.740675</v>
       </c>
       <c r="D18" t="n">
         <v>65000</v>
       </c>
       <c r="E18" t="n">
-        <v>-21729.97299504949</v>
+        <v>-30124.48135</v>
       </c>
     </row>
     <row r="19">
@@ -742,13 +745,13 @@
         <v>72066.9185</v>
       </c>
       <c r="C19" t="n">
-        <v>16252.82049999999</v>
+        <v>15895.788545</v>
       </c>
       <c r="D19" t="n">
         <v>65000</v>
       </c>
       <c r="E19" t="n">
-        <v>-9185.901999999987</v>
+        <v>-8828.870045000003</v>
       </c>
     </row>
     <row r="20">
@@ -759,13 +762,13 @@
         <v>74173.3315</v>
       </c>
       <c r="C20" t="n">
-        <v>15546.958</v>
+        <v>15110.141865</v>
       </c>
       <c r="D20" t="n">
         <v>65000</v>
       </c>
       <c r="E20" t="n">
-        <v>-6373.626499999998</v>
+        <v>-5936.810364999998</v>
       </c>
     </row>
     <row r="21">
@@ -776,13 +779,13 @@
         <v>72400.7075</v>
       </c>
       <c r="C21" t="n">
-        <v>13748.4165</v>
+        <v>13483.21114</v>
       </c>
       <c r="D21" t="n">
         <v>65000</v>
       </c>
       <c r="E21" t="n">
-        <v>-6347.708999999995</v>
+        <v>-6082.503639999995</v>
       </c>
     </row>
     <row r="22">
@@ -793,13 +796,13 @@
         <v>70217.473</v>
       </c>
       <c r="C22" t="n">
-        <v>12030.7215</v>
+        <v>11726.835785</v>
       </c>
       <c r="D22" t="n">
         <v>65000</v>
       </c>
       <c r="E22" t="n">
-        <v>-6813.248500000002</v>
+        <v>-6509.362785000005</v>
       </c>
     </row>
     <row r="23">
@@ -810,13 +813,13 @@
         <v>21309.33</v>
       </c>
       <c r="C23" t="n">
-        <v>9319.645999999999</v>
+        <v>9147.03167</v>
       </c>
       <c r="D23" t="n">
         <v>65000</v>
       </c>
       <c r="E23" t="n">
-        <v>-53010.316</v>
+        <v>-52837.70166999999</v>
       </c>
     </row>
     <row r="24">
@@ -827,13 +830,13 @@
         <v>69506.016</v>
       </c>
       <c r="C24" t="n">
-        <v>6308.333499999995</v>
+        <v>6514.02934</v>
       </c>
       <c r="D24" t="n">
         <v>65000</v>
       </c>
       <c r="E24" t="n">
-        <v>-1802.31749999999</v>
+        <v>-2008.013339999998</v>
       </c>
     </row>
     <row r="25">
@@ -844,13 +847,13 @@
         <v>44605.08100000001</v>
       </c>
       <c r="C25" t="n">
-        <v>5687.261999999999</v>
+        <v>5694.991050000001</v>
       </c>
       <c r="D25" t="n">
-        <v>57000</v>
+        <v>65000</v>
       </c>
       <c r="E25" t="n">
-        <v>-18082.18099999998</v>
+        <v>-26089.91004999999</v>
       </c>
     </row>
   </sheetData>

--- a/wesm_exposure.xlsx
+++ b/wesm_exposure.xlsx
@@ -453,16 +453,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>67370.23454447951</v>
+        <v>73235.576</v>
       </c>
       <c r="C2" t="n">
-        <v>5181.7654555205</v>
+        <v>5569.423999999999</v>
       </c>
       <c r="D2" t="n">
         <v>45000</v>
       </c>
       <c r="E2" t="n">
-        <v>17188.46908895901</v>
+        <v>22666.152</v>
       </c>
     </row>
     <row r="3">
@@ -470,16 +470,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>64380.537276847</v>
+        <v>69250.97500000001</v>
       </c>
       <c r="C3" t="n">
-        <v>5107.462723152999</v>
+        <v>5443.025</v>
       </c>
       <c r="D3" t="n">
         <v>45000</v>
       </c>
       <c r="E3" t="n">
-        <v>14273.07455369399</v>
+        <v>18807.95</v>
       </c>
     </row>
     <row r="4">
@@ -487,16 +487,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>61567.753522304</v>
+        <v>66536.2325</v>
       </c>
       <c r="C4" t="n">
-        <v>5078.246477696</v>
+        <v>5335.7675</v>
       </c>
       <c r="D4" t="n">
         <v>45000</v>
       </c>
       <c r="E4" t="n">
-        <v>11489.50704460801</v>
+        <v>16200.465</v>
       </c>
     </row>
     <row r="5">
@@ -504,16 +504,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>59871.0570819605</v>
+        <v>63603.889</v>
       </c>
       <c r="C5" t="n">
-        <v>5023.9429180395</v>
+        <v>5326.111</v>
       </c>
       <c r="D5" t="n">
         <v>45000</v>
       </c>
       <c r="E5" t="n">
-        <v>9847.114163920996</v>
+        <v>13277.77800000001</v>
       </c>
     </row>
     <row r="6">
@@ -521,16 +521,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>60809.218999097</v>
+        <v>62706.4385</v>
       </c>
       <c r="C6" t="n">
-        <v>5058.781000903</v>
+        <v>5353.5615</v>
       </c>
       <c r="D6" t="n">
         <v>45000</v>
       </c>
       <c r="E6" t="n">
-        <v>10750.437998194</v>
+        <v>12352.87699999999</v>
       </c>
     </row>
     <row r="7">
@@ -538,16 +538,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>63835.523678916</v>
+        <v>63508.283</v>
       </c>
       <c r="C7" t="n">
-        <v>5188.476321084</v>
+        <v>5400.717</v>
       </c>
       <c r="D7" t="n">
         <v>45000</v>
       </c>
       <c r="E7" t="n">
-        <v>13647.04735783199</v>
+        <v>13107.56600000001</v>
       </c>
     </row>
     <row r="8">
@@ -555,16 +555,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>62827.073328831</v>
+        <v>62641.7715</v>
       </c>
       <c r="C8" t="n">
-        <v>5625.926671169</v>
+        <v>5986.228500000001</v>
       </c>
       <c r="D8" t="n">
-        <v>45000</v>
+        <v>22500</v>
       </c>
       <c r="E8" t="n">
-        <v>12201.146657662</v>
+        <v>34155.54300000001</v>
       </c>
     </row>
     <row r="9">
@@ -572,16 +572,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>76527.48487499999</v>
+        <v>70259.092</v>
       </c>
       <c r="C9" t="n">
-        <v>6893.515125000001</v>
+        <v>6774.907999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>55000</v>
+        <v>32500</v>
       </c>
       <c r="E9" t="n">
-        <v>14633.96974999999</v>
+        <v>30984.18400000001</v>
       </c>
     </row>
     <row r="10">
@@ -589,16 +589,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>89876.69653</v>
+        <v>64106.7825</v>
       </c>
       <c r="C10" t="n">
-        <v>8247.303470000001</v>
+        <v>8159.217500000001</v>
       </c>
       <c r="D10" t="n">
-        <v>65000</v>
+        <v>45000</v>
       </c>
       <c r="E10" t="n">
-        <v>16629.39306</v>
+        <v>10947.565</v>
       </c>
     </row>
     <row r="11">
@@ -606,16 +606,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>95448.91248</v>
+        <v>67742.45050000001</v>
       </c>
       <c r="C11" t="n">
-        <v>13588.08752</v>
+        <v>13111.5495</v>
       </c>
       <c r="D11" t="n">
-        <v>65000</v>
+        <v>45000</v>
       </c>
       <c r="E11" t="n">
-        <v>16860.82496</v>
+        <v>9630.901000000005</v>
       </c>
     </row>
     <row r="12">
@@ -623,16 +623,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>96732.70662500001</v>
+        <v>52847.3615</v>
       </c>
       <c r="C12" t="n">
-        <v>15423.293375</v>
+        <v>15041.6385</v>
       </c>
       <c r="D12" t="n">
         <v>65000</v>
       </c>
       <c r="E12" t="n">
-        <v>16309.41325000001</v>
+        <v>-27194.277</v>
       </c>
     </row>
     <row r="13">
@@ -640,16 +640,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>95817.62115000001</v>
+        <v>96998.807575</v>
       </c>
       <c r="C13" t="n">
-        <v>15250.37885</v>
+        <v>15360.8175</v>
       </c>
       <c r="D13" t="n">
         <v>65000</v>
       </c>
       <c r="E13" t="n">
-        <v>15567.24230000001</v>
+        <v>16637.99007499999</v>
       </c>
     </row>
     <row r="14">
@@ -657,16 +657,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>71700.798085</v>
+        <v>96596.9025425</v>
       </c>
       <c r="C14" t="n">
-        <v>15267.201915</v>
+        <v>15438.7275</v>
       </c>
       <c r="D14" t="n">
         <v>65000</v>
       </c>
       <c r="E14" t="n">
-        <v>-8566.403829999996</v>
+        <v>16158.17504249999</v>
       </c>
     </row>
     <row r="15">
@@ -674,16 +674,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>96521.645535</v>
+        <v>100447.1062675</v>
       </c>
       <c r="C15" t="n">
-        <v>15408.354465</v>
+        <v>15496.474</v>
       </c>
       <c r="D15" t="n">
         <v>65000</v>
       </c>
       <c r="E15" t="n">
-        <v>16113.29107000001</v>
+        <v>19950.6322675</v>
       </c>
     </row>
     <row r="16">
@@ -691,16 +691,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>79115.362155</v>
+        <v>101020.1465775</v>
       </c>
       <c r="C16" t="n">
-        <v>15584.637845</v>
+        <v>15736.574</v>
       </c>
       <c r="D16" t="n">
         <v>65000</v>
       </c>
       <c r="E16" t="n">
-        <v>-1469.275690000002</v>
+        <v>20283.57257749999</v>
       </c>
     </row>
     <row r="17">
@@ -708,16 +708,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>73382.254285</v>
+        <v>97530.9176425</v>
       </c>
       <c r="C17" t="n">
-        <v>15990.745715</v>
+        <v>16203.3305</v>
       </c>
       <c r="D17" t="n">
         <v>65000</v>
       </c>
       <c r="E17" t="n">
-        <v>-7608.491429999995</v>
+        <v>16327.58714250001</v>
       </c>
     </row>
     <row r="18">
@@ -725,16 +725,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>51482.259325</v>
+        <v>89225.8361625</v>
       </c>
       <c r="C18" t="n">
-        <v>16606.740675</v>
+        <v>16035.0225</v>
       </c>
       <c r="D18" t="n">
         <v>65000</v>
       </c>
       <c r="E18" t="n">
-        <v>-30124.48135</v>
+        <v>8190.813662500004</v>
       </c>
     </row>
     <row r="19">
@@ -745,13 +745,13 @@
         <v>72066.9185</v>
       </c>
       <c r="C19" t="n">
-        <v>15895.788545</v>
+        <v>15489.1135</v>
       </c>
       <c r="D19" t="n">
         <v>65000</v>
       </c>
       <c r="E19" t="n">
-        <v>-8828.870045000003</v>
+        <v>-8422.195</v>
       </c>
     </row>
     <row r="20">
@@ -762,13 +762,13 @@
         <v>74173.3315</v>
       </c>
       <c r="C20" t="n">
-        <v>15110.141865</v>
+        <v>15075.4555</v>
       </c>
       <c r="D20" t="n">
         <v>65000</v>
       </c>
       <c r="E20" t="n">
-        <v>-5936.810364999998</v>
+        <v>-5902.123999999996</v>
       </c>
     </row>
     <row r="21">
@@ -779,13 +779,13 @@
         <v>72400.7075</v>
       </c>
       <c r="C21" t="n">
-        <v>13483.21114</v>
+        <v>13277.7365</v>
       </c>
       <c r="D21" t="n">
         <v>65000</v>
       </c>
       <c r="E21" t="n">
-        <v>-6082.503639999995</v>
+        <v>-5877.028999999995</v>
       </c>
     </row>
     <row r="22">
@@ -796,13 +796,13 @@
         <v>70217.473</v>
       </c>
       <c r="C22" t="n">
-        <v>11726.835785</v>
+        <v>11738.566</v>
       </c>
       <c r="D22" t="n">
         <v>65000</v>
       </c>
       <c r="E22" t="n">
-        <v>-6509.362785000005</v>
+        <v>-6521.093000000001</v>
       </c>
     </row>
     <row r="23">
@@ -813,13 +813,13 @@
         <v>21309.33</v>
       </c>
       <c r="C23" t="n">
-        <v>9147.03167</v>
+        <v>8937.529999999999</v>
       </c>
       <c r="D23" t="n">
         <v>65000</v>
       </c>
       <c r="E23" t="n">
-        <v>-52837.70166999999</v>
+        <v>-52628.2</v>
       </c>
     </row>
     <row r="24">
@@ -830,13 +830,13 @@
         <v>69506.016</v>
       </c>
       <c r="C24" t="n">
-        <v>6514.02934</v>
+        <v>5960.1675</v>
       </c>
       <c r="D24" t="n">
         <v>65000</v>
       </c>
       <c r="E24" t="n">
-        <v>-2008.013339999998</v>
+        <v>-1454.151499999993</v>
       </c>
     </row>
     <row r="25">
@@ -847,13 +847,13 @@
         <v>44605.08100000001</v>
       </c>
       <c r="C25" t="n">
-        <v>5694.991050000001</v>
+        <v>5052.110000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>65000</v>
+        <v>60000</v>
       </c>
       <c r="E25" t="n">
-        <v>-26089.91004999999</v>
+        <v>-20447.02899999999</v>
       </c>
     </row>
   </sheetData>

--- a/wesm_exposure.xlsx
+++ b/wesm_exposure.xlsx
@@ -453,16 +453,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>73235.576</v>
+        <v>73177.4875</v>
       </c>
       <c r="C2" t="n">
-        <v>5569.423999999999</v>
+        <v>5444.512500000001</v>
       </c>
       <c r="D2" t="n">
-        <v>45000</v>
+        <v>65000</v>
       </c>
       <c r="E2" t="n">
-        <v>22666.152</v>
+        <v>2732.975000000006</v>
       </c>
     </row>
     <row r="3">
@@ -470,16 +470,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>69250.97500000001</v>
+        <v>69811.6565</v>
       </c>
       <c r="C3" t="n">
-        <v>5443.025</v>
+        <v>5387.3435</v>
       </c>
       <c r="D3" t="n">
         <v>45000</v>
       </c>
       <c r="E3" t="n">
-        <v>18807.95</v>
+        <v>19424.31299999999</v>
       </c>
     </row>
     <row r="4">
@@ -487,16 +487,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>66536.2325</v>
+        <v>64462.7775</v>
       </c>
       <c r="C4" t="n">
-        <v>5335.7675</v>
+        <v>5357.2225</v>
       </c>
       <c r="D4" t="n">
-        <v>45000</v>
+        <v>22500</v>
       </c>
       <c r="E4" t="n">
-        <v>16200.465</v>
+        <v>36605.55499999999</v>
       </c>
     </row>
     <row r="5">
@@ -504,16 +504,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>63603.889</v>
+        <v>64419.8455</v>
       </c>
       <c r="C5" t="n">
-        <v>5326.111</v>
+        <v>5289.154500000001</v>
       </c>
       <c r="D5" t="n">
-        <v>45000</v>
+        <v>22500</v>
       </c>
       <c r="E5" t="n">
-        <v>13277.77800000001</v>
+        <v>36630.69100000001</v>
       </c>
     </row>
     <row r="6">
@@ -521,16 +521,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>62706.4385</v>
+        <v>63786.1715</v>
       </c>
       <c r="C6" t="n">
-        <v>5353.5615</v>
+        <v>5361.8285</v>
       </c>
       <c r="D6" t="n">
-        <v>45000</v>
+        <v>22500</v>
       </c>
       <c r="E6" t="n">
-        <v>12352.87699999999</v>
+        <v>35924.34299999999</v>
       </c>
     </row>
     <row r="7">
@@ -538,16 +538,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>63508.283</v>
+        <v>65583.3985</v>
       </c>
       <c r="C7" t="n">
-        <v>5400.717</v>
+        <v>5442.6015</v>
       </c>
       <c r="D7" t="n">
-        <v>45000</v>
+        <v>22500</v>
       </c>
       <c r="E7" t="n">
-        <v>13107.56600000001</v>
+        <v>37640.797</v>
       </c>
     </row>
     <row r="8">
@@ -555,16 +555,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>62641.7715</v>
+        <v>63552.469</v>
       </c>
       <c r="C8" t="n">
-        <v>5986.228500000001</v>
+        <v>5816.530999999999</v>
       </c>
       <c r="D8" t="n">
         <v>22500</v>
       </c>
       <c r="E8" t="n">
-        <v>34155.54300000001</v>
+        <v>35235.93799999999</v>
       </c>
     </row>
     <row r="9">
@@ -572,16 +572,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>70259.092</v>
+        <v>76403.3885</v>
       </c>
       <c r="C9" t="n">
-        <v>6774.907999999999</v>
+        <v>7034.6115</v>
       </c>
       <c r="D9" t="n">
-        <v>32500</v>
+        <v>22500</v>
       </c>
       <c r="E9" t="n">
-        <v>30984.18400000001</v>
+        <v>46868.777</v>
       </c>
     </row>
     <row r="10">
@@ -589,16 +589,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>64106.7825</v>
+        <v>59351.3105</v>
       </c>
       <c r="C10" t="n">
-        <v>8159.217500000001</v>
+        <v>8596.6895</v>
       </c>
       <c r="D10" t="n">
-        <v>45000</v>
+        <v>65000</v>
       </c>
       <c r="E10" t="n">
-        <v>10947.565</v>
+        <v>-14245.379</v>
       </c>
     </row>
     <row r="11">
@@ -606,16 +606,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>67742.45050000001</v>
+        <v>99192.12700000001</v>
       </c>
       <c r="C11" t="n">
-        <v>13111.5495</v>
+        <v>13942.873</v>
       </c>
       <c r="D11" t="n">
-        <v>45000</v>
+        <v>65000</v>
       </c>
       <c r="E11" t="n">
-        <v>9630.901000000005</v>
+        <v>20249.25400000002</v>
       </c>
     </row>
     <row r="12">
@@ -623,16 +623,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>52847.3615</v>
+        <v>99767.6905</v>
       </c>
       <c r="C12" t="n">
-        <v>15041.6385</v>
+        <v>15769.3095</v>
       </c>
       <c r="D12" t="n">
         <v>65000</v>
       </c>
       <c r="E12" t="n">
-        <v>-27194.277</v>
+        <v>18998.38099999999</v>
       </c>
     </row>
     <row r="13">
@@ -640,16 +640,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>96998.807575</v>
+        <v>100144.771</v>
       </c>
       <c r="C13" t="n">
-        <v>15360.8175</v>
+        <v>15209.229</v>
       </c>
       <c r="D13" t="n">
         <v>65000</v>
       </c>
       <c r="E13" t="n">
-        <v>16637.99007499999</v>
+        <v>19935.54199999999</v>
       </c>
     </row>
     <row r="14">
@@ -657,16 +657,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>96596.9025425</v>
+        <v>101117.205</v>
       </c>
       <c r="C14" t="n">
-        <v>15438.7275</v>
+        <v>15159.795</v>
       </c>
       <c r="D14" t="n">
         <v>65000</v>
       </c>
       <c r="E14" t="n">
-        <v>16158.17504249999</v>
+        <v>20957.41</v>
       </c>
     </row>
     <row r="15">
@@ -674,16 +674,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>100447.1062675</v>
+        <v>108724.5555</v>
       </c>
       <c r="C15" t="n">
-        <v>15496.474</v>
+        <v>15449.4445</v>
       </c>
       <c r="D15" t="n">
         <v>65000</v>
       </c>
       <c r="E15" t="n">
-        <v>19950.6322675</v>
+        <v>28275.111</v>
       </c>
     </row>
     <row r="16">
@@ -691,16 +691,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>101020.1465775</v>
+        <v>103763.567</v>
       </c>
       <c r="C16" t="n">
-        <v>15736.574</v>
+        <v>15588.433</v>
       </c>
       <c r="D16" t="n">
         <v>65000</v>
       </c>
       <c r="E16" t="n">
-        <v>20283.57257749999</v>
+        <v>23175.13399999999</v>
       </c>
     </row>
     <row r="17">
@@ -708,16 +708,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>97530.9176425</v>
+        <v>101211.3415</v>
       </c>
       <c r="C17" t="n">
-        <v>16203.3305</v>
+        <v>16020.6585</v>
       </c>
       <c r="D17" t="n">
         <v>65000</v>
       </c>
       <c r="E17" t="n">
-        <v>16327.58714250001</v>
+        <v>20190.68299999999</v>
       </c>
     </row>
     <row r="18">
@@ -725,16 +725,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>89225.8361625</v>
+        <v>93839.61749999999</v>
       </c>
       <c r="C18" t="n">
-        <v>16035.0225</v>
+        <v>16262.3825</v>
       </c>
       <c r="D18" t="n">
         <v>65000</v>
       </c>
       <c r="E18" t="n">
-        <v>8190.813662500004</v>
+        <v>12577.23499999999</v>
       </c>
     </row>
     <row r="19">
@@ -742,16 +742,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>72066.9185</v>
+        <v>88583.391</v>
       </c>
       <c r="C19" t="n">
-        <v>15489.1135</v>
+        <v>15862.609</v>
       </c>
       <c r="D19" t="n">
         <v>65000</v>
       </c>
       <c r="E19" t="n">
-        <v>-8422.195</v>
+        <v>7720.782000000007</v>
       </c>
     </row>
     <row r="20">
@@ -759,16 +759,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>74173.3315</v>
+        <v>89024.58199999999</v>
       </c>
       <c r="C20" t="n">
-        <v>15075.4555</v>
+        <v>14887.418</v>
       </c>
       <c r="D20" t="n">
         <v>65000</v>
       </c>
       <c r="E20" t="n">
-        <v>-5902.123999999996</v>
+        <v>9137.16399999999</v>
       </c>
     </row>
     <row r="21">
@@ -776,16 +776,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>72400.7075</v>
+        <v>87063.96249999999</v>
       </c>
       <c r="C21" t="n">
-        <v>13277.7365</v>
+        <v>13341.0375</v>
       </c>
       <c r="D21" t="n">
         <v>65000</v>
       </c>
       <c r="E21" t="n">
-        <v>-5877.028999999995</v>
+        <v>8722.924999999988</v>
       </c>
     </row>
     <row r="22">
@@ -793,16 +793,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>70217.473</v>
+        <v>85910.32799999999</v>
       </c>
       <c r="C22" t="n">
-        <v>11738.566</v>
+        <v>11837.672</v>
       </c>
       <c r="D22" t="n">
         <v>65000</v>
       </c>
       <c r="E22" t="n">
-        <v>-6521.093000000001</v>
+        <v>9072.655999999988</v>
       </c>
     </row>
     <row r="23">
@@ -810,16 +810,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>21309.33</v>
+        <v>84684.008</v>
       </c>
       <c r="C23" t="n">
-        <v>8937.529999999999</v>
+        <v>9490.991999999998</v>
       </c>
       <c r="D23" t="n">
         <v>65000</v>
       </c>
       <c r="E23" t="n">
-        <v>-52628.2</v>
+        <v>10193.016</v>
       </c>
     </row>
     <row r="24">
@@ -827,16 +827,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>69506.016</v>
+        <v>81619.20600000001</v>
       </c>
       <c r="C24" t="n">
-        <v>5960.1675</v>
+        <v>6891.794</v>
       </c>
       <c r="D24" t="n">
         <v>65000</v>
       </c>
       <c r="E24" t="n">
-        <v>-1454.151499999993</v>
+        <v>9727.412000000011</v>
       </c>
     </row>
     <row r="25">
@@ -844,16 +844,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>44605.08100000001</v>
+        <v>52348.0285</v>
       </c>
       <c r="C25" t="n">
-        <v>5052.110000000001</v>
+        <v>5770.9715</v>
       </c>
       <c r="D25" t="n">
-        <v>60000</v>
+        <v>65000</v>
       </c>
       <c r="E25" t="n">
-        <v>-20447.02899999999</v>
+        <v>-18422.943</v>
       </c>
     </row>
   </sheetData>

--- a/wesm_exposure.xlsx
+++ b/wesm_exposure.xlsx
@@ -589,7 +589,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>59351.3105</v>
+        <v>91697.31049999999</v>
       </c>
       <c r="C10" t="n">
         <v>8596.6895</v>
@@ -598,7 +598,7 @@
         <v>65000</v>
       </c>
       <c r="E10" t="n">
-        <v>-14245.379</v>
+        <v>18100.62099999998</v>
       </c>
     </row>
     <row r="11">
@@ -606,7 +606,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>99192.12700000001</v>
+        <v>96192.12700000001</v>
       </c>
       <c r="C11" t="n">
         <v>13942.873</v>
@@ -615,7 +615,7 @@
         <v>65000</v>
       </c>
       <c r="E11" t="n">
-        <v>20249.25400000002</v>
+        <v>17249.25400000002</v>
       </c>
     </row>
     <row r="12">
@@ -623,7 +623,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>99767.6905</v>
+        <v>101740.6905</v>
       </c>
       <c r="C12" t="n">
         <v>15769.3095</v>
@@ -632,7 +632,7 @@
         <v>65000</v>
       </c>
       <c r="E12" t="n">
-        <v>18998.38099999999</v>
+        <v>20971.38099999999</v>
       </c>
     </row>
     <row r="13">
@@ -640,7 +640,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>100144.771</v>
+        <v>104097.771</v>
       </c>
       <c r="C13" t="n">
         <v>15209.229</v>
@@ -649,7 +649,7 @@
         <v>65000</v>
       </c>
       <c r="E13" t="n">
-        <v>19935.54199999999</v>
+        <v>23888.54199999999</v>
       </c>
     </row>
     <row r="14">
@@ -657,7 +657,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>101117.205</v>
+        <v>99612.205</v>
       </c>
       <c r="C14" t="n">
         <v>15159.795</v>
@@ -666,7 +666,7 @@
         <v>65000</v>
       </c>
       <c r="E14" t="n">
-        <v>20957.41</v>
+        <v>19452.41</v>
       </c>
     </row>
     <row r="15">
@@ -674,7 +674,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>108724.5555</v>
+        <v>105912.5555</v>
       </c>
       <c r="C15" t="n">
         <v>15449.4445</v>
@@ -683,7 +683,7 @@
         <v>65000</v>
       </c>
       <c r="E15" t="n">
-        <v>28275.111</v>
+        <v>25463.111</v>
       </c>
     </row>
     <row r="16">
@@ -691,7 +691,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>103763.567</v>
+        <v>103048.567</v>
       </c>
       <c r="C16" t="n">
         <v>15588.433</v>
@@ -700,7 +700,7 @@
         <v>65000</v>
       </c>
       <c r="E16" t="n">
-        <v>23175.13399999999</v>
+        <v>22460.13399999999</v>
       </c>
     </row>
     <row r="17">
@@ -708,7 +708,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>101211.3415</v>
+        <v>103143.3415</v>
       </c>
       <c r="C17" t="n">
         <v>16020.6585</v>
@@ -717,7 +717,7 @@
         <v>65000</v>
       </c>
       <c r="E17" t="n">
-        <v>20190.68299999999</v>
+        <v>22122.68299999999</v>
       </c>
     </row>
     <row r="18">

--- a/wesm_exposure.xlsx
+++ b/wesm_exposure.xlsx
@@ -453,16 +453,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>73177.4875</v>
+        <v>67469.4369706</v>
       </c>
       <c r="C2" t="n">
-        <v>5444.512500000001</v>
+        <v>5281.5630294</v>
       </c>
       <c r="D2" t="n">
         <v>65000</v>
       </c>
       <c r="E2" t="n">
-        <v>2732.975000000006</v>
+        <v>-2812.1260588</v>
       </c>
     </row>
     <row r="3">
@@ -470,16 +470,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>69811.6565</v>
+        <v>64762.4864266</v>
       </c>
       <c r="C3" t="n">
-        <v>5387.3435</v>
+        <v>5219.513573399999</v>
       </c>
       <c r="D3" t="n">
         <v>45000</v>
       </c>
       <c r="E3" t="n">
-        <v>19424.31299999999</v>
+        <v>14542.9728532</v>
       </c>
     </row>
     <row r="4">
@@ -487,16 +487,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>64462.7775</v>
+        <v>62133.5902844</v>
       </c>
       <c r="C4" t="n">
-        <v>5357.2225</v>
+        <v>5215.409715599999</v>
       </c>
       <c r="D4" t="n">
-        <v>22500</v>
+        <v>45000</v>
       </c>
       <c r="E4" t="n">
-        <v>36605.55499999999</v>
+        <v>11918.1805688</v>
       </c>
     </row>
     <row r="5">
@@ -504,16 +504,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>64419.8455</v>
+        <v>59918.038846</v>
       </c>
       <c r="C5" t="n">
-        <v>5289.154500000001</v>
+        <v>5203.961154000001</v>
       </c>
       <c r="D5" t="n">
-        <v>22500</v>
+        <v>45000</v>
       </c>
       <c r="E5" t="n">
-        <v>36630.69100000001</v>
+        <v>9714.077691999999</v>
       </c>
     </row>
     <row r="6">
@@ -521,16 +521,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>63786.1715</v>
+        <v>61112.8082086</v>
       </c>
       <c r="C6" t="n">
-        <v>5361.8285</v>
+        <v>5197.191791400001</v>
       </c>
       <c r="D6" t="n">
-        <v>22500</v>
+        <v>45000</v>
       </c>
       <c r="E6" t="n">
-        <v>35924.34299999999</v>
+        <v>10915.6164172</v>
       </c>
     </row>
     <row r="7">
@@ -538,16 +538,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>65583.3985</v>
+        <v>63543.34069</v>
       </c>
       <c r="C7" t="n">
-        <v>5442.6015</v>
+        <v>5340.65931</v>
       </c>
       <c r="D7" t="n">
-        <v>22500</v>
+        <v>45000</v>
       </c>
       <c r="E7" t="n">
-        <v>37640.797</v>
+        <v>13202.68137999999</v>
       </c>
     </row>
     <row r="8">
@@ -555,16 +555,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>63552.469</v>
+        <v>63281.5150334</v>
       </c>
       <c r="C8" t="n">
-        <v>5816.530999999999</v>
+        <v>5690.484966600001</v>
       </c>
       <c r="D8" t="n">
         <v>22500</v>
       </c>
       <c r="E8" t="n">
-        <v>35235.93799999999</v>
+        <v>35091.0300668</v>
       </c>
     </row>
     <row r="9">
@@ -572,16 +572,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>76403.3885</v>
+        <v>76932.727397</v>
       </c>
       <c r="C9" t="n">
-        <v>7034.6115</v>
+        <v>7243.272603</v>
       </c>
       <c r="D9" t="n">
-        <v>22500</v>
+        <v>45000</v>
       </c>
       <c r="E9" t="n">
-        <v>46868.777</v>
+        <v>24689.45479399999</v>
       </c>
     </row>
     <row r="10">
@@ -589,16 +589,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>91697.31049999999</v>
+        <v>71810.65454839999</v>
       </c>
       <c r="C10" t="n">
-        <v>8596.6895</v>
+        <v>8810.345451599998</v>
       </c>
       <c r="D10" t="n">
         <v>65000</v>
       </c>
       <c r="E10" t="n">
-        <v>18100.62099999998</v>
+        <v>-1999.690903200004</v>
       </c>
     </row>
     <row r="11">
@@ -606,16 +606,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>96192.12700000001</v>
+        <v>98935.182</v>
       </c>
       <c r="C11" t="n">
-        <v>13942.873</v>
+        <v>13845.818</v>
       </c>
       <c r="D11" t="n">
         <v>65000</v>
       </c>
       <c r="E11" t="n">
-        <v>17249.25400000002</v>
+        <v>20089.364</v>
       </c>
     </row>
     <row r="12">
@@ -623,16 +623,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>101740.6905</v>
+        <v>105787.3065</v>
       </c>
       <c r="C12" t="n">
-        <v>15769.3095</v>
+        <v>15425.6935</v>
       </c>
       <c r="D12" t="n">
         <v>65000</v>
       </c>
       <c r="E12" t="n">
-        <v>20971.38099999999</v>
+        <v>25361.61300000001</v>
       </c>
     </row>
     <row r="13">
@@ -640,16 +640,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>104097.771</v>
+        <v>101388.53031</v>
       </c>
       <c r="C13" t="n">
-        <v>15209.229</v>
+        <v>15935.46969</v>
       </c>
       <c r="D13" t="n">
         <v>65000</v>
       </c>
       <c r="E13" t="n">
-        <v>23888.54199999999</v>
+        <v>20453.06062</v>
       </c>
     </row>
     <row r="14">
@@ -657,16 +657,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>99612.205</v>
+        <v>102089.65541</v>
       </c>
       <c r="C14" t="n">
-        <v>15159.795</v>
+        <v>15980.34459</v>
       </c>
       <c r="D14" t="n">
         <v>65000</v>
       </c>
       <c r="E14" t="n">
-        <v>19452.41</v>
+        <v>21109.31082000001</v>
       </c>
     </row>
     <row r="15">
@@ -674,16 +674,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>105912.5555</v>
+        <v>106476.81932</v>
       </c>
       <c r="C15" t="n">
-        <v>15449.4445</v>
+        <v>16006.18068</v>
       </c>
       <c r="D15" t="n">
         <v>65000</v>
       </c>
       <c r="E15" t="n">
-        <v>25463.111</v>
+        <v>25470.63863999999</v>
       </c>
     </row>
     <row r="16">
@@ -691,16 +691,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>103048.567</v>
+        <v>105840.32945</v>
       </c>
       <c r="C16" t="n">
-        <v>15588.433</v>
+        <v>16129.67055</v>
       </c>
       <c r="D16" t="n">
         <v>65000</v>
       </c>
       <c r="E16" t="n">
-        <v>22460.13399999999</v>
+        <v>24710.65890000001</v>
       </c>
     </row>
     <row r="17">
@@ -708,16 +708,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>103143.3415</v>
+        <v>87636.42429</v>
       </c>
       <c r="C17" t="n">
-        <v>16020.6585</v>
+        <v>16259.57571</v>
       </c>
       <c r="D17" t="n">
         <v>65000</v>
       </c>
       <c r="E17" t="n">
-        <v>22122.68299999999</v>
+        <v>6376.848579999991</v>
       </c>
     </row>
     <row r="18">
@@ -725,16 +725,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>93839.61749999999</v>
+        <v>2351.925520000001</v>
       </c>
       <c r="C18" t="n">
-        <v>16262.3825</v>
+        <v>16450.07448</v>
       </c>
       <c r="D18" t="n">
         <v>65000</v>
       </c>
       <c r="E18" t="n">
-        <v>12577.23499999999</v>
+        <v>-79098.14895999999</v>
       </c>
     </row>
     <row r="19">
@@ -745,13 +745,13 @@
         <v>88583.391</v>
       </c>
       <c r="C19" t="n">
-        <v>15862.609</v>
+        <v>16258.20126</v>
       </c>
       <c r="D19" t="n">
         <v>65000</v>
       </c>
       <c r="E19" t="n">
-        <v>7720.782000000007</v>
+        <v>7325.189740000002</v>
       </c>
     </row>
     <row r="20">
@@ -762,13 +762,13 @@
         <v>89024.58199999999</v>
       </c>
       <c r="C20" t="n">
-        <v>14887.418</v>
+        <v>15318.55227</v>
       </c>
       <c r="D20" t="n">
         <v>65000</v>
       </c>
       <c r="E20" t="n">
-        <v>9137.16399999999</v>
+        <v>8706.029729999995</v>
       </c>
     </row>
     <row r="21">
@@ -779,13 +779,13 @@
         <v>87063.96249999999</v>
       </c>
       <c r="C21" t="n">
-        <v>13341.0375</v>
+        <v>13705.95114</v>
       </c>
       <c r="D21" t="n">
         <v>65000</v>
       </c>
       <c r="E21" t="n">
-        <v>8722.924999999988</v>
+        <v>8358.01135999999</v>
       </c>
     </row>
     <row r="22">
@@ -796,13 +796,13 @@
         <v>85910.32799999999</v>
       </c>
       <c r="C22" t="n">
-        <v>11837.672</v>
+        <v>12047.14707</v>
       </c>
       <c r="D22" t="n">
         <v>65000</v>
       </c>
       <c r="E22" t="n">
-        <v>9072.655999999988</v>
+        <v>8863.180929999988</v>
       </c>
     </row>
     <row r="23">
@@ -813,13 +813,13 @@
         <v>84684.008</v>
       </c>
       <c r="C23" t="n">
-        <v>9490.991999999998</v>
+        <v>9638.00397</v>
       </c>
       <c r="D23" t="n">
         <v>65000</v>
       </c>
       <c r="E23" t="n">
-        <v>10193.016</v>
+        <v>10046.00403</v>
       </c>
     </row>
     <row r="24">
@@ -830,13 +830,13 @@
         <v>81619.20600000001</v>
       </c>
       <c r="C24" t="n">
-        <v>6891.794</v>
+        <v>6839.395290000001</v>
       </c>
       <c r="D24" t="n">
         <v>65000</v>
       </c>
       <c r="E24" t="n">
-        <v>9727.412000000011</v>
+        <v>9779.810710000005</v>
       </c>
     </row>
     <row r="25">
@@ -847,13 +847,13 @@
         <v>52348.0285</v>
       </c>
       <c r="C25" t="n">
-        <v>5770.9715</v>
+        <v>5959.954350000001</v>
       </c>
       <c r="D25" t="n">
         <v>65000</v>
       </c>
       <c r="E25" t="n">
-        <v>-18422.943</v>
+        <v>-18611.92585</v>
       </c>
     </row>
   </sheetData>

--- a/wesm_exposure.xlsx
+++ b/wesm_exposure.xlsx
@@ -453,16 +453,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>67469.4369706</v>
+        <v>73347.2945</v>
       </c>
       <c r="C2" t="n">
-        <v>5281.5630294</v>
+        <v>5623.7055</v>
       </c>
       <c r="D2" t="n">
         <v>65000</v>
       </c>
       <c r="E2" t="n">
-        <v>-2812.1260588</v>
+        <v>2723.589000000007</v>
       </c>
     </row>
     <row r="3">
@@ -470,16 +470,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>64762.4864266</v>
+        <v>70244.77099999999</v>
       </c>
       <c r="C3" t="n">
-        <v>5219.513573399999</v>
+        <v>5458.229</v>
       </c>
       <c r="D3" t="n">
         <v>45000</v>
       </c>
       <c r="E3" t="n">
-        <v>14542.9728532</v>
+        <v>19786.54199999999</v>
       </c>
     </row>
     <row r="4">
@@ -487,16 +487,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>62133.5902844</v>
+        <v>67129.0255</v>
       </c>
       <c r="C4" t="n">
-        <v>5215.409715599999</v>
+        <v>5507.9745</v>
       </c>
       <c r="D4" t="n">
         <v>45000</v>
       </c>
       <c r="E4" t="n">
-        <v>11918.1805688</v>
+        <v>16621.05100000001</v>
       </c>
     </row>
     <row r="5">
@@ -504,16 +504,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>59918.038846</v>
+        <v>64595.502</v>
       </c>
       <c r="C5" t="n">
-        <v>5203.961154000001</v>
+        <v>5475.498</v>
       </c>
       <c r="D5" t="n">
         <v>45000</v>
       </c>
       <c r="E5" t="n">
-        <v>9714.077691999999</v>
+        <v>14120.004</v>
       </c>
     </row>
     <row r="6">
@@ -521,16 +521,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>61112.8082086</v>
+        <v>65374.48</v>
       </c>
       <c r="C6" t="n">
-        <v>5197.191791400001</v>
+        <v>5469.52</v>
       </c>
       <c r="D6" t="n">
         <v>45000</v>
       </c>
       <c r="E6" t="n">
-        <v>10915.6164172</v>
+        <v>14904.96000000001</v>
       </c>
     </row>
     <row r="7">
@@ -538,16 +538,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>63543.34069</v>
+        <v>67982.29700000001</v>
       </c>
       <c r="C7" t="n">
-        <v>5340.65931</v>
+        <v>5575.703</v>
       </c>
       <c r="D7" t="n">
         <v>45000</v>
       </c>
       <c r="E7" t="n">
-        <v>13202.68137999999</v>
+        <v>17406.594</v>
       </c>
     </row>
     <row r="8">
@@ -555,16 +555,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>63281.5150334</v>
+        <v>67367.1265</v>
       </c>
       <c r="C8" t="n">
-        <v>5690.484966600001</v>
+        <v>6141.8735</v>
       </c>
       <c r="D8" t="n">
         <v>22500</v>
       </c>
       <c r="E8" t="n">
-        <v>35091.0300668</v>
+        <v>38725.253</v>
       </c>
     </row>
     <row r="9">
@@ -572,16 +572,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>76932.727397</v>
+        <v>79207.3645</v>
       </c>
       <c r="C9" t="n">
-        <v>7243.272603</v>
+        <v>7163.6355</v>
       </c>
       <c r="D9" t="n">
         <v>45000</v>
       </c>
       <c r="E9" t="n">
-        <v>24689.45479399999</v>
+        <v>27043.72899999999</v>
       </c>
     </row>
     <row r="10">
@@ -589,16 +589,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>71810.65454839999</v>
+        <v>95174.5395</v>
       </c>
       <c r="C10" t="n">
-        <v>8810.345451599998</v>
+        <v>8647.460500000001</v>
       </c>
       <c r="D10" t="n">
         <v>65000</v>
       </c>
       <c r="E10" t="n">
-        <v>-1999.690903200004</v>
+        <v>21527.079</v>
       </c>
     </row>
     <row r="11">
@@ -606,16 +606,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>98935.182</v>
+        <v>81952.2095</v>
       </c>
       <c r="C11" t="n">
-        <v>13845.818</v>
+        <v>12435.7905</v>
       </c>
       <c r="D11" t="n">
         <v>65000</v>
       </c>
       <c r="E11" t="n">
-        <v>20089.364</v>
+        <v>4516.418999999994</v>
       </c>
     </row>
     <row r="12">
@@ -623,16 +623,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>105787.3065</v>
+        <v>81626.978</v>
       </c>
       <c r="C12" t="n">
-        <v>15425.6935</v>
+        <v>15471.022</v>
       </c>
       <c r="D12" t="n">
         <v>65000</v>
       </c>
       <c r="E12" t="n">
-        <v>25361.61300000001</v>
+        <v>1155.956000000006</v>
       </c>
     </row>
     <row r="13">
@@ -640,16 +640,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>101388.53031</v>
+        <v>80925.1525</v>
       </c>
       <c r="C13" t="n">
-        <v>15935.46969</v>
+        <v>16384.8475</v>
       </c>
       <c r="D13" t="n">
         <v>65000</v>
       </c>
       <c r="E13" t="n">
-        <v>20453.06062</v>
+        <v>-459.695000000007</v>
       </c>
     </row>
     <row r="14">
@@ -657,16 +657,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>102089.65541</v>
+        <v>80952.772</v>
       </c>
       <c r="C14" t="n">
-        <v>15980.34459</v>
+        <v>16062.228</v>
       </c>
       <c r="D14" t="n">
         <v>65000</v>
       </c>
       <c r="E14" t="n">
-        <v>21109.31082000001</v>
+        <v>-109.4560000000056</v>
       </c>
     </row>
     <row r="15">
@@ -674,16 +674,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>106476.81932</v>
+        <v>107586.796</v>
       </c>
       <c r="C15" t="n">
-        <v>16006.18068</v>
+        <v>16185.204</v>
       </c>
       <c r="D15" t="n">
         <v>65000</v>
       </c>
       <c r="E15" t="n">
-        <v>25470.63863999999</v>
+        <v>26401.592</v>
       </c>
     </row>
     <row r="16">
@@ -691,16 +691,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>105840.32945</v>
+        <v>106447.456</v>
       </c>
       <c r="C16" t="n">
-        <v>16129.67055</v>
+        <v>16525.544</v>
       </c>
       <c r="D16" t="n">
         <v>65000</v>
       </c>
       <c r="E16" t="n">
-        <v>24710.65890000001</v>
+        <v>24921.91200000001</v>
       </c>
     </row>
     <row r="17">
@@ -708,16 +708,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>87636.42429</v>
+        <v>65630.38250000001</v>
       </c>
       <c r="C17" t="n">
-        <v>16259.57571</v>
+        <v>16462.6175</v>
       </c>
       <c r="D17" t="n">
         <v>65000</v>
       </c>
       <c r="E17" t="n">
-        <v>6376.848579999991</v>
+        <v>-15832.23499999999</v>
       </c>
     </row>
     <row r="18">
@@ -725,16 +725,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>2351.925520000001</v>
+        <v>40052.2725</v>
       </c>
       <c r="C18" t="n">
-        <v>16450.07448</v>
+        <v>16761.7275</v>
       </c>
       <c r="D18" t="n">
         <v>65000</v>
       </c>
       <c r="E18" t="n">
-        <v>-79098.14895999999</v>
+        <v>-41709.455</v>
       </c>
     </row>
     <row r="19">
@@ -745,13 +745,13 @@
         <v>88583.391</v>
       </c>
       <c r="C19" t="n">
-        <v>16258.20126</v>
+        <v>16532.1625</v>
       </c>
       <c r="D19" t="n">
         <v>65000</v>
       </c>
       <c r="E19" t="n">
-        <v>7325.189740000002</v>
+        <v>7051.228499999997</v>
       </c>
     </row>
     <row r="20">
@@ -762,13 +762,13 @@
         <v>89024.58199999999</v>
       </c>
       <c r="C20" t="n">
-        <v>15318.55227</v>
+        <v>15890.3885</v>
       </c>
       <c r="D20" t="n">
         <v>65000</v>
       </c>
       <c r="E20" t="n">
-        <v>8706.029729999995</v>
+        <v>8134.193499999994</v>
       </c>
     </row>
     <row r="21">
@@ -779,13 +779,13 @@
         <v>87063.96249999999</v>
       </c>
       <c r="C21" t="n">
-        <v>13705.95114</v>
+        <v>13683.775</v>
       </c>
       <c r="D21" t="n">
         <v>65000</v>
       </c>
       <c r="E21" t="n">
-        <v>8358.01135999999</v>
+        <v>8380.1875</v>
       </c>
     </row>
     <row r="22">
@@ -796,13 +796,13 @@
         <v>85910.32799999999</v>
       </c>
       <c r="C22" t="n">
-        <v>12047.14707</v>
+        <v>11966.283</v>
       </c>
       <c r="D22" t="n">
         <v>65000</v>
       </c>
       <c r="E22" t="n">
-        <v>8863.180929999988</v>
+        <v>8944.044999999998</v>
       </c>
     </row>
     <row r="23">
@@ -813,13 +813,13 @@
         <v>84684.008</v>
       </c>
       <c r="C23" t="n">
-        <v>9638.00397</v>
+        <v>9398.494000000001</v>
       </c>
       <c r="D23" t="n">
         <v>65000</v>
       </c>
       <c r="E23" t="n">
-        <v>10046.00403</v>
+        <v>10285.514</v>
       </c>
     </row>
     <row r="24">
@@ -830,13 +830,13 @@
         <v>81619.20600000001</v>
       </c>
       <c r="C24" t="n">
-        <v>6839.395290000001</v>
+        <v>6574.9635</v>
       </c>
       <c r="D24" t="n">
         <v>65000</v>
       </c>
       <c r="E24" t="n">
-        <v>9779.810710000005</v>
+        <v>10044.24250000001</v>
       </c>
     </row>
     <row r="25">
@@ -847,13 +847,13 @@
         <v>52348.0285</v>
       </c>
       <c r="C25" t="n">
-        <v>5959.954350000001</v>
+        <v>5831.934499999999</v>
       </c>
       <c r="D25" t="n">
         <v>65000</v>
       </c>
       <c r="E25" t="n">
-        <v>-18611.92585</v>
+        <v>-18483.906</v>
       </c>
     </row>
   </sheetData>

--- a/wesm_exposure.xlsx
+++ b/wesm_exposure.xlsx
@@ -453,16 +453,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>73347.2945</v>
+        <v>76120.08100000001</v>
       </c>
       <c r="C2" t="n">
-        <v>5623.7055</v>
+        <v>5581.919</v>
       </c>
       <c r="D2" t="n">
         <v>65000</v>
       </c>
       <c r="E2" t="n">
-        <v>2723.589000000007</v>
+        <v>5538.162000000011</v>
       </c>
     </row>
     <row r="3">
@@ -470,16 +470,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>70244.77099999999</v>
+        <v>71791.0595</v>
       </c>
       <c r="C3" t="n">
-        <v>5458.229</v>
+        <v>5396.9405</v>
       </c>
       <c r="D3" t="n">
         <v>45000</v>
       </c>
       <c r="E3" t="n">
-        <v>19786.54199999999</v>
+        <v>21394.11900000001</v>
       </c>
     </row>
     <row r="4">
@@ -487,16 +487,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>67129.0255</v>
+        <v>68399.94749999999</v>
       </c>
       <c r="C4" t="n">
-        <v>5507.9745</v>
+        <v>5495.0525</v>
       </c>
       <c r="D4" t="n">
         <v>45000</v>
       </c>
       <c r="E4" t="n">
-        <v>16621.05100000001</v>
+        <v>17904.895</v>
       </c>
     </row>
     <row r="5">
@@ -504,16 +504,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>64595.502</v>
+        <v>66005.4555</v>
       </c>
       <c r="C5" t="n">
-        <v>5475.498</v>
+        <v>5434.544500000001</v>
       </c>
       <c r="D5" t="n">
         <v>45000</v>
       </c>
       <c r="E5" t="n">
-        <v>14120.004</v>
+        <v>15570.91099999999</v>
       </c>
     </row>
     <row r="6">
@@ -521,16 +521,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>65374.48</v>
+        <v>66108.52100000001</v>
       </c>
       <c r="C6" t="n">
-        <v>5469.52</v>
+        <v>5428.478999999999</v>
       </c>
       <c r="D6" t="n">
         <v>45000</v>
       </c>
       <c r="E6" t="n">
-        <v>14904.96000000001</v>
+        <v>15680.04200000001</v>
       </c>
     </row>
     <row r="7">
@@ -538,16 +538,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>67982.29700000001</v>
+        <v>68556.58900000001</v>
       </c>
       <c r="C7" t="n">
-        <v>5575.703</v>
+        <v>5521.411</v>
       </c>
       <c r="D7" t="n">
         <v>45000</v>
       </c>
       <c r="E7" t="n">
-        <v>17406.594</v>
+        <v>18035.17800000001</v>
       </c>
     </row>
     <row r="8">
@@ -555,16 +555,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>67367.1265</v>
+        <v>67236.3705</v>
       </c>
       <c r="C8" t="n">
-        <v>6141.8735</v>
+        <v>5848.6295</v>
       </c>
       <c r="D8" t="n">
         <v>22500</v>
       </c>
       <c r="E8" t="n">
-        <v>38725.253</v>
+        <v>38887.741</v>
       </c>
     </row>
     <row r="9">
@@ -572,16 +572,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>79207.3645</v>
+        <v>78468.8045</v>
       </c>
       <c r="C9" t="n">
-        <v>7163.6355</v>
+        <v>7409.1955</v>
       </c>
       <c r="D9" t="n">
         <v>45000</v>
       </c>
       <c r="E9" t="n">
-        <v>27043.72899999999</v>
+        <v>26059.609</v>
       </c>
     </row>
     <row r="10">
@@ -589,16 +589,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>95174.5395</v>
+        <v>94798.8805</v>
       </c>
       <c r="C10" t="n">
-        <v>8647.460500000001</v>
+        <v>8747.119500000001</v>
       </c>
       <c r="D10" t="n">
         <v>65000</v>
       </c>
       <c r="E10" t="n">
-        <v>21527.079</v>
+        <v>21051.761</v>
       </c>
     </row>
     <row r="11">
@@ -606,16 +606,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>81952.2095</v>
+        <v>104772.7525</v>
       </c>
       <c r="C11" t="n">
-        <v>12435.7905</v>
+        <v>13859.2475</v>
       </c>
       <c r="D11" t="n">
         <v>65000</v>
       </c>
       <c r="E11" t="n">
-        <v>4516.418999999994</v>
+        <v>25913.505</v>
       </c>
     </row>
     <row r="12">
@@ -623,16 +623,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>81626.978</v>
+        <v>81750.917</v>
       </c>
       <c r="C12" t="n">
-        <v>15471.022</v>
+        <v>15630.083</v>
       </c>
       <c r="D12" t="n">
         <v>65000</v>
       </c>
       <c r="E12" t="n">
-        <v>1155.956000000006</v>
+        <v>1120.834000000003</v>
       </c>
     </row>
     <row r="13">
@@ -640,16 +640,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>80925.1525</v>
+        <v>81997.829</v>
       </c>
       <c r="C13" t="n">
-        <v>16384.8475</v>
+        <v>15508.171</v>
       </c>
       <c r="D13" t="n">
         <v>65000</v>
       </c>
       <c r="E13" t="n">
-        <v>-459.695000000007</v>
+        <v>1489.657999999996</v>
       </c>
     </row>
     <row r="14">
@@ -657,16 +657,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>80952.772</v>
+        <v>105624.2205</v>
       </c>
       <c r="C14" t="n">
-        <v>16062.228</v>
+        <v>15504.7795</v>
       </c>
       <c r="D14" t="n">
         <v>65000</v>
       </c>
       <c r="E14" t="n">
-        <v>-109.4560000000056</v>
+        <v>25119.44099999999</v>
       </c>
     </row>
     <row r="15">
@@ -674,16 +674,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>107586.796</v>
+        <v>95972.76149999999</v>
       </c>
       <c r="C15" t="n">
-        <v>16185.204</v>
+        <v>15740.2385</v>
       </c>
       <c r="D15" t="n">
         <v>65000</v>
       </c>
       <c r="E15" t="n">
-        <v>26401.592</v>
+        <v>15232.52299999999</v>
       </c>
     </row>
     <row r="16">
@@ -691,16 +691,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>106447.456</v>
+        <v>88861.656</v>
       </c>
       <c r="C16" t="n">
-        <v>16525.544</v>
+        <v>15821.344</v>
       </c>
       <c r="D16" t="n">
         <v>65000</v>
       </c>
       <c r="E16" t="n">
-        <v>24921.91200000001</v>
+        <v>8040.312000000005</v>
       </c>
     </row>
     <row r="17">
@@ -708,16 +708,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>65630.38250000001</v>
+        <v>101913.6585</v>
       </c>
       <c r="C17" t="n">
-        <v>16462.6175</v>
+        <v>15962.3415</v>
       </c>
       <c r="D17" t="n">
         <v>65000</v>
       </c>
       <c r="E17" t="n">
-        <v>-15832.23499999999</v>
+        <v>20951.31700000001</v>
       </c>
     </row>
     <row r="18">
@@ -725,16 +725,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>40052.2725</v>
+        <v>80077.4455</v>
       </c>
       <c r="C18" t="n">
-        <v>16761.7275</v>
+        <v>16427.5545</v>
       </c>
       <c r="D18" t="n">
         <v>65000</v>
       </c>
       <c r="E18" t="n">
-        <v>-41709.455</v>
+        <v>-1350.108999999997</v>
       </c>
     </row>
     <row r="19">
@@ -745,13 +745,13 @@
         <v>88583.391</v>
       </c>
       <c r="C19" t="n">
-        <v>16532.1625</v>
+        <v>16271.78</v>
       </c>
       <c r="D19" t="n">
         <v>65000</v>
       </c>
       <c r="E19" t="n">
-        <v>7051.228499999997</v>
+        <v>7311.611000000004</v>
       </c>
     </row>
     <row r="20">
@@ -762,13 +762,13 @@
         <v>89024.58199999999</v>
       </c>
       <c r="C20" t="n">
-        <v>15890.3885</v>
+        <v>15553.594</v>
       </c>
       <c r="D20" t="n">
         <v>65000</v>
       </c>
       <c r="E20" t="n">
-        <v>8134.193499999994</v>
+        <v>8470.987999999998</v>
       </c>
     </row>
     <row r="21">
@@ -779,13 +779,13 @@
         <v>87063.96249999999</v>
       </c>
       <c r="C21" t="n">
-        <v>13683.775</v>
+        <v>13684.776</v>
       </c>
       <c r="D21" t="n">
         <v>65000</v>
       </c>
       <c r="E21" t="n">
-        <v>8380.1875</v>
+        <v>8379.186499999996</v>
       </c>
     </row>
     <row r="22">
@@ -796,13 +796,13 @@
         <v>85910.32799999999</v>
       </c>
       <c r="C22" t="n">
-        <v>11966.283</v>
+        <v>12055.652</v>
       </c>
       <c r="D22" t="n">
         <v>65000</v>
       </c>
       <c r="E22" t="n">
-        <v>8944.044999999998</v>
+        <v>8854.675999999992</v>
       </c>
     </row>
     <row r="23">
@@ -813,13 +813,13 @@
         <v>84684.008</v>
       </c>
       <c r="C23" t="n">
-        <v>9398.494000000001</v>
+        <v>9556.389499999999</v>
       </c>
       <c r="D23" t="n">
         <v>65000</v>
       </c>
       <c r="E23" t="n">
-        <v>10285.514</v>
+        <v>10127.6185</v>
       </c>
     </row>
     <row r="24">
@@ -830,13 +830,13 @@
         <v>81619.20600000001</v>
       </c>
       <c r="C24" t="n">
-        <v>6574.9635</v>
+        <v>6528.8335</v>
       </c>
       <c r="D24" t="n">
         <v>65000</v>
       </c>
       <c r="E24" t="n">
-        <v>10044.24250000001</v>
+        <v>10090.37250000001</v>
       </c>
     </row>
     <row r="25">
@@ -847,13 +847,13 @@
         <v>52348.0285</v>
       </c>
       <c r="C25" t="n">
-        <v>5831.934499999999</v>
+        <v>5841.465</v>
       </c>
       <c r="D25" t="n">
         <v>65000</v>
       </c>
       <c r="E25" t="n">
-        <v>-18483.906</v>
+        <v>-18493.4365</v>
       </c>
     </row>
   </sheetData>

--- a/wesm_exposure.xlsx
+++ b/wesm_exposure.xlsx
@@ -453,16 +453,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>76120.08100000001</v>
+        <v>71113.81820777048</v>
       </c>
       <c r="C2" t="n">
-        <v>5581.919</v>
+        <v>5403.181792229516</v>
       </c>
       <c r="D2" t="n">
         <v>65000</v>
       </c>
       <c r="E2" t="n">
-        <v>5538.162000000011</v>
+        <v>710.6364155409683</v>
       </c>
     </row>
     <row r="3">
@@ -470,16 +470,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>71791.0595</v>
+        <v>67545.03614904819</v>
       </c>
       <c r="C3" t="n">
-        <v>5396.9405</v>
+        <v>5278.963850951805</v>
       </c>
       <c r="D3" t="n">
-        <v>45000</v>
+        <v>65000</v>
       </c>
       <c r="E3" t="n">
-        <v>21394.11900000001</v>
+        <v>-2733.927701903616</v>
       </c>
     </row>
     <row r="4">
@@ -487,16 +487,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>68399.94749999999</v>
+        <v>64912.93507234415</v>
       </c>
       <c r="C4" t="n">
-        <v>5495.0525</v>
+        <v>5184.064927655845</v>
       </c>
       <c r="D4" t="n">
-        <v>45000</v>
+        <v>65000</v>
       </c>
       <c r="E4" t="n">
-        <v>17904.895</v>
+        <v>-5271.129855311694</v>
       </c>
     </row>
     <row r="5">
@@ -504,16 +504,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>66005.4555</v>
+        <v>62673.45009204476</v>
       </c>
       <c r="C5" t="n">
-        <v>5434.544500000001</v>
+        <v>5136.549907955236</v>
       </c>
       <c r="D5" t="n">
-        <v>45000</v>
+        <v>50000</v>
       </c>
       <c r="E5" t="n">
-        <v>15570.91099999999</v>
+        <v>7536.900184089522</v>
       </c>
     </row>
     <row r="6">
@@ -521,16 +521,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>66108.52100000001</v>
+        <v>65076.2280662639</v>
       </c>
       <c r="C6" t="n">
-        <v>5428.478999999999</v>
+        <v>5129.7719337361</v>
       </c>
       <c r="D6" t="n">
-        <v>45000</v>
+        <v>32500</v>
       </c>
       <c r="E6" t="n">
-        <v>15680.04200000001</v>
+        <v>27446.4561325278</v>
       </c>
     </row>
     <row r="7">
@@ -538,16 +538,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>68556.58900000001</v>
+        <v>59771.86150775545</v>
       </c>
       <c r="C7" t="n">
-        <v>5521.411</v>
+        <v>5143.13849224455</v>
       </c>
       <c r="D7" t="n">
-        <v>45000</v>
+        <v>22500</v>
       </c>
       <c r="E7" t="n">
-        <v>18035.17800000001</v>
+        <v>32128.7230155109</v>
       </c>
     </row>
     <row r="8">
@@ -555,16 +555,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>67236.3705</v>
+        <v>57711.95956649978</v>
       </c>
       <c r="C8" t="n">
-        <v>5848.6295</v>
+        <v>5818.040433500224</v>
       </c>
       <c r="D8" t="n">
         <v>22500</v>
       </c>
       <c r="E8" t="n">
-        <v>38887.741</v>
+        <v>29393.91913299956</v>
       </c>
     </row>
     <row r="9">
@@ -572,16 +572,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>78468.8045</v>
+        <v>62446.29786159514</v>
       </c>
       <c r="C9" t="n">
-        <v>7409.1955</v>
+        <v>6499.70213840486</v>
       </c>
       <c r="D9" t="n">
-        <v>45000</v>
+        <v>22500</v>
       </c>
       <c r="E9" t="n">
-        <v>26059.609</v>
+        <v>33446.59572319029</v>
       </c>
     </row>
     <row r="10">
@@ -589,16 +589,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>94798.8805</v>
+        <v>65775.31946340523</v>
       </c>
       <c r="C10" t="n">
-        <v>8747.119500000001</v>
+        <v>7901.680536594761</v>
       </c>
       <c r="D10" t="n">
-        <v>65000</v>
+        <v>22500</v>
       </c>
       <c r="E10" t="n">
-        <v>21051.761</v>
+        <v>35373.63892681048</v>
       </c>
     </row>
     <row r="11">
@@ -606,16 +606,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>104772.7525</v>
+        <v>71462.30980939096</v>
       </c>
       <c r="C11" t="n">
-        <v>13859.2475</v>
+        <v>13514.69019060903</v>
       </c>
       <c r="D11" t="n">
-        <v>65000</v>
+        <v>32500</v>
       </c>
       <c r="E11" t="n">
-        <v>25913.505</v>
+        <v>25447.61961878194</v>
       </c>
     </row>
     <row r="12">
@@ -623,16 +623,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>81750.917</v>
+        <v>74113.08355009009</v>
       </c>
       <c r="C12" t="n">
-        <v>15630.083</v>
+        <v>15633.91644990992</v>
       </c>
       <c r="D12" t="n">
-        <v>65000</v>
+        <v>45000</v>
       </c>
       <c r="E12" t="n">
-        <v>1120.834000000003</v>
+        <v>13479.16710018017</v>
       </c>
     </row>
     <row r="13">
@@ -640,16 +640,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>81997.829</v>
+        <v>76043.90358977004</v>
       </c>
       <c r="C13" t="n">
-        <v>15508.171</v>
+        <v>15567.09641022996</v>
       </c>
       <c r="D13" t="n">
-        <v>65000</v>
+        <v>50000</v>
       </c>
       <c r="E13" t="n">
-        <v>1489.657999999996</v>
+        <v>10476.80717954008</v>
       </c>
     </row>
     <row r="14">
@@ -657,16 +657,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>105624.2205</v>
+        <v>77831.44660727248</v>
       </c>
       <c r="C14" t="n">
-        <v>15504.7795</v>
+        <v>15766.55339272752</v>
       </c>
       <c r="D14" t="n">
-        <v>65000</v>
+        <v>55000</v>
       </c>
       <c r="E14" t="n">
-        <v>25119.44099999999</v>
+        <v>7064.893214544958</v>
       </c>
     </row>
     <row r="15">
@@ -674,16 +674,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>95972.76149999999</v>
+        <v>82872.27103645413</v>
       </c>
       <c r="C15" t="n">
-        <v>15740.2385</v>
+        <v>15912.72896354587</v>
       </c>
       <c r="D15" t="n">
         <v>65000</v>
       </c>
       <c r="E15" t="n">
-        <v>15232.52299999999</v>
+        <v>1959.542072908254</v>
       </c>
     </row>
     <row r="16">
@@ -691,16 +691,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>88861.656</v>
+        <v>83944.14432565661</v>
       </c>
       <c r="C16" t="n">
-        <v>15821.344</v>
+        <v>16136.85567434339</v>
       </c>
       <c r="D16" t="n">
         <v>65000</v>
       </c>
       <c r="E16" t="n">
-        <v>8040.312000000005</v>
+        <v>2807.288651313225</v>
       </c>
     </row>
     <row r="17">
@@ -708,16 +708,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>101913.6585</v>
+        <v>78618.92133665539</v>
       </c>
       <c r="C17" t="n">
-        <v>15962.3415</v>
+        <v>16644.07866334462</v>
       </c>
       <c r="D17" t="n">
         <v>65000</v>
       </c>
       <c r="E17" t="n">
-        <v>20951.31700000001</v>
+        <v>-3025.15732668923</v>
       </c>
     </row>
     <row r="18">
@@ -725,16 +725,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>80077.4455</v>
+        <v>80129.02516075459</v>
       </c>
       <c r="C18" t="n">
-        <v>16427.5545</v>
+        <v>16694.97483924541</v>
       </c>
       <c r="D18" t="n">
         <v>65000</v>
       </c>
       <c r="E18" t="n">
-        <v>-1350.108999999997</v>
+        <v>-1565.949678490811</v>
       </c>
     </row>
     <row r="19">
@@ -742,16 +742,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>88583.391</v>
+        <v>79144.3965218529</v>
       </c>
       <c r="C19" t="n">
-        <v>16271.78</v>
+        <v>16392.60347814709</v>
       </c>
       <c r="D19" t="n">
         <v>65000</v>
       </c>
       <c r="E19" t="n">
-        <v>7311.611000000004</v>
+        <v>-2248.206956294191</v>
       </c>
     </row>
     <row r="20">
@@ -759,16 +759,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>89024.58199999999</v>
+        <v>80314.30964363975</v>
       </c>
       <c r="C20" t="n">
-        <v>15553.594</v>
+        <v>15677.69035636025</v>
       </c>
       <c r="D20" t="n">
         <v>65000</v>
       </c>
       <c r="E20" t="n">
-        <v>8470.987999999998</v>
+        <v>-363.3807127205073</v>
       </c>
     </row>
     <row r="21">
@@ -776,16 +776,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>87063.96249999999</v>
+        <v>80761.9859478088</v>
       </c>
       <c r="C21" t="n">
-        <v>13684.776</v>
+        <v>14143.01405219119</v>
       </c>
       <c r="D21" t="n">
         <v>65000</v>
       </c>
       <c r="E21" t="n">
-        <v>8379.186499999996</v>
+        <v>1618.971895617608</v>
       </c>
     </row>
     <row r="22">
@@ -793,16 +793,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>85910.32799999999</v>
+        <v>82236.71857656092</v>
       </c>
       <c r="C22" t="n">
-        <v>12055.652</v>
+        <v>12333.28142343908</v>
       </c>
       <c r="D22" t="n">
         <v>65000</v>
       </c>
       <c r="E22" t="n">
-        <v>8854.675999999992</v>
+        <v>4903.437153121835</v>
       </c>
     </row>
     <row r="23">
@@ -810,16 +810,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>84684.008</v>
+        <v>60893.79318067842</v>
       </c>
       <c r="C23" t="n">
-        <v>9556.389499999999</v>
+        <v>9480.206819321584</v>
       </c>
       <c r="D23" t="n">
         <v>65000</v>
       </c>
       <c r="E23" t="n">
-        <v>10127.6185</v>
+        <v>-13586.41363864316</v>
       </c>
     </row>
     <row r="24">
@@ -827,16 +827,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>81619.20600000001</v>
+        <v>41527.12359352758</v>
       </c>
       <c r="C24" t="n">
-        <v>6528.8335</v>
+        <v>6243.876406472426</v>
       </c>
       <c r="D24" t="n">
         <v>65000</v>
       </c>
       <c r="E24" t="n">
-        <v>10090.37250000001</v>
+        <v>-29716.75281294484</v>
       </c>
     </row>
     <row r="25">
@@ -844,16 +844,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>52348.0285</v>
+        <v>69812.7623244882</v>
       </c>
       <c r="C25" t="n">
-        <v>5841.465</v>
+        <v>5337.237675511805</v>
       </c>
       <c r="D25" t="n">
         <v>65000</v>
       </c>
       <c r="E25" t="n">
-        <v>-18493.4365</v>
+        <v>-524.4753510236042</v>
       </c>
     </row>
   </sheetData>

--- a/wesm_exposure.xlsx
+++ b/wesm_exposure.xlsx
@@ -453,16 +453,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>71113.81820777048</v>
+        <v>69119.274</v>
       </c>
       <c r="C2" t="n">
-        <v>5403.181792229516</v>
+        <v>5689.726000000001</v>
       </c>
       <c r="D2" t="n">
         <v>65000</v>
       </c>
       <c r="E2" t="n">
-        <v>710.6364155409683</v>
+        <v>-1570.451999999997</v>
       </c>
     </row>
     <row r="3">
@@ -470,16 +470,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>67545.03614904819</v>
+        <v>66340.0365</v>
       </c>
       <c r="C3" t="n">
-        <v>5278.963850951805</v>
+        <v>5531.9635</v>
       </c>
       <c r="D3" t="n">
-        <v>65000</v>
+        <v>45000</v>
       </c>
       <c r="E3" t="n">
-        <v>-2733.927701903616</v>
+        <v>15808.073</v>
       </c>
     </row>
     <row r="4">
@@ -487,16 +487,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>64912.93507234415</v>
+        <v>63208.0625</v>
       </c>
       <c r="C4" t="n">
-        <v>5184.064927655845</v>
+        <v>5582.9375</v>
       </c>
       <c r="D4" t="n">
-        <v>65000</v>
+        <v>45000</v>
       </c>
       <c r="E4" t="n">
-        <v>-5271.129855311694</v>
+        <v>12625.125</v>
       </c>
     </row>
     <row r="5">
@@ -504,16 +504,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>62673.45009204476</v>
+        <v>60943.438</v>
       </c>
       <c r="C5" t="n">
-        <v>5136.549907955236</v>
+        <v>5518.562</v>
       </c>
       <c r="D5" t="n">
-        <v>50000</v>
+        <v>45000</v>
       </c>
       <c r="E5" t="n">
-        <v>7536.900184089522</v>
+        <v>10424.876</v>
       </c>
     </row>
     <row r="6">
@@ -521,16 +521,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>65076.2280662639</v>
+        <v>61895.6125</v>
       </c>
       <c r="C6" t="n">
-        <v>5129.7719337361</v>
+        <v>5473.3875</v>
       </c>
       <c r="D6" t="n">
-        <v>32500</v>
+        <v>45000</v>
       </c>
       <c r="E6" t="n">
-        <v>27446.4561325278</v>
+        <v>11422.22500000001</v>
       </c>
     </row>
     <row r="7">
@@ -538,16 +538,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>59771.86150775545</v>
+        <v>64347.948</v>
       </c>
       <c r="C7" t="n">
-        <v>5143.13849224455</v>
+        <v>5589.052</v>
       </c>
       <c r="D7" t="n">
-        <v>22500</v>
+        <v>45000</v>
       </c>
       <c r="E7" t="n">
-        <v>32128.7230155109</v>
+        <v>13758.89599999999</v>
       </c>
     </row>
     <row r="8">
@@ -555,16 +555,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>57711.95956649978</v>
+        <v>63985.828</v>
       </c>
       <c r="C8" t="n">
-        <v>5818.040433500224</v>
+        <v>6206.172</v>
       </c>
       <c r="D8" t="n">
         <v>22500</v>
       </c>
       <c r="E8" t="n">
-        <v>29393.91913299956</v>
+        <v>35279.656</v>
       </c>
     </row>
     <row r="9">
@@ -572,16 +572,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>62446.29786159514</v>
+        <v>77807.33349999999</v>
       </c>
       <c r="C9" t="n">
-        <v>6499.70213840486</v>
+        <v>7243.6665</v>
       </c>
       <c r="D9" t="n">
-        <v>22500</v>
+        <v>45000</v>
       </c>
       <c r="E9" t="n">
-        <v>33446.59572319029</v>
+        <v>25563.66699999999</v>
       </c>
     </row>
     <row r="10">
@@ -589,16 +589,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>65775.31946340523</v>
+        <v>93327.5255</v>
       </c>
       <c r="C10" t="n">
-        <v>7901.680536594761</v>
+        <v>8885.4745</v>
       </c>
       <c r="D10" t="n">
-        <v>22500</v>
+        <v>65000</v>
       </c>
       <c r="E10" t="n">
-        <v>35373.63892681048</v>
+        <v>19442.05100000001</v>
       </c>
     </row>
     <row r="11">
@@ -606,16 +606,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>71462.30980939096</v>
+        <v>99657.8165</v>
       </c>
       <c r="C11" t="n">
-        <v>13514.69019060903</v>
+        <v>13767.1835</v>
       </c>
       <c r="D11" t="n">
-        <v>32500</v>
+        <v>65000</v>
       </c>
       <c r="E11" t="n">
-        <v>25447.61961878194</v>
+        <v>20890.633</v>
       </c>
     </row>
     <row r="12">
@@ -623,16 +623,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>74113.08355009009</v>
+        <v>101594.4575</v>
       </c>
       <c r="C12" t="n">
-        <v>15633.91644990992</v>
+        <v>16394.5425</v>
       </c>
       <c r="D12" t="n">
-        <v>45000</v>
+        <v>65000</v>
       </c>
       <c r="E12" t="n">
-        <v>13479.16710018017</v>
+        <v>20199.91500000001</v>
       </c>
     </row>
     <row r="13">
@@ -640,16 +640,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>76043.90358977004</v>
+        <v>101544.0265</v>
       </c>
       <c r="C13" t="n">
-        <v>15567.09641022996</v>
+        <v>16601.9735</v>
       </c>
       <c r="D13" t="n">
-        <v>50000</v>
+        <v>65000</v>
       </c>
       <c r="E13" t="n">
-        <v>10476.80717954008</v>
+        <v>19942.05300000001</v>
       </c>
     </row>
     <row r="14">
@@ -657,16 +657,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>77831.44660727248</v>
+        <v>101650.4226666667</v>
       </c>
       <c r="C14" t="n">
-        <v>15766.55339272752</v>
+        <v>16136.57733333333</v>
       </c>
       <c r="D14" t="n">
-        <v>55000</v>
+        <v>65000</v>
       </c>
       <c r="E14" t="n">
-        <v>7064.893214544958</v>
+        <v>20513.84533333336</v>
       </c>
     </row>
     <row r="15">
@@ -674,16 +674,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>82872.27103645413</v>
+        <v>106950.8875</v>
       </c>
       <c r="C15" t="n">
-        <v>15912.72896354587</v>
+        <v>16181.1125</v>
       </c>
       <c r="D15" t="n">
         <v>65000</v>
       </c>
       <c r="E15" t="n">
-        <v>1959.542072908254</v>
+        <v>25769.77499999999</v>
       </c>
     </row>
     <row r="16">
@@ -691,16 +691,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>83944.14432565661</v>
+        <v>108691.349</v>
       </c>
       <c r="C16" t="n">
-        <v>16136.85567434339</v>
+        <v>16478.651</v>
       </c>
       <c r="D16" t="n">
         <v>65000</v>
       </c>
       <c r="E16" t="n">
-        <v>2807.288651313225</v>
+        <v>27212.698</v>
       </c>
     </row>
     <row r="17">
@@ -708,16 +708,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>78618.92133665539</v>
+        <v>106816.9465</v>
       </c>
       <c r="C17" t="n">
-        <v>16644.07866334462</v>
+        <v>16626.0535</v>
       </c>
       <c r="D17" t="n">
         <v>65000</v>
       </c>
       <c r="E17" t="n">
-        <v>-3025.15732668923</v>
+        <v>25190.89300000001</v>
       </c>
     </row>
     <row r="18">
@@ -725,16 +725,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>80129.02516075459</v>
+        <v>102896.076</v>
       </c>
       <c r="C18" t="n">
-        <v>16694.97483924541</v>
+        <v>16821.924</v>
       </c>
       <c r="D18" t="n">
         <v>65000</v>
       </c>
       <c r="E18" t="n">
-        <v>-1565.949678490811</v>
+        <v>21074.152</v>
       </c>
     </row>
     <row r="19">
@@ -745,13 +745,13 @@
         <v>79144.3965218529</v>
       </c>
       <c r="C19" t="n">
-        <v>16392.60347814709</v>
+        <v>16713.2315</v>
       </c>
       <c r="D19" t="n">
         <v>65000</v>
       </c>
       <c r="E19" t="n">
-        <v>-2248.206956294191</v>
+        <v>-2568.834978147097</v>
       </c>
     </row>
     <row r="20">
@@ -762,13 +762,13 @@
         <v>80314.30964363975</v>
       </c>
       <c r="C20" t="n">
-        <v>15677.69035636025</v>
+        <v>16263.632</v>
       </c>
       <c r="D20" t="n">
         <v>65000</v>
       </c>
       <c r="E20" t="n">
-        <v>-363.3807127205073</v>
+        <v>-949.3223563602514</v>
       </c>
     </row>
     <row r="21">
@@ -779,13 +779,13 @@
         <v>80761.9859478088</v>
       </c>
       <c r="C21" t="n">
-        <v>14143.01405219119</v>
+        <v>13980.50966666666</v>
       </c>
       <c r="D21" t="n">
         <v>65000</v>
       </c>
       <c r="E21" t="n">
-        <v>1618.971895617608</v>
+        <v>1781.476281142139</v>
       </c>
     </row>
     <row r="22">
@@ -796,13 +796,13 @@
         <v>82236.71857656092</v>
       </c>
       <c r="C22" t="n">
-        <v>12333.28142343908</v>
+        <v>12278.59266666667</v>
       </c>
       <c r="D22" t="n">
         <v>65000</v>
       </c>
       <c r="E22" t="n">
-        <v>4903.437153121835</v>
+        <v>4958.125909894254</v>
       </c>
     </row>
     <row r="23">
@@ -813,13 +813,13 @@
         <v>60893.79318067842</v>
       </c>
       <c r="C23" t="n">
-        <v>9480.206819321584</v>
+        <v>9696.488666666666</v>
       </c>
       <c r="D23" t="n">
         <v>65000</v>
       </c>
       <c r="E23" t="n">
-        <v>-13586.41363864316</v>
+        <v>-13802.69548598825</v>
       </c>
     </row>
     <row r="24">
@@ -830,13 +830,13 @@
         <v>41527.12359352758</v>
       </c>
       <c r="C24" t="n">
-        <v>6243.876406472426</v>
+        <v>6635.017666666667</v>
       </c>
       <c r="D24" t="n">
         <v>65000</v>
       </c>
       <c r="E24" t="n">
-        <v>-29716.75281294484</v>
+        <v>-30107.89407313908</v>
       </c>
     </row>
     <row r="25">
@@ -847,13 +847,13 @@
         <v>69812.7623244882</v>
       </c>
       <c r="C25" t="n">
-        <v>5337.237675511805</v>
+        <v>6040.419000000001</v>
       </c>
       <c r="D25" t="n">
         <v>65000</v>
       </c>
       <c r="E25" t="n">
-        <v>-524.4753510236042</v>
+        <v>-1227.656675511804</v>
       </c>
     </row>
   </sheetData>

--- a/wesm_exposure.xlsx
+++ b/wesm_exposure.xlsx
@@ -453,16 +453,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>69119.274</v>
+        <v>73952.35249999999</v>
       </c>
       <c r="C2" t="n">
-        <v>5689.726000000001</v>
+        <v>5367.6475</v>
       </c>
       <c r="D2" t="n">
         <v>65000</v>
       </c>
       <c r="E2" t="n">
-        <v>-1570.451999999997</v>
+        <v>3584.704999999987</v>
       </c>
     </row>
     <row r="3">
@@ -470,16 +470,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>66340.0365</v>
+        <v>69832.38650000001</v>
       </c>
       <c r="C3" t="n">
-        <v>5531.9635</v>
+        <v>5238.613499999999</v>
       </c>
       <c r="D3" t="n">
         <v>45000</v>
       </c>
       <c r="E3" t="n">
-        <v>15808.073</v>
+        <v>19593.77300000001</v>
       </c>
     </row>
     <row r="4">
@@ -487,16 +487,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>63208.0625</v>
+        <v>66640.4185</v>
       </c>
       <c r="C4" t="n">
-        <v>5582.9375</v>
+        <v>5194.5815</v>
       </c>
       <c r="D4" t="n">
         <v>45000</v>
       </c>
       <c r="E4" t="n">
-        <v>12625.125</v>
+        <v>16445.837</v>
       </c>
     </row>
     <row r="5">
@@ -504,16 +504,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>60943.438</v>
+        <v>60308.0195</v>
       </c>
       <c r="C5" t="n">
-        <v>5518.562</v>
+        <v>5174.980500000001</v>
       </c>
       <c r="D5" t="n">
         <v>45000</v>
       </c>
       <c r="E5" t="n">
-        <v>10424.876</v>
+        <v>10133.039</v>
       </c>
     </row>
     <row r="6">
@@ -521,16 +521,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>61895.6125</v>
+        <v>44461.786</v>
       </c>
       <c r="C6" t="n">
-        <v>5473.3875</v>
+        <v>5228.214</v>
       </c>
       <c r="D6" t="n">
         <v>45000</v>
       </c>
       <c r="E6" t="n">
-        <v>11422.22500000001</v>
+        <v>-5766.428</v>
       </c>
     </row>
     <row r="7">
@@ -538,16 +538,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>64347.948</v>
+        <v>42310.7695</v>
       </c>
       <c r="C7" t="n">
-        <v>5589.052</v>
+        <v>5465.2305</v>
       </c>
       <c r="D7" t="n">
         <v>45000</v>
       </c>
       <c r="E7" t="n">
-        <v>13758.89599999999</v>
+        <v>-8154.460999999996</v>
       </c>
     </row>
     <row r="8">
@@ -555,16 +555,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>63985.828</v>
+        <v>42072.977</v>
       </c>
       <c r="C8" t="n">
-        <v>6206.172</v>
+        <v>6478.023</v>
       </c>
       <c r="D8" t="n">
         <v>22500</v>
       </c>
       <c r="E8" t="n">
-        <v>35279.656</v>
+        <v>13094.954</v>
       </c>
     </row>
     <row r="9">
@@ -572,16 +572,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>77807.33349999999</v>
+        <v>54533.6195</v>
       </c>
       <c r="C9" t="n">
-        <v>7243.6665</v>
+        <v>7287.380499999999</v>
       </c>
       <c r="D9" t="n">
         <v>45000</v>
       </c>
       <c r="E9" t="n">
-        <v>25563.66699999999</v>
+        <v>2246.239000000001</v>
       </c>
     </row>
     <row r="10">
@@ -589,16 +589,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>93327.5255</v>
+        <v>68659.1575</v>
       </c>
       <c r="C10" t="n">
-        <v>8885.4745</v>
+        <v>9017.842499999999</v>
       </c>
       <c r="D10" t="n">
         <v>65000</v>
       </c>
       <c r="E10" t="n">
-        <v>19442.05100000001</v>
+        <v>-5358.684999999998</v>
       </c>
     </row>
     <row r="11">
@@ -606,16 +606,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>99657.8165</v>
+        <v>70229.433</v>
       </c>
       <c r="C11" t="n">
-        <v>13767.1835</v>
+        <v>14472.567</v>
       </c>
       <c r="D11" t="n">
         <v>65000</v>
       </c>
       <c r="E11" t="n">
-        <v>20890.633</v>
+        <v>-9243.133999999991</v>
       </c>
     </row>
     <row r="12">
@@ -623,16 +623,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>101594.4575</v>
+        <v>56203.2535</v>
       </c>
       <c r="C12" t="n">
-        <v>16394.5425</v>
+        <v>16357.7465</v>
       </c>
       <c r="D12" t="n">
         <v>65000</v>
       </c>
       <c r="E12" t="n">
-        <v>20199.91500000001</v>
+        <v>-25154.493</v>
       </c>
     </row>
     <row r="13">
@@ -640,16 +640,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>101544.0265</v>
+        <v>57456.1745</v>
       </c>
       <c r="C13" t="n">
-        <v>16601.9735</v>
+        <v>16558.8255</v>
       </c>
       <c r="D13" t="n">
         <v>65000</v>
       </c>
       <c r="E13" t="n">
-        <v>19942.05300000001</v>
+        <v>-24102.651</v>
       </c>
     </row>
     <row r="14">
@@ -660,13 +660,13 @@
         <v>101650.4226666667</v>
       </c>
       <c r="C14" t="n">
-        <v>16136.57733333333</v>
+        <v>16733.4465</v>
       </c>
       <c r="D14" t="n">
         <v>65000</v>
       </c>
       <c r="E14" t="n">
-        <v>20513.84533333336</v>
+        <v>19916.97616666669</v>
       </c>
     </row>
     <row r="15">
@@ -677,13 +677,13 @@
         <v>106950.8875</v>
       </c>
       <c r="C15" t="n">
-        <v>16181.1125</v>
+        <v>16967.0395</v>
       </c>
       <c r="D15" t="n">
         <v>65000</v>
       </c>
       <c r="E15" t="n">
-        <v>25769.77499999999</v>
+        <v>24983.848</v>
       </c>
     </row>
     <row r="16">
@@ -694,13 +694,13 @@
         <v>108691.349</v>
       </c>
       <c r="C16" t="n">
-        <v>16478.651</v>
+        <v>16689.1605</v>
       </c>
       <c r="D16" t="n">
         <v>65000</v>
       </c>
       <c r="E16" t="n">
-        <v>27212.698</v>
+        <v>27002.1885</v>
       </c>
     </row>
     <row r="17">
@@ -711,13 +711,13 @@
         <v>106816.9465</v>
       </c>
       <c r="C17" t="n">
-        <v>16626.0535</v>
+        <v>16402.6835</v>
       </c>
       <c r="D17" t="n">
         <v>65000</v>
       </c>
       <c r="E17" t="n">
-        <v>25190.89300000001</v>
+        <v>25414.26300000001</v>
       </c>
     </row>
     <row r="18">
@@ -728,13 +728,13 @@
         <v>102896.076</v>
       </c>
       <c r="C18" t="n">
-        <v>16821.924</v>
+        <v>16404.992</v>
       </c>
       <c r="D18" t="n">
         <v>65000</v>
       </c>
       <c r="E18" t="n">
-        <v>21074.152</v>
+        <v>21491.084</v>
       </c>
     </row>
     <row r="19">
@@ -745,13 +745,13 @@
         <v>79144.3965218529</v>
       </c>
       <c r="C19" t="n">
-        <v>16713.2315</v>
+        <v>16482.6715</v>
       </c>
       <c r="D19" t="n">
         <v>65000</v>
       </c>
       <c r="E19" t="n">
-        <v>-2568.834978147097</v>
+        <v>-2338.274978147092</v>
       </c>
     </row>
     <row r="20">
@@ -762,13 +762,13 @@
         <v>80314.30964363975</v>
       </c>
       <c r="C20" t="n">
-        <v>16263.632</v>
+        <v>16346.816</v>
       </c>
       <c r="D20" t="n">
         <v>65000</v>
       </c>
       <c r="E20" t="n">
-        <v>-949.3223563602514</v>
+        <v>-1032.506356360253</v>
       </c>
     </row>
     <row r="21">
@@ -779,13 +779,13 @@
         <v>80761.9859478088</v>
       </c>
       <c r="C21" t="n">
-        <v>13980.50966666666</v>
+        <v>14102.174</v>
       </c>
       <c r="D21" t="n">
         <v>65000</v>
       </c>
       <c r="E21" t="n">
-        <v>1781.476281142139</v>
+        <v>1659.811947808805</v>
       </c>
     </row>
     <row r="22">
@@ -796,13 +796,13 @@
         <v>82236.71857656092</v>
       </c>
       <c r="C22" t="n">
-        <v>12278.59266666667</v>
+        <v>12417.102</v>
       </c>
       <c r="D22" t="n">
         <v>65000</v>
       </c>
       <c r="E22" t="n">
-        <v>4958.125909894254</v>
+        <v>4819.616576560918</v>
       </c>
     </row>
     <row r="23">
@@ -813,13 +813,13 @@
         <v>60893.79318067842</v>
       </c>
       <c r="C23" t="n">
-        <v>9696.488666666666</v>
+        <v>9745.787</v>
       </c>
       <c r="D23" t="n">
         <v>65000</v>
       </c>
       <c r="E23" t="n">
-        <v>-13802.69548598825</v>
+        <v>-13851.99381932158</v>
       </c>
     </row>
     <row r="24">
@@ -830,13 +830,13 @@
         <v>41527.12359352758</v>
       </c>
       <c r="C24" t="n">
-        <v>6635.017666666667</v>
+        <v>6739.6595</v>
       </c>
       <c r="D24" t="n">
         <v>65000</v>
       </c>
       <c r="E24" t="n">
-        <v>-30107.89407313908</v>
+        <v>-30212.53590647242</v>
       </c>
     </row>
     <row r="25">
@@ -847,13 +847,13 @@
         <v>69812.7623244882</v>
       </c>
       <c r="C25" t="n">
-        <v>6040.419000000001</v>
+        <v>5949.048500000001</v>
       </c>
       <c r="D25" t="n">
         <v>65000</v>
       </c>
       <c r="E25" t="n">
-        <v>-1227.656675511804</v>
+        <v>-1136.286175511807</v>
       </c>
     </row>
   </sheetData>

--- a/wesm_exposure.xlsx
+++ b/wesm_exposure.xlsx
@@ -504,7 +504,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>60308.0195</v>
+        <v>63987.0195</v>
       </c>
       <c r="C5" t="n">
         <v>5174.980500000001</v>
@@ -513,7 +513,7 @@
         <v>45000</v>
       </c>
       <c r="E5" t="n">
-        <v>10133.039</v>
+        <v>13812.039</v>
       </c>
     </row>
     <row r="6">
@@ -521,7 +521,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>44461.786</v>
+        <v>64036.786</v>
       </c>
       <c r="C6" t="n">
         <v>5228.214</v>
@@ -530,7 +530,7 @@
         <v>45000</v>
       </c>
       <c r="E6" t="n">
-        <v>-5766.428</v>
+        <v>13808.572</v>
       </c>
     </row>
     <row r="7">
@@ -572,7 +572,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>54533.6195</v>
+        <v>71318.6195</v>
       </c>
       <c r="C9" t="n">
         <v>7287.380499999999</v>
@@ -581,7 +581,7 @@
         <v>45000</v>
       </c>
       <c r="E9" t="n">
-        <v>2246.239000000001</v>
+        <v>19031.239</v>
       </c>
     </row>
     <row r="10">
@@ -589,7 +589,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>68659.1575</v>
+        <v>88671.1575</v>
       </c>
       <c r="C10" t="n">
         <v>9017.842499999999</v>
@@ -598,7 +598,7 @@
         <v>65000</v>
       </c>
       <c r="E10" t="n">
-        <v>-5358.684999999998</v>
+        <v>14653.315</v>
       </c>
     </row>
     <row r="11">
@@ -606,7 +606,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>70229.433</v>
+        <v>92411.433</v>
       </c>
       <c r="C11" t="n">
         <v>14472.567</v>
@@ -615,7 +615,7 @@
         <v>65000</v>
       </c>
       <c r="E11" t="n">
-        <v>-9243.133999999991</v>
+        <v>12938.86600000001</v>
       </c>
     </row>
     <row r="12">
@@ -623,7 +623,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>56203.2535</v>
+        <v>100531.2535</v>
       </c>
       <c r="C12" t="n">
         <v>16357.7465</v>
@@ -632,7 +632,7 @@
         <v>65000</v>
       </c>
       <c r="E12" t="n">
-        <v>-25154.493</v>
+        <v>19173.50700000001</v>
       </c>
     </row>
     <row r="13">
@@ -640,7 +640,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>57456.1745</v>
+        <v>102100.1745</v>
       </c>
       <c r="C13" t="n">
         <v>16558.8255</v>
@@ -649,7 +649,7 @@
         <v>65000</v>
       </c>
       <c r="E13" t="n">
-        <v>-24102.651</v>
+        <v>20541.34899999999</v>
       </c>
     </row>
     <row r="14">
@@ -657,7 +657,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>101650.4226666667</v>
+        <v>107342.5535</v>
       </c>
       <c r="C14" t="n">
         <v>16733.4465</v>
@@ -666,7 +666,7 @@
         <v>65000</v>
       </c>
       <c r="E14" t="n">
-        <v>19916.97616666669</v>
+        <v>25609.10699999999</v>
       </c>
     </row>
     <row r="15">
@@ -674,7 +674,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>106950.8875</v>
+        <v>106642.9605</v>
       </c>
       <c r="C15" t="n">
         <v>16967.0395</v>
@@ -683,7 +683,7 @@
         <v>65000</v>
       </c>
       <c r="E15" t="n">
-        <v>24983.848</v>
+        <v>24675.921</v>
       </c>
     </row>
     <row r="16">
@@ -691,7 +691,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>108691.349</v>
+        <v>106784.8395</v>
       </c>
       <c r="C16" t="n">
         <v>16689.1605</v>
@@ -700,7 +700,7 @@
         <v>65000</v>
       </c>
       <c r="E16" t="n">
-        <v>27002.1885</v>
+        <v>25095.679</v>
       </c>
     </row>
     <row r="17">
@@ -708,7 +708,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>106816.9465</v>
+        <v>90780.3165</v>
       </c>
       <c r="C17" t="n">
         <v>16402.6835</v>
@@ -717,7 +717,7 @@
         <v>65000</v>
       </c>
       <c r="E17" t="n">
-        <v>25414.26300000001</v>
+        <v>9377.633000000002</v>
       </c>
     </row>
     <row r="18">
@@ -725,7 +725,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>102896.076</v>
+        <v>85919.008</v>
       </c>
       <c r="C18" t="n">
         <v>16404.992</v>
@@ -734,7 +734,7 @@
         <v>65000</v>
       </c>
       <c r="E18" t="n">
-        <v>21491.084</v>
+        <v>4514.016000000003</v>
       </c>
     </row>
     <row r="19">

--- a/wesm_exposure.xlsx
+++ b/wesm_exposure.xlsx
@@ -453,16 +453,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>73952.35249999999</v>
+        <v>69920.2865</v>
       </c>
       <c r="C2" t="n">
-        <v>5367.6475</v>
+        <v>5554.7135</v>
       </c>
       <c r="D2" t="n">
-        <v>65000</v>
+        <v>60000</v>
       </c>
       <c r="E2" t="n">
-        <v>3584.704999999987</v>
+        <v>4365.573000000004</v>
       </c>
     </row>
     <row r="3">
@@ -470,16 +470,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>69832.38650000001</v>
+        <v>66915.6565</v>
       </c>
       <c r="C3" t="n">
-        <v>5238.613499999999</v>
+        <v>5359.343500000001</v>
       </c>
       <c r="D3" t="n">
-        <v>45000</v>
+        <v>55000</v>
       </c>
       <c r="E3" t="n">
-        <v>19593.77300000001</v>
+        <v>6556.312999999995</v>
       </c>
     </row>
     <row r="4">
@@ -487,16 +487,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>66640.4185</v>
+        <v>64226.2495</v>
       </c>
       <c r="C4" t="n">
-        <v>5194.5815</v>
+        <v>5311.7505</v>
       </c>
       <c r="D4" t="n">
-        <v>45000</v>
+        <v>50000</v>
       </c>
       <c r="E4" t="n">
-        <v>16445.837</v>
+        <v>8914.498999999996</v>
       </c>
     </row>
     <row r="5">
@@ -504,16 +504,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>63987.0195</v>
+        <v>61875.048</v>
       </c>
       <c r="C5" t="n">
-        <v>5174.980500000001</v>
+        <v>5299.952</v>
       </c>
       <c r="D5" t="n">
         <v>45000</v>
       </c>
       <c r="E5" t="n">
-        <v>13812.039</v>
+        <v>11575.09600000001</v>
       </c>
     </row>
     <row r="6">
@@ -521,16 +521,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>64036.786</v>
+        <v>60259.8485</v>
       </c>
       <c r="C6" t="n">
-        <v>5228.214</v>
+        <v>5293.1515</v>
       </c>
       <c r="D6" t="n">
         <v>45000</v>
       </c>
       <c r="E6" t="n">
-        <v>13808.572</v>
+        <v>9966.697</v>
       </c>
     </row>
     <row r="7">
@@ -538,16 +538,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>42310.7695</v>
+        <v>58139.24</v>
       </c>
       <c r="C7" t="n">
-        <v>5465.2305</v>
+        <v>5324.76</v>
       </c>
       <c r="D7" t="n">
-        <v>45000</v>
+        <v>22500</v>
       </c>
       <c r="E7" t="n">
-        <v>-8154.460999999996</v>
+        <v>30314.48</v>
       </c>
     </row>
     <row r="8">
@@ -555,16 +555,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>42072.977</v>
+        <v>56572.5245</v>
       </c>
       <c r="C8" t="n">
-        <v>6478.023</v>
+        <v>6198.4755</v>
       </c>
       <c r="D8" t="n">
         <v>22500</v>
       </c>
       <c r="E8" t="n">
-        <v>13094.954</v>
+        <v>27874.049</v>
       </c>
     </row>
     <row r="9">
@@ -572,16 +572,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>71318.6195</v>
+        <v>60752.6295</v>
       </c>
       <c r="C9" t="n">
-        <v>7287.380499999999</v>
+        <v>6632.370499999999</v>
       </c>
       <c r="D9" t="n">
-        <v>45000</v>
+        <v>22500</v>
       </c>
       <c r="E9" t="n">
-        <v>19031.239</v>
+        <v>31620.25900000001</v>
       </c>
     </row>
     <row r="10">
@@ -589,16 +589,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>88671.1575</v>
+        <v>64931.071</v>
       </c>
       <c r="C10" t="n">
-        <v>9017.842499999999</v>
+        <v>7985.929</v>
       </c>
       <c r="D10" t="n">
-        <v>65000</v>
+        <v>22500</v>
       </c>
       <c r="E10" t="n">
-        <v>14653.315</v>
+        <v>34445.14200000001</v>
       </c>
     </row>
     <row r="11">
@@ -606,16 +606,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>92411.433</v>
+        <v>70147.9385</v>
       </c>
       <c r="C11" t="n">
-        <v>14472.567</v>
+        <v>13162.0615</v>
       </c>
       <c r="D11" t="n">
-        <v>65000</v>
+        <v>22500</v>
       </c>
       <c r="E11" t="n">
-        <v>12938.86600000001</v>
+        <v>34485.87700000001</v>
       </c>
     </row>
     <row r="12">
@@ -623,16 +623,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>100531.2535</v>
+        <v>69263.08900000001</v>
       </c>
       <c r="C12" t="n">
-        <v>16357.7465</v>
+        <v>15499.911</v>
       </c>
       <c r="D12" t="n">
-        <v>65000</v>
+        <v>45000</v>
       </c>
       <c r="E12" t="n">
-        <v>19173.50700000001</v>
+        <v>8763.178000000007</v>
       </c>
     </row>
     <row r="13">
@@ -640,16 +640,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>102100.1745</v>
+        <v>72050.28200000001</v>
       </c>
       <c r="C13" t="n">
-        <v>16558.8255</v>
+        <v>15978.718</v>
       </c>
       <c r="D13" t="n">
-        <v>65000</v>
+        <v>45000</v>
       </c>
       <c r="E13" t="n">
-        <v>20541.34899999999</v>
+        <v>11071.56400000001</v>
       </c>
     </row>
     <row r="14">
@@ -657,16 +657,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>107342.5535</v>
+        <v>68358.14999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>16733.4465</v>
+        <v>15949.85</v>
       </c>
       <c r="D14" t="n">
-        <v>65000</v>
+        <v>55000</v>
       </c>
       <c r="E14" t="n">
-        <v>25609.10699999999</v>
+        <v>-2591.700000000004</v>
       </c>
     </row>
     <row r="15">
@@ -674,16 +674,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>106642.9605</v>
+        <v>72446.51549999999</v>
       </c>
       <c r="C15" t="n">
-        <v>16967.0395</v>
+        <v>16112.4845</v>
       </c>
       <c r="D15" t="n">
         <v>65000</v>
       </c>
       <c r="E15" t="n">
-        <v>24675.921</v>
+        <v>-8665.969000000005</v>
       </c>
     </row>
     <row r="16">
@@ -691,16 +691,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>106784.8395</v>
+        <v>69319.5355</v>
       </c>
       <c r="C16" t="n">
-        <v>16689.1605</v>
+        <v>16701.4645</v>
       </c>
       <c r="D16" t="n">
         <v>65000</v>
       </c>
       <c r="E16" t="n">
-        <v>25095.679</v>
+        <v>-12381.929</v>
       </c>
     </row>
     <row r="17">
@@ -708,16 +708,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>90780.3165</v>
+        <v>69034.26949999999</v>
       </c>
       <c r="C17" t="n">
-        <v>16402.6835</v>
+        <v>16519.7305</v>
       </c>
       <c r="D17" t="n">
         <v>65000</v>
       </c>
       <c r="E17" t="n">
-        <v>9377.633000000002</v>
+        <v>-12485.46100000001</v>
       </c>
     </row>
     <row r="18">
@@ -725,16 +725,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>85919.008</v>
+        <v>68570.463</v>
       </c>
       <c r="C18" t="n">
-        <v>16404.992</v>
+        <v>16574.537</v>
       </c>
       <c r="D18" t="n">
         <v>65000</v>
       </c>
       <c r="E18" t="n">
-        <v>4514.016000000003</v>
+        <v>-13004.07399999999</v>
       </c>
     </row>
     <row r="19">
@@ -742,16 +742,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>79144.3965218529</v>
+        <v>72815.8455</v>
       </c>
       <c r="C19" t="n">
-        <v>16482.6715</v>
+        <v>16188.1545</v>
       </c>
       <c r="D19" t="n">
         <v>65000</v>
       </c>
       <c r="E19" t="n">
-        <v>-2338.274978147092</v>
+        <v>-8372.309000000008</v>
       </c>
     </row>
     <row r="20">
@@ -759,16 +759,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>80314.30964363975</v>
+        <v>75500.6725</v>
       </c>
       <c r="C20" t="n">
-        <v>16346.816</v>
+        <v>15598.3275</v>
       </c>
       <c r="D20" t="n">
         <v>65000</v>
       </c>
       <c r="E20" t="n">
-        <v>-1032.506356360253</v>
+        <v>-5097.654999999999</v>
       </c>
     </row>
     <row r="21">
@@ -776,16 +776,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>80761.9859478088</v>
+        <v>74766.03049999999</v>
       </c>
       <c r="C21" t="n">
-        <v>14102.174</v>
+        <v>14119.9695</v>
       </c>
       <c r="D21" t="n">
         <v>65000</v>
       </c>
       <c r="E21" t="n">
-        <v>1659.811947808805</v>
+        <v>-4353.939000000006</v>
       </c>
     </row>
     <row r="22">
@@ -793,16 +793,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>82236.71857656092</v>
+        <v>72263.8475</v>
       </c>
       <c r="C22" t="n">
-        <v>12417.102</v>
+        <v>12189.1525</v>
       </c>
       <c r="D22" t="n">
         <v>65000</v>
       </c>
       <c r="E22" t="n">
-        <v>4819.616576560918</v>
+        <v>-4925.304999999993</v>
       </c>
     </row>
     <row r="23">
@@ -810,16 +810,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>60893.79318067842</v>
+        <v>68895.26699999999</v>
       </c>
       <c r="C23" t="n">
-        <v>9745.787</v>
+        <v>9406.733</v>
       </c>
       <c r="D23" t="n">
         <v>65000</v>
       </c>
       <c r="E23" t="n">
-        <v>-13851.99381932158</v>
+        <v>-5511.466000000008</v>
       </c>
     </row>
     <row r="24">
@@ -827,16 +827,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>41527.12359352758</v>
+        <v>67476.7245</v>
       </c>
       <c r="C24" t="n">
-        <v>6739.6595</v>
+        <v>6502.2755</v>
       </c>
       <c r="D24" t="n">
         <v>65000</v>
       </c>
       <c r="E24" t="n">
-        <v>-30212.53590647242</v>
+        <v>-4025.551000000007</v>
       </c>
     </row>
     <row r="25">
@@ -844,16 +844,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>69812.7623244882</v>
+        <v>14561.85</v>
       </c>
       <c r="C25" t="n">
-        <v>5949.048500000001</v>
+        <v>5603.15</v>
       </c>
       <c r="D25" t="n">
         <v>65000</v>
       </c>
       <c r="E25" t="n">
-        <v>-1136.286175511807</v>
+        <v>-56041.3</v>
       </c>
     </row>
   </sheetData>

--- a/wesm_exposure.xlsx
+++ b/wesm_exposure.xlsx
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>69920.2865</v>
+        <v>61523.2865</v>
       </c>
       <c r="C2" t="n">
         <v>5554.7135</v>
@@ -462,7 +462,7 @@
         <v>60000</v>
       </c>
       <c r="E2" t="n">
-        <v>4365.573000000004</v>
+        <v>-4031.426999999996</v>
       </c>
     </row>
     <row r="3">
@@ -470,7 +470,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>66915.6565</v>
+        <v>58840.6565</v>
       </c>
       <c r="C3" t="n">
         <v>5359.343500000001</v>
@@ -479,7 +479,7 @@
         <v>55000</v>
       </c>
       <c r="E3" t="n">
-        <v>6556.312999999995</v>
+        <v>-1518.687000000005</v>
       </c>
     </row>
     <row r="4">
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>64226.2495</v>
+        <v>56936.2495</v>
       </c>
       <c r="C4" t="n">
         <v>5311.7505</v>
@@ -496,7 +496,7 @@
         <v>50000</v>
       </c>
       <c r="E4" t="n">
-        <v>8914.498999999996</v>
+        <v>1624.498999999996</v>
       </c>
     </row>
     <row r="5">
@@ -504,7 +504,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>61875.048</v>
+        <v>55561.048</v>
       </c>
       <c r="C5" t="n">
         <v>5299.952</v>
@@ -513,7 +513,7 @@
         <v>45000</v>
       </c>
       <c r="E5" t="n">
-        <v>11575.09600000001</v>
+        <v>5261.096000000005</v>
       </c>
     </row>
     <row r="6">
@@ -521,7 +521,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>60259.8485</v>
+        <v>50688.8485</v>
       </c>
       <c r="C6" t="n">
         <v>5293.1515</v>
@@ -530,7 +530,7 @@
         <v>45000</v>
       </c>
       <c r="E6" t="n">
-        <v>9966.697</v>
+        <v>395.6970000000001</v>
       </c>
     </row>
     <row r="7">
@@ -538,7 +538,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>58139.24</v>
+        <v>55775.24</v>
       </c>
       <c r="C7" t="n">
         <v>5324.76</v>
@@ -547,7 +547,7 @@
         <v>22500</v>
       </c>
       <c r="E7" t="n">
-        <v>30314.48</v>
+        <v>27950.48</v>
       </c>
     </row>
     <row r="8">
@@ -555,7 +555,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>56572.5245</v>
+        <v>55252.5245</v>
       </c>
       <c r="C8" t="n">
         <v>6198.4755</v>
@@ -564,7 +564,7 @@
         <v>22500</v>
       </c>
       <c r="E8" t="n">
-        <v>27874.049</v>
+        <v>26554.049</v>
       </c>
     </row>
     <row r="9">
@@ -572,7 +572,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>60752.6295</v>
+        <v>59318.6295</v>
       </c>
       <c r="C9" t="n">
         <v>6632.370499999999</v>
@@ -581,7 +581,7 @@
         <v>22500</v>
       </c>
       <c r="E9" t="n">
-        <v>31620.25900000001</v>
+        <v>30186.25900000001</v>
       </c>
     </row>
     <row r="10">
@@ -589,7 +589,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>64931.071</v>
+        <v>67060.071</v>
       </c>
       <c r="C10" t="n">
         <v>7985.929</v>
@@ -598,7 +598,7 @@
         <v>22500</v>
       </c>
       <c r="E10" t="n">
-        <v>34445.14200000001</v>
+        <v>36574.14199999999</v>
       </c>
     </row>
     <row r="11">
@@ -606,7 +606,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>70147.9385</v>
+        <v>71615.9385</v>
       </c>
       <c r="C11" t="n">
         <v>13162.0615</v>
@@ -615,7 +615,7 @@
         <v>22500</v>
       </c>
       <c r="E11" t="n">
-        <v>34485.87700000001</v>
+        <v>35953.87700000001</v>
       </c>
     </row>
     <row r="12">
@@ -623,7 +623,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>69263.08900000001</v>
+        <v>72137.08900000001</v>
       </c>
       <c r="C12" t="n">
         <v>15499.911</v>
@@ -632,7 +632,7 @@
         <v>45000</v>
       </c>
       <c r="E12" t="n">
-        <v>8763.178000000007</v>
+        <v>11637.17800000001</v>
       </c>
     </row>
     <row r="13">
@@ -640,7 +640,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>72050.28200000001</v>
+        <v>72231.28200000001</v>
       </c>
       <c r="C13" t="n">
         <v>15978.718</v>
@@ -649,7 +649,7 @@
         <v>45000</v>
       </c>
       <c r="E13" t="n">
-        <v>11071.56400000001</v>
+        <v>11252.56400000001</v>
       </c>
     </row>
     <row r="14">
@@ -657,7 +657,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>68358.14999999999</v>
+        <v>74888.14999999999</v>
       </c>
       <c r="C14" t="n">
         <v>15949.85</v>
@@ -666,7 +666,7 @@
         <v>55000</v>
       </c>
       <c r="E14" t="n">
-        <v>-2591.700000000004</v>
+        <v>3938.299999999996</v>
       </c>
     </row>
     <row r="15">
@@ -674,7 +674,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>72446.51549999999</v>
+        <v>78039.51549999999</v>
       </c>
       <c r="C15" t="n">
         <v>16112.4845</v>
@@ -683,7 +683,7 @@
         <v>65000</v>
       </c>
       <c r="E15" t="n">
-        <v>-8665.969000000005</v>
+        <v>-3072.969000000005</v>
       </c>
     </row>
     <row r="16">
@@ -691,7 +691,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>69319.5355</v>
+        <v>79549.5355</v>
       </c>
       <c r="C16" t="n">
         <v>16701.4645</v>
@@ -700,7 +700,7 @@
         <v>65000</v>
       </c>
       <c r="E16" t="n">
-        <v>-12381.929</v>
+        <v>-2151.929000000004</v>
       </c>
     </row>
     <row r="17">
@@ -708,7 +708,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>69034.26949999999</v>
+        <v>80463.26949999999</v>
       </c>
       <c r="C17" t="n">
         <v>16519.7305</v>
@@ -717,7 +717,7 @@
         <v>65000</v>
       </c>
       <c r="E17" t="n">
-        <v>-12485.46100000001</v>
+        <v>-1056.46100000001</v>
       </c>
     </row>
     <row r="18">
@@ -725,7 +725,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>68570.463</v>
+        <v>78579.463</v>
       </c>
       <c r="C18" t="n">
         <v>16574.537</v>
@@ -734,7 +734,7 @@
         <v>65000</v>
       </c>
       <c r="E18" t="n">
-        <v>-13004.07399999999</v>
+        <v>-2995.073999999993</v>
       </c>
     </row>
     <row r="19">
@@ -742,7 +742,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>72815.8455</v>
+        <v>82109.8455</v>
       </c>
       <c r="C19" t="n">
         <v>16188.1545</v>
@@ -751,7 +751,7 @@
         <v>65000</v>
       </c>
       <c r="E19" t="n">
-        <v>-8372.309000000008</v>
+        <v>921.6909999999916</v>
       </c>
     </row>
     <row r="20">
@@ -759,7 +759,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>75500.6725</v>
+        <v>78821.6725</v>
       </c>
       <c r="C20" t="n">
         <v>15598.3275</v>
@@ -768,7 +768,7 @@
         <v>65000</v>
       </c>
       <c r="E20" t="n">
-        <v>-5097.654999999999</v>
+        <v>-1776.654999999999</v>
       </c>
     </row>
     <row r="21">
@@ -776,7 +776,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>74766.03049999999</v>
+        <v>78736.03049999999</v>
       </c>
       <c r="C21" t="n">
         <v>14119.9695</v>
@@ -785,7 +785,7 @@
         <v>65000</v>
       </c>
       <c r="E21" t="n">
-        <v>-4353.939000000006</v>
+        <v>-383.9390000000058</v>
       </c>
     </row>
     <row r="22">
@@ -793,7 +793,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>72263.8475</v>
+        <v>76775.8475</v>
       </c>
       <c r="C22" t="n">
         <v>12189.1525</v>
@@ -802,7 +802,7 @@
         <v>65000</v>
       </c>
       <c r="E22" t="n">
-        <v>-4925.304999999993</v>
+        <v>-413.304999999993</v>
       </c>
     </row>
     <row r="23">
@@ -810,7 +810,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>68895.26699999999</v>
+        <v>33155.267</v>
       </c>
       <c r="C23" t="n">
         <v>9406.733</v>
@@ -819,7 +819,7 @@
         <v>65000</v>
       </c>
       <c r="E23" t="n">
-        <v>-5511.466000000008</v>
+        <v>-41251.466</v>
       </c>
     </row>
     <row r="24">

--- a/wesm_exposure.xlsx
+++ b/wesm_exposure.xlsx
@@ -453,16 +453,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>61523.2865</v>
+        <v>66539.3665</v>
       </c>
       <c r="C2" t="n">
-        <v>5554.7135</v>
+        <v>5516.6335</v>
       </c>
       <c r="D2" t="n">
-        <v>60000</v>
+        <v>45000</v>
       </c>
       <c r="E2" t="n">
-        <v>-4031.426999999996</v>
+        <v>16022.73300000001</v>
       </c>
     </row>
     <row r="3">
@@ -470,16 +470,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>58840.6565</v>
+        <v>63920.688</v>
       </c>
       <c r="C3" t="n">
-        <v>5359.343500000001</v>
+        <v>5387.312</v>
       </c>
       <c r="D3" t="n">
-        <v>55000</v>
+        <v>45000</v>
       </c>
       <c r="E3" t="n">
-        <v>-1518.687000000005</v>
+        <v>13533.376</v>
       </c>
     </row>
     <row r="4">
@@ -487,16 +487,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>56936.2495</v>
+        <v>60272.176</v>
       </c>
       <c r="C4" t="n">
-        <v>5311.7505</v>
+        <v>5339.824000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>50000</v>
+        <v>22500</v>
       </c>
       <c r="E4" t="n">
-        <v>1624.498999999996</v>
+        <v>32432.352</v>
       </c>
     </row>
     <row r="5">
@@ -504,16 +504,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>55561.048</v>
+        <v>58962.181</v>
       </c>
       <c r="C5" t="n">
-        <v>5299.952</v>
+        <v>5306.819000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>45000</v>
+        <v>22500</v>
       </c>
       <c r="E5" t="n">
-        <v>5261.096000000005</v>
+        <v>31155.36199999999</v>
       </c>
     </row>
     <row r="6">
@@ -521,16 +521,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>50688.8485</v>
+        <v>59797.17</v>
       </c>
       <c r="C6" t="n">
-        <v>5293.1515</v>
+        <v>5338.83</v>
       </c>
       <c r="D6" t="n">
-        <v>45000</v>
+        <v>32500</v>
       </c>
       <c r="E6" t="n">
-        <v>395.6970000000001</v>
+        <v>21958.34</v>
       </c>
     </row>
     <row r="7">
@@ -538,16 +538,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>55775.24</v>
+        <v>65642.2855</v>
       </c>
       <c r="C7" t="n">
-        <v>5324.76</v>
+        <v>5422.714499999999</v>
       </c>
       <c r="D7" t="n">
         <v>22500</v>
       </c>
       <c r="E7" t="n">
-        <v>27950.48</v>
+        <v>37719.571</v>
       </c>
     </row>
     <row r="8">
@@ -555,16 +555,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>55252.5245</v>
+        <v>64173.893</v>
       </c>
       <c r="C8" t="n">
-        <v>6198.4755</v>
+        <v>5875.107</v>
       </c>
       <c r="D8" t="n">
         <v>22500</v>
       </c>
       <c r="E8" t="n">
-        <v>26554.049</v>
+        <v>35798.78599999999</v>
       </c>
     </row>
     <row r="9">
@@ -572,16 +572,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>59318.6295</v>
+        <v>73269.57249999999</v>
       </c>
       <c r="C9" t="n">
-        <v>6632.370499999999</v>
+        <v>7214.4275</v>
       </c>
       <c r="D9" t="n">
         <v>22500</v>
       </c>
       <c r="E9" t="n">
-        <v>30186.25900000001</v>
+        <v>43555.14499999999</v>
       </c>
     </row>
     <row r="10">
@@ -589,16 +589,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>67060.071</v>
+        <v>86257.982</v>
       </c>
       <c r="C10" t="n">
-        <v>7985.929</v>
+        <v>8467.018</v>
       </c>
       <c r="D10" t="n">
-        <v>22500</v>
+        <v>65000</v>
       </c>
       <c r="E10" t="n">
-        <v>36574.14199999999</v>
+        <v>12790.96400000001</v>
       </c>
     </row>
     <row r="11">
@@ -606,16 +606,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>71615.9385</v>
+        <v>90482.3835</v>
       </c>
       <c r="C11" t="n">
-        <v>13162.0615</v>
+        <v>13640.6165</v>
       </c>
       <c r="D11" t="n">
-        <v>22500</v>
+        <v>65000</v>
       </c>
       <c r="E11" t="n">
-        <v>35953.87700000001</v>
+        <v>11841.76699999999</v>
       </c>
     </row>
     <row r="12">
@@ -623,16 +623,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>72137.08900000001</v>
+        <v>94548.98</v>
       </c>
       <c r="C12" t="n">
-        <v>15499.911</v>
+        <v>15763.02</v>
       </c>
       <c r="D12" t="n">
-        <v>45000</v>
+        <v>65000</v>
       </c>
       <c r="E12" t="n">
-        <v>11637.17800000001</v>
+        <v>13785.95999999999</v>
       </c>
     </row>
     <row r="13">
@@ -640,16 +640,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>72231.28200000001</v>
+        <v>96248.9605</v>
       </c>
       <c r="C13" t="n">
-        <v>15978.718</v>
+        <v>15072.0395</v>
       </c>
       <c r="D13" t="n">
-        <v>45000</v>
+        <v>65000</v>
       </c>
       <c r="E13" t="n">
-        <v>11252.56400000001</v>
+        <v>16176.921</v>
       </c>
     </row>
     <row r="14">
@@ -657,16 +657,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>74888.14999999999</v>
+        <v>93999.3325</v>
       </c>
       <c r="C14" t="n">
-        <v>15949.85</v>
+        <v>15259.6675</v>
       </c>
       <c r="D14" t="n">
-        <v>55000</v>
+        <v>65000</v>
       </c>
       <c r="E14" t="n">
-        <v>3938.299999999996</v>
+        <v>13739.66500000001</v>
       </c>
     </row>
     <row r="15">
@@ -674,16 +674,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>78039.51549999999</v>
+        <v>97613.25599999999</v>
       </c>
       <c r="C15" t="n">
-        <v>16112.4845</v>
+        <v>15815.744</v>
       </c>
       <c r="D15" t="n">
         <v>65000</v>
       </c>
       <c r="E15" t="n">
-        <v>-3072.969000000005</v>
+        <v>16797.51199999999</v>
       </c>
     </row>
     <row r="16">
@@ -691,16 +691,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>79549.5355</v>
+        <v>98586.6725</v>
       </c>
       <c r="C16" t="n">
-        <v>16701.4645</v>
+        <v>15955.3275</v>
       </c>
       <c r="D16" t="n">
         <v>65000</v>
       </c>
       <c r="E16" t="n">
-        <v>-2151.929000000004</v>
+        <v>17631.345</v>
       </c>
     </row>
     <row r="17">
@@ -708,16 +708,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>80463.26949999999</v>
+        <v>83311.9265</v>
       </c>
       <c r="C17" t="n">
-        <v>16519.7305</v>
+        <v>16114.0735</v>
       </c>
       <c r="D17" t="n">
         <v>65000</v>
       </c>
       <c r="E17" t="n">
-        <v>-1056.46100000001</v>
+        <v>2197.853000000003</v>
       </c>
     </row>
     <row r="18">
@@ -725,16 +725,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>78579.463</v>
+        <v>76092.611</v>
       </c>
       <c r="C18" t="n">
-        <v>16574.537</v>
+        <v>16384.389</v>
       </c>
       <c r="D18" t="n">
         <v>65000</v>
       </c>
       <c r="E18" t="n">
-        <v>-2995.073999999993</v>
+        <v>-5291.777999999991</v>
       </c>
     </row>
     <row r="19">
@@ -742,16 +742,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>82109.8455</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>16188.1545</v>
+        <v>15932.637</v>
       </c>
       <c r="D19" t="n">
         <v>65000</v>
-      </c>
-      <c r="E19" t="n">
-        <v>921.6909999999916</v>
       </c>
     </row>
     <row r="20">
@@ -759,16 +756,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>78821.6725</v>
+        <v>81334.0935</v>
       </c>
       <c r="C20" t="n">
-        <v>15598.3275</v>
+        <v>15036.9065</v>
       </c>
       <c r="D20" t="n">
         <v>65000</v>
       </c>
       <c r="E20" t="n">
-        <v>-1776.654999999999</v>
+        <v>1297.187000000005</v>
       </c>
     </row>
     <row r="21">
@@ -776,16 +773,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>78736.03049999999</v>
+        <v>78578.4975</v>
       </c>
       <c r="C21" t="n">
-        <v>14119.9695</v>
+        <v>13330.5025</v>
       </c>
       <c r="D21" t="n">
         <v>65000</v>
       </c>
       <c r="E21" t="n">
-        <v>-383.9390000000058</v>
+        <v>247.9949999999953</v>
       </c>
     </row>
     <row r="22">
@@ -793,16 +790,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>76775.8475</v>
+        <v>77749.1885</v>
       </c>
       <c r="C22" t="n">
-        <v>12189.1525</v>
+        <v>11770.8115</v>
       </c>
       <c r="D22" t="n">
         <v>65000</v>
       </c>
       <c r="E22" t="n">
-        <v>-413.304999999993</v>
+        <v>978.3770000000077</v>
       </c>
     </row>
     <row r="23">
@@ -810,16 +807,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>33155.267</v>
+        <v>74837.92449999999</v>
       </c>
       <c r="C23" t="n">
-        <v>9406.733</v>
+        <v>9312.075499999999</v>
       </c>
       <c r="D23" t="n">
         <v>65000</v>
       </c>
       <c r="E23" t="n">
-        <v>-41251.466</v>
+        <v>525.8489999999947</v>
       </c>
     </row>
     <row r="24">
@@ -827,16 +824,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>67476.7245</v>
+        <v>54075.2015</v>
       </c>
       <c r="C24" t="n">
-        <v>6502.2755</v>
+        <v>6773.7985</v>
       </c>
       <c r="D24" t="n">
         <v>65000</v>
       </c>
       <c r="E24" t="n">
-        <v>-4025.551000000007</v>
+        <v>-17698.59699999999</v>
       </c>
     </row>
     <row r="25">
@@ -847,13 +844,13 @@
         <v>14561.85</v>
       </c>
       <c r="C25" t="n">
-        <v>5603.15</v>
+        <v>5542.130999999999</v>
       </c>
       <c r="D25" t="n">
         <v>65000</v>
       </c>
       <c r="E25" t="n">
-        <v>-56041.3</v>
+        <v>-55980.281</v>
       </c>
     </row>
   </sheetData>

--- a/wesm_exposure.xlsx
+++ b/wesm_exposure.xlsx
@@ -453,16 +453,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>66539.3665</v>
+        <v>85322.09149999999</v>
       </c>
       <c r="C2" t="n">
-        <v>5516.6335</v>
+        <v>5539.9085</v>
       </c>
       <c r="D2" t="n">
-        <v>45000</v>
+        <v>65000</v>
       </c>
       <c r="E2" t="n">
-        <v>16022.73300000001</v>
+        <v>14782.18299999999</v>
       </c>
     </row>
     <row r="3">
@@ -470,16 +470,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>63920.688</v>
+        <v>66643.49400000001</v>
       </c>
       <c r="C3" t="n">
-        <v>5387.312</v>
+        <v>5343.505999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>45000</v>
+        <v>55000</v>
       </c>
       <c r="E3" t="n">
-        <v>13533.376</v>
+        <v>6299.988000000005</v>
       </c>
     </row>
     <row r="4">
@@ -487,16 +487,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>60272.176</v>
+        <v>63850.3595</v>
       </c>
       <c r="C4" t="n">
-        <v>5339.824000000001</v>
+        <v>5250.640500000001</v>
       </c>
       <c r="D4" t="n">
-        <v>22500</v>
+        <v>45000</v>
       </c>
       <c r="E4" t="n">
-        <v>32432.352</v>
+        <v>13599.719</v>
       </c>
     </row>
     <row r="5">
@@ -504,16 +504,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>58962.181</v>
+        <v>61979.8705</v>
       </c>
       <c r="C5" t="n">
-        <v>5306.819000000001</v>
+        <v>5194.129499999999</v>
       </c>
       <c r="D5" t="n">
-        <v>22500</v>
+        <v>45000</v>
       </c>
       <c r="E5" t="n">
-        <v>31155.36199999999</v>
+        <v>11785.74099999999</v>
       </c>
     </row>
     <row r="6">
@@ -521,16 +521,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>59797.17</v>
+        <v>62565.603</v>
       </c>
       <c r="C6" t="n">
-        <v>5338.83</v>
+        <v>5143.397</v>
       </c>
       <c r="D6" t="n">
         <v>32500</v>
       </c>
       <c r="E6" t="n">
-        <v>21958.34</v>
+        <v>24922.20600000001</v>
       </c>
     </row>
     <row r="7">
@@ -538,16 +538,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>65642.2855</v>
+        <v>74491.1695</v>
       </c>
       <c r="C7" t="n">
-        <v>5422.714499999999</v>
+        <v>5188.8305</v>
       </c>
       <c r="D7" t="n">
         <v>22500</v>
       </c>
       <c r="E7" t="n">
-        <v>37719.571</v>
+        <v>46802.33900000001</v>
       </c>
     </row>
     <row r="8">
@@ -555,16 +555,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>64173.893</v>
+        <v>60588.8635</v>
       </c>
       <c r="C8" t="n">
-        <v>5875.107</v>
+        <v>5628.136500000001</v>
       </c>
       <c r="D8" t="n">
         <v>22500</v>
       </c>
       <c r="E8" t="n">
-        <v>35798.78599999999</v>
+        <v>32460.727</v>
       </c>
     </row>
     <row r="9">
@@ -572,16 +572,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>73269.57249999999</v>
+        <v>67205.92599999999</v>
       </c>
       <c r="C9" t="n">
-        <v>7214.4275</v>
+        <v>6549.074000000001</v>
       </c>
       <c r="D9" t="n">
         <v>22500</v>
       </c>
       <c r="E9" t="n">
-        <v>43555.14499999999</v>
+        <v>38156.85199999999</v>
       </c>
     </row>
     <row r="10">
@@ -589,16 +589,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>86257.982</v>
+        <v>75170.359</v>
       </c>
       <c r="C10" t="n">
-        <v>8467.018</v>
+        <v>7809.641</v>
       </c>
       <c r="D10" t="n">
-        <v>65000</v>
+        <v>22500</v>
       </c>
       <c r="E10" t="n">
-        <v>12790.96400000001</v>
+        <v>44860.71799999999</v>
       </c>
     </row>
     <row r="11">
@@ -606,16 +606,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>90482.3835</v>
+        <v>82295.1295</v>
       </c>
       <c r="C11" t="n">
-        <v>13640.6165</v>
+        <v>12977.8705</v>
       </c>
       <c r="D11" t="n">
-        <v>65000</v>
+        <v>32500</v>
       </c>
       <c r="E11" t="n">
-        <v>11841.76699999999</v>
+        <v>36817.25899999999</v>
       </c>
     </row>
     <row r="12">
@@ -623,16 +623,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>94548.98</v>
+        <v>83060.50599999999</v>
       </c>
       <c r="C12" t="n">
-        <v>15763.02</v>
+        <v>14879.494</v>
       </c>
       <c r="D12" t="n">
-        <v>65000</v>
+        <v>55000</v>
       </c>
       <c r="E12" t="n">
-        <v>13785.95999999999</v>
+        <v>13181.01199999999</v>
       </c>
     </row>
     <row r="13">
@@ -640,16 +640,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>96248.9605</v>
+        <v>79680.716</v>
       </c>
       <c r="C13" t="n">
-        <v>15072.0395</v>
+        <v>15334.284</v>
       </c>
       <c r="D13" t="n">
         <v>65000</v>
       </c>
       <c r="E13" t="n">
-        <v>16176.921</v>
+        <v>-653.5679999999993</v>
       </c>
     </row>
     <row r="14">
@@ -657,16 +657,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>93999.3325</v>
+        <v>87679.5435</v>
       </c>
       <c r="C14" t="n">
-        <v>15259.6675</v>
+        <v>15538.4565</v>
       </c>
       <c r="D14" t="n">
         <v>65000</v>
       </c>
       <c r="E14" t="n">
-        <v>13739.66500000001</v>
+        <v>7141.087</v>
       </c>
     </row>
     <row r="15">
@@ -674,16 +674,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>97613.25599999999</v>
+        <v>85245.04149999999</v>
       </c>
       <c r="C15" t="n">
-        <v>15815.744</v>
+        <v>15473.9585</v>
       </c>
       <c r="D15" t="n">
         <v>65000</v>
       </c>
       <c r="E15" t="n">
-        <v>16797.51199999999</v>
+        <v>4771.082999999984</v>
       </c>
     </row>
     <row r="16">
@@ -691,16 +691,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>98586.6725</v>
+        <v>84102.6715</v>
       </c>
       <c r="C16" t="n">
-        <v>15955.3275</v>
+        <v>15459.3285</v>
       </c>
       <c r="D16" t="n">
         <v>65000</v>
       </c>
       <c r="E16" t="n">
-        <v>17631.345</v>
+        <v>3643.342999999993</v>
       </c>
     </row>
     <row r="17">
@@ -708,16 +708,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>83311.9265</v>
+        <v>82366.4325</v>
       </c>
       <c r="C17" t="n">
-        <v>16114.0735</v>
+        <v>15733.5675</v>
       </c>
       <c r="D17" t="n">
         <v>65000</v>
       </c>
       <c r="E17" t="n">
-        <v>2197.853000000003</v>
+        <v>1632.864999999991</v>
       </c>
     </row>
     <row r="18">
@@ -725,16 +725,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>76092.611</v>
+        <v>78912.772</v>
       </c>
       <c r="C18" t="n">
-        <v>16384.389</v>
+        <v>15999.228</v>
       </c>
       <c r="D18" t="n">
         <v>65000</v>
       </c>
       <c r="E18" t="n">
-        <v>-5291.777999999991</v>
+        <v>-2086.456000000006</v>
       </c>
     </row>
     <row r="19">
@@ -742,13 +742,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>77523.92999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>15932.637</v>
+        <v>15687.07</v>
       </c>
       <c r="D19" t="n">
         <v>65000</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-3163.140000000007</v>
       </c>
     </row>
     <row r="20">
@@ -756,16 +759,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>81334.0935</v>
+        <v>79823.067</v>
       </c>
       <c r="C20" t="n">
-        <v>15036.9065</v>
+        <v>15318.933</v>
       </c>
       <c r="D20" t="n">
         <v>65000</v>
       </c>
       <c r="E20" t="n">
-        <v>1297.187000000005</v>
+        <v>-495.8660000000091</v>
       </c>
     </row>
     <row r="21">
@@ -773,16 +776,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>78578.4975</v>
+        <v>77799.3585</v>
       </c>
       <c r="C21" t="n">
-        <v>13330.5025</v>
+        <v>13434.6415</v>
       </c>
       <c r="D21" t="n">
         <v>65000</v>
       </c>
       <c r="E21" t="n">
-        <v>247.9949999999953</v>
+        <v>-635.2829999999958</v>
       </c>
     </row>
     <row r="22">
@@ -790,16 +793,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>77749.1885</v>
+        <v>77147.185</v>
       </c>
       <c r="C22" t="n">
-        <v>11770.8115</v>
+        <v>11609.815</v>
       </c>
       <c r="D22" t="n">
         <v>65000</v>
       </c>
       <c r="E22" t="n">
-        <v>978.3770000000077</v>
+        <v>537.3699999999953</v>
       </c>
     </row>
     <row r="23">
@@ -807,16 +810,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>74837.92449999999</v>
+        <v>75950.549</v>
       </c>
       <c r="C23" t="n">
-        <v>9312.075499999999</v>
+        <v>9103.451000000001</v>
       </c>
       <c r="D23" t="n">
         <v>65000</v>
       </c>
       <c r="E23" t="n">
-        <v>525.8489999999947</v>
+        <v>1847.097999999998</v>
       </c>
     </row>
     <row r="24">
@@ -824,16 +827,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>54075.2015</v>
+        <v>73885.5585</v>
       </c>
       <c r="C24" t="n">
-        <v>6773.7985</v>
+        <v>6290.4415</v>
       </c>
       <c r="D24" t="n">
         <v>65000</v>
       </c>
       <c r="E24" t="n">
-        <v>-17698.59699999999</v>
+        <v>2595.116999999998</v>
       </c>
     </row>
     <row r="25">
@@ -841,16 +844,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>14561.85</v>
+        <v>71567.1335</v>
       </c>
       <c r="C25" t="n">
-        <v>5542.130999999999</v>
+        <v>5217.8665</v>
       </c>
       <c r="D25" t="n">
         <v>65000</v>
       </c>
       <c r="E25" t="n">
-        <v>-55980.281</v>
+        <v>1349.266999999993</v>
       </c>
     </row>
   </sheetData>

--- a/wesm_exposure.xlsx
+++ b/wesm_exposure.xlsx
@@ -453,16 +453,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>85322.09149999999</v>
+        <v>60091.7405</v>
       </c>
       <c r="C2" t="n">
-        <v>5539.9085</v>
+        <v>5632.2595</v>
       </c>
       <c r="D2" t="n">
-        <v>65000</v>
+        <v>22500</v>
       </c>
       <c r="E2" t="n">
-        <v>14782.18299999999</v>
+        <v>31959.481</v>
       </c>
     </row>
     <row r="3">
@@ -470,16 +470,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>66643.49400000001</v>
+        <v>57606.156</v>
       </c>
       <c r="C3" t="n">
-        <v>5343.505999999999</v>
+        <v>5478.844000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>55000</v>
+        <v>22500</v>
       </c>
       <c r="E3" t="n">
-        <v>6299.988000000005</v>
+        <v>29627.31200000001</v>
       </c>
     </row>
     <row r="4">
@@ -487,16 +487,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>63850.3595</v>
+        <v>55826.2625</v>
       </c>
       <c r="C4" t="n">
-        <v>5250.640500000001</v>
+        <v>5431.737499999999</v>
       </c>
       <c r="D4" t="n">
-        <v>45000</v>
+        <v>22500</v>
       </c>
       <c r="E4" t="n">
-        <v>13599.719</v>
+        <v>27894.52499999999</v>
       </c>
     </row>
     <row r="5">
@@ -504,16 +504,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>61979.8705</v>
+        <v>54920.7065</v>
       </c>
       <c r="C5" t="n">
-        <v>5194.129499999999</v>
+        <v>5351.2935</v>
       </c>
       <c r="D5" t="n">
-        <v>45000</v>
+        <v>22500</v>
       </c>
       <c r="E5" t="n">
-        <v>11785.74099999999</v>
+        <v>27069.413</v>
       </c>
     </row>
     <row r="6">
@@ -521,16 +521,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>62565.603</v>
+        <v>57738.2435</v>
       </c>
       <c r="C6" t="n">
-        <v>5143.397</v>
+        <v>5443.7565</v>
       </c>
       <c r="D6" t="n">
-        <v>32500</v>
+        <v>22500</v>
       </c>
       <c r="E6" t="n">
-        <v>24922.20600000001</v>
+        <v>29794.48699999999</v>
       </c>
     </row>
     <row r="7">
@@ -538,16 +538,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>74491.1695</v>
+        <v>62280.3545</v>
       </c>
       <c r="C7" t="n">
-        <v>5188.8305</v>
+        <v>5521.645500000001</v>
       </c>
       <c r="D7" t="n">
         <v>22500</v>
       </c>
       <c r="E7" t="n">
-        <v>46802.33900000001</v>
+        <v>34258.709</v>
       </c>
     </row>
     <row r="8">
@@ -555,16 +555,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>60588.8635</v>
+        <v>63002.004</v>
       </c>
       <c r="C8" t="n">
-        <v>5628.136500000001</v>
+        <v>6568.996000000001</v>
       </c>
       <c r="D8" t="n">
         <v>22500</v>
       </c>
       <c r="E8" t="n">
-        <v>32460.727</v>
+        <v>33933.008</v>
       </c>
     </row>
     <row r="9">
@@ -572,16 +572,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>67205.92599999999</v>
+        <v>74118.9295</v>
       </c>
       <c r="C9" t="n">
-        <v>6549.074000000001</v>
+        <v>7039.0705</v>
       </c>
       <c r="D9" t="n">
         <v>22500</v>
       </c>
       <c r="E9" t="n">
-        <v>38156.85199999999</v>
+        <v>44579.859</v>
       </c>
     </row>
     <row r="10">
@@ -589,16 +589,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>75170.359</v>
+        <v>89684.016</v>
       </c>
       <c r="C10" t="n">
-        <v>7809.641</v>
+        <v>8768.984</v>
       </c>
       <c r="D10" t="n">
-        <v>22500</v>
+        <v>57000</v>
       </c>
       <c r="E10" t="n">
-        <v>44860.71799999999</v>
+        <v>23915.03200000001</v>
       </c>
     </row>
     <row r="11">
@@ -606,16 +606,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>82295.1295</v>
+        <v>94141.26149999999</v>
       </c>
       <c r="C11" t="n">
-        <v>12977.8705</v>
+        <v>14287.7385</v>
       </c>
       <c r="D11" t="n">
-        <v>32500</v>
+        <v>65000</v>
       </c>
       <c r="E11" t="n">
-        <v>36817.25899999999</v>
+        <v>14853.52299999999</v>
       </c>
     </row>
     <row r="12">
@@ -623,16 +623,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>83060.50599999999</v>
+        <v>95535.67999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>14879.494</v>
+        <v>16203.32</v>
       </c>
       <c r="D12" t="n">
-        <v>55000</v>
+        <v>65000</v>
       </c>
       <c r="E12" t="n">
-        <v>13181.01199999999</v>
+        <v>14332.35999999999</v>
       </c>
     </row>
     <row r="13">
@@ -640,16 +640,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>79680.716</v>
+        <v>96843.9975</v>
       </c>
       <c r="C13" t="n">
-        <v>15334.284</v>
+        <v>16253.0025</v>
       </c>
       <c r="D13" t="n">
         <v>65000</v>
       </c>
       <c r="E13" t="n">
-        <v>-653.5679999999993</v>
+        <v>15590.995</v>
       </c>
     </row>
     <row r="14">
@@ -657,16 +657,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>87679.5435</v>
+        <v>96558.0425</v>
       </c>
       <c r="C14" t="n">
-        <v>15538.4565</v>
+        <v>16193.9575</v>
       </c>
       <c r="D14" t="n">
         <v>65000</v>
       </c>
       <c r="E14" t="n">
-        <v>7141.087</v>
+        <v>15364.08499999999</v>
       </c>
     </row>
     <row r="15">
@@ -674,16 +674,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>85245.04149999999</v>
+        <v>100667.975</v>
       </c>
       <c r="C15" t="n">
-        <v>15473.9585</v>
+        <v>16307.025</v>
       </c>
       <c r="D15" t="n">
         <v>65000</v>
       </c>
       <c r="E15" t="n">
-        <v>4771.082999999984</v>
+        <v>19360.95000000001</v>
       </c>
     </row>
     <row r="16">
@@ -691,16 +691,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>84102.6715</v>
+        <v>101388.0945</v>
       </c>
       <c r="C16" t="n">
-        <v>15459.3285</v>
+        <v>16253.9055</v>
       </c>
       <c r="D16" t="n">
         <v>65000</v>
       </c>
       <c r="E16" t="n">
-        <v>3643.342999999993</v>
+        <v>20134.18900000001</v>
       </c>
     </row>
     <row r="17">
@@ -708,16 +708,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>82366.4325</v>
+        <v>80754.929</v>
       </c>
       <c r="C17" t="n">
-        <v>15733.5675</v>
+        <v>15667.071</v>
       </c>
       <c r="D17" t="n">
         <v>65000</v>
       </c>
       <c r="E17" t="n">
-        <v>1632.864999999991</v>
+        <v>87.85800000000745</v>
       </c>
     </row>
     <row r="18">
@@ -725,16 +725,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>78912.772</v>
+        <v>78050.60800000001</v>
       </c>
       <c r="C18" t="n">
-        <v>15999.228</v>
+        <v>16597.392</v>
       </c>
       <c r="D18" t="n">
         <v>65000</v>
       </c>
       <c r="E18" t="n">
-        <v>-2086.456000000006</v>
+        <v>-3546.783999999992</v>
       </c>
     </row>
     <row r="19">
@@ -745,13 +745,13 @@
         <v>77523.92999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>15687.07</v>
+        <v>16121.5775</v>
       </c>
       <c r="D19" t="n">
         <v>65000</v>
       </c>
       <c r="E19" t="n">
-        <v>-3163.140000000007</v>
+        <v>-3597.647500000006</v>
       </c>
     </row>
     <row r="20">
@@ -762,13 +762,13 @@
         <v>79823.067</v>
       </c>
       <c r="C20" t="n">
-        <v>15318.933</v>
+        <v>15277.878</v>
       </c>
       <c r="D20" t="n">
         <v>65000</v>
       </c>
       <c r="E20" t="n">
-        <v>-495.8660000000091</v>
+        <v>-454.8110000000015</v>
       </c>
     </row>
     <row r="21">
@@ -779,13 +779,13 @@
         <v>77799.3585</v>
       </c>
       <c r="C21" t="n">
-        <v>13434.6415</v>
+        <v>13983.214</v>
       </c>
       <c r="D21" t="n">
         <v>65000</v>
       </c>
       <c r="E21" t="n">
-        <v>-635.2829999999958</v>
+        <v>-1183.855499999998</v>
       </c>
     </row>
     <row r="22">
@@ -796,13 +796,13 @@
         <v>77147.185</v>
       </c>
       <c r="C22" t="n">
-        <v>11609.815</v>
+        <v>12008.9865</v>
       </c>
       <c r="D22" t="n">
         <v>65000</v>
       </c>
       <c r="E22" t="n">
-        <v>537.3699999999953</v>
+        <v>138.1984999999986</v>
       </c>
     </row>
     <row r="23">
@@ -813,13 +813,13 @@
         <v>75950.549</v>
       </c>
       <c r="C23" t="n">
-        <v>9103.451000000001</v>
+        <v>9648.002000000002</v>
       </c>
       <c r="D23" t="n">
         <v>65000</v>
       </c>
       <c r="E23" t="n">
-        <v>1847.097999999998</v>
+        <v>1302.546999999991</v>
       </c>
     </row>
     <row r="24">
@@ -830,13 +830,13 @@
         <v>73885.5585</v>
       </c>
       <c r="C24" t="n">
-        <v>6290.4415</v>
+        <v>6756.816500000001</v>
       </c>
       <c r="D24" t="n">
         <v>65000</v>
       </c>
       <c r="E24" t="n">
-        <v>2595.116999999998</v>
+        <v>2128.741999999998</v>
       </c>
     </row>
     <row r="25">
@@ -847,13 +847,13 @@
         <v>71567.1335</v>
       </c>
       <c r="C25" t="n">
-        <v>5217.8665</v>
+        <v>6005.93</v>
       </c>
       <c r="D25" t="n">
         <v>65000</v>
       </c>
       <c r="E25" t="n">
-        <v>1349.266999999993</v>
+        <v>561.2035000000033</v>
       </c>
     </row>
   </sheetData>

--- a/wesm_exposure.xlsx
+++ b/wesm_exposure.xlsx
@@ -453,16 +453,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>60091.7405</v>
+        <v>67741.01150000001</v>
       </c>
       <c r="C2" t="n">
-        <v>5632.2595</v>
+        <v>5416.988499999999</v>
       </c>
       <c r="D2" t="n">
-        <v>22500</v>
+        <v>55000</v>
       </c>
       <c r="E2" t="n">
-        <v>31959.481</v>
+        <v>7324.023000000008</v>
       </c>
     </row>
     <row r="3">
@@ -470,16 +470,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>57606.156</v>
+        <v>64760.858</v>
       </c>
       <c r="C3" t="n">
-        <v>5478.844000000001</v>
+        <v>5210.142</v>
       </c>
       <c r="D3" t="n">
         <v>22500</v>
       </c>
       <c r="E3" t="n">
-        <v>29627.31200000001</v>
+        <v>37050.716</v>
       </c>
     </row>
     <row r="4">
@@ -487,16 +487,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>55826.2625</v>
+        <v>62101.3</v>
       </c>
       <c r="C4" t="n">
-        <v>5431.737499999999</v>
+        <v>5131.699999999999</v>
       </c>
       <c r="D4" t="n">
         <v>22500</v>
       </c>
       <c r="E4" t="n">
-        <v>27894.52499999999</v>
+        <v>34469.60000000001</v>
       </c>
     </row>
     <row r="5">
@@ -504,16 +504,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>54920.7065</v>
+        <v>61724.802</v>
       </c>
       <c r="C5" t="n">
-        <v>5351.2935</v>
+        <v>5049.197999999999</v>
       </c>
       <c r="D5" t="n">
         <v>22500</v>
       </c>
       <c r="E5" t="n">
-        <v>27069.413</v>
+        <v>34175.60400000001</v>
       </c>
     </row>
     <row r="6">
@@ -521,16 +521,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>57738.2435</v>
+        <v>63342.0075</v>
       </c>
       <c r="C6" t="n">
-        <v>5443.7565</v>
+        <v>5084.9925</v>
       </c>
       <c r="D6" t="n">
         <v>22500</v>
       </c>
       <c r="E6" t="n">
-        <v>29794.48699999999</v>
+        <v>35757.015</v>
       </c>
     </row>
     <row r="7">
@@ -538,16 +538,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>62280.3545</v>
+        <v>67452.89449999999</v>
       </c>
       <c r="C7" t="n">
-        <v>5521.645500000001</v>
+        <v>5380.1055</v>
       </c>
       <c r="D7" t="n">
         <v>22500</v>
       </c>
       <c r="E7" t="n">
-        <v>34258.709</v>
+        <v>39572.789</v>
       </c>
     </row>
     <row r="8">
@@ -555,16 +555,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>63002.004</v>
+        <v>66444.84849999999</v>
       </c>
       <c r="C8" t="n">
-        <v>6568.996000000001</v>
+        <v>6413.1515</v>
       </c>
       <c r="D8" t="n">
         <v>22500</v>
       </c>
       <c r="E8" t="n">
-        <v>33933.008</v>
+        <v>37531.69699999999</v>
       </c>
     </row>
     <row r="9">
@@ -572,16 +572,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>74118.9295</v>
+        <v>77477.15949999999</v>
       </c>
       <c r="C9" t="n">
-        <v>7039.0705</v>
+        <v>7207.8405</v>
       </c>
       <c r="D9" t="n">
         <v>22500</v>
       </c>
       <c r="E9" t="n">
-        <v>44579.859</v>
+        <v>47769.31899999999</v>
       </c>
     </row>
     <row r="10">
@@ -589,16 +589,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>89684.016</v>
+        <v>93062.8</v>
       </c>
       <c r="C10" t="n">
-        <v>8768.984</v>
+        <v>9489.200000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>57000</v>
+        <v>55000</v>
       </c>
       <c r="E10" t="n">
-        <v>23915.03200000001</v>
+        <v>28573.60000000001</v>
       </c>
     </row>
     <row r="11">
@@ -606,16 +606,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>94141.26149999999</v>
+        <v>97938.8115</v>
       </c>
       <c r="C11" t="n">
-        <v>14287.7385</v>
+        <v>14318.1885</v>
       </c>
       <c r="D11" t="n">
         <v>65000</v>
       </c>
       <c r="E11" t="n">
-        <v>14853.52299999999</v>
+        <v>18620.62299999999</v>
       </c>
     </row>
     <row r="12">
@@ -623,16 +623,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>95535.67999999999</v>
+        <v>100816.808</v>
       </c>
       <c r="C12" t="n">
-        <v>16203.32</v>
+        <v>15340.192</v>
       </c>
       <c r="D12" t="n">
         <v>65000</v>
       </c>
       <c r="E12" t="n">
-        <v>14332.35999999999</v>
+        <v>20476.61600000001</v>
       </c>
     </row>
     <row r="13">
@@ -640,16 +640,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>96843.9975</v>
+        <v>99591.12850000001</v>
       </c>
       <c r="C13" t="n">
-        <v>16253.0025</v>
+        <v>15589.8715</v>
       </c>
       <c r="D13" t="n">
         <v>65000</v>
       </c>
       <c r="E13" t="n">
-        <v>15590.995</v>
+        <v>19001.25700000001</v>
       </c>
     </row>
     <row r="14">
@@ -657,16 +657,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>96558.0425</v>
+        <v>103078.6315</v>
       </c>
       <c r="C14" t="n">
-        <v>16193.9575</v>
+        <v>15359.3685</v>
       </c>
       <c r="D14" t="n">
         <v>65000</v>
       </c>
       <c r="E14" t="n">
-        <v>15364.08499999999</v>
+        <v>22719.26300000001</v>
       </c>
     </row>
     <row r="15">
@@ -674,16 +674,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>100667.975</v>
+        <v>103456.56</v>
       </c>
       <c r="C15" t="n">
-        <v>16307.025</v>
+        <v>15511.44</v>
       </c>
       <c r="D15" t="n">
         <v>65000</v>
       </c>
       <c r="E15" t="n">
-        <v>19360.95000000001</v>
+        <v>22945.12</v>
       </c>
     </row>
     <row r="16">
@@ -691,16 +691,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>101388.0945</v>
+        <v>106139.5625</v>
       </c>
       <c r="C16" t="n">
-        <v>16253.9055</v>
+        <v>15666.4375</v>
       </c>
       <c r="D16" t="n">
         <v>65000</v>
       </c>
       <c r="E16" t="n">
-        <v>20134.18900000001</v>
+        <v>25473.125</v>
       </c>
     </row>
     <row r="17">
@@ -708,16 +708,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>80754.929</v>
+        <v>98840.583</v>
       </c>
       <c r="C17" t="n">
-        <v>15667.071</v>
+        <v>16125.417</v>
       </c>
       <c r="D17" t="n">
         <v>65000</v>
       </c>
       <c r="E17" t="n">
-        <v>87.85800000000745</v>
+        <v>17715.166</v>
       </c>
     </row>
     <row r="18">
@@ -725,16 +725,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>78050.60800000001</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>16597.392</v>
+        <v>16406.873</v>
       </c>
       <c r="D18" t="n">
         <v>65000</v>
-      </c>
-      <c r="E18" t="n">
-        <v>-3546.783999999992</v>
       </c>
     </row>
     <row r="19">
@@ -742,16 +739,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>77523.92999999999</v>
+        <v>91921.8355</v>
       </c>
       <c r="C19" t="n">
-        <v>16121.5775</v>
+        <v>16163.1645</v>
       </c>
       <c r="D19" t="n">
         <v>65000</v>
       </c>
       <c r="E19" t="n">
-        <v>-3597.647500000006</v>
+        <v>10758.671</v>
       </c>
     </row>
     <row r="20">
@@ -759,16 +756,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>79823.067</v>
+        <v>91677.2825</v>
       </c>
       <c r="C20" t="n">
-        <v>15277.878</v>
+        <v>15659.7175</v>
       </c>
       <c r="D20" t="n">
         <v>65000</v>
       </c>
       <c r="E20" t="n">
-        <v>-454.8110000000015</v>
+        <v>11017.565</v>
       </c>
     </row>
     <row r="21">
@@ -776,16 +773,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>77799.3585</v>
+        <v>78811.4135</v>
       </c>
       <c r="C21" t="n">
-        <v>13983.214</v>
+        <v>13764.5865</v>
       </c>
       <c r="D21" t="n">
         <v>65000</v>
       </c>
       <c r="E21" t="n">
-        <v>-1183.855499999998</v>
+        <v>46.8269999999975</v>
       </c>
     </row>
     <row r="22">
@@ -793,16 +790,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>77147.185</v>
+        <v>80527.792</v>
       </c>
       <c r="C22" t="n">
-        <v>12008.9865</v>
+        <v>11506.208</v>
       </c>
       <c r="D22" t="n">
         <v>65000</v>
       </c>
       <c r="E22" t="n">
-        <v>138.1984999999986</v>
+        <v>4021.584000000003</v>
       </c>
     </row>
     <row r="23">
@@ -810,16 +807,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>75950.549</v>
+        <v>59160.206</v>
       </c>
       <c r="C23" t="n">
-        <v>9648.002000000002</v>
+        <v>8102.793999999999</v>
       </c>
       <c r="D23" t="n">
         <v>65000</v>
       </c>
       <c r="E23" t="n">
-        <v>1302.546999999991</v>
+        <v>-13942.588</v>
       </c>
     </row>
     <row r="24">
@@ -827,16 +824,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>73885.5585</v>
+        <v>65087.887</v>
       </c>
       <c r="C24" t="n">
-        <v>6756.816500000001</v>
+        <v>6308.112999999999</v>
       </c>
       <c r="D24" t="n">
         <v>65000</v>
       </c>
       <c r="E24" t="n">
-        <v>2128.741999999998</v>
+        <v>-6220.225999999995</v>
       </c>
     </row>
     <row r="25">
@@ -847,13 +844,13 @@
         <v>71567.1335</v>
       </c>
       <c r="C25" t="n">
-        <v>6005.93</v>
+        <v>5711.482</v>
       </c>
       <c r="D25" t="n">
         <v>65000</v>
       </c>
       <c r="E25" t="n">
-        <v>561.2035000000033</v>
+        <v>855.6514999999927</v>
       </c>
     </row>
   </sheetData>

--- a/wesm_exposure.xlsx
+++ b/wesm_exposure.xlsx
@@ -453,16 +453,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>67741.01150000001</v>
+        <v>69362.51534653465</v>
       </c>
       <c r="C2" t="n">
-        <v>5416.988499999999</v>
+        <v>5329.484653465346</v>
       </c>
       <c r="D2" t="n">
-        <v>55000</v>
+        <v>42500</v>
       </c>
       <c r="E2" t="n">
-        <v>7324.023000000008</v>
+        <v>21533.0306930693</v>
       </c>
     </row>
     <row r="3">
@@ -470,16 +470,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>64760.858</v>
+        <v>64062.29356435643</v>
       </c>
       <c r="C3" t="n">
-        <v>5210.142</v>
+        <v>5259.706435643564</v>
       </c>
       <c r="D3" t="n">
         <v>22500</v>
       </c>
       <c r="E3" t="n">
-        <v>37050.716</v>
+        <v>36302.58712871286</v>
       </c>
     </row>
     <row r="4">
@@ -487,16 +487,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>62101.3</v>
+        <v>65658.11732673267</v>
       </c>
       <c r="C4" t="n">
-        <v>5131.699999999999</v>
+        <v>5163.882673267326</v>
       </c>
       <c r="D4" t="n">
         <v>22500</v>
       </c>
       <c r="E4" t="n">
-        <v>34469.60000000001</v>
+        <v>37994.23465346534</v>
       </c>
     </row>
     <row r="5">
@@ -504,16 +504,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>61724.802</v>
+        <v>61655.28663366337</v>
       </c>
       <c r="C5" t="n">
-        <v>5049.197999999999</v>
+        <v>5112.713366336634</v>
       </c>
       <c r="D5" t="n">
         <v>22500</v>
       </c>
       <c r="E5" t="n">
-        <v>34175.60400000001</v>
+        <v>34042.57326732673</v>
       </c>
     </row>
     <row r="6">
@@ -521,16 +521,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>63342.0075</v>
+        <v>62069.44108910891</v>
       </c>
       <c r="C6" t="n">
-        <v>5084.9925</v>
+        <v>5106.558910891089</v>
       </c>
       <c r="D6" t="n">
         <v>22500</v>
       </c>
       <c r="E6" t="n">
-        <v>35757.015</v>
+        <v>34462.88217821782</v>
       </c>
     </row>
     <row r="7">
@@ -538,16 +538,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>67452.89449999999</v>
+        <v>63867.63465346534</v>
       </c>
       <c r="C7" t="n">
-        <v>5380.1055</v>
+        <v>5300.365346534654</v>
       </c>
       <c r="D7" t="n">
         <v>22500</v>
       </c>
       <c r="E7" t="n">
-        <v>39572.789</v>
+        <v>36067.26930693068</v>
       </c>
     </row>
     <row r="8">
@@ -555,16 +555,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>66444.84849999999</v>
+        <v>63408.89306930693</v>
       </c>
       <c r="C8" t="n">
-        <v>6413.1515</v>
+        <v>6379.10693069307</v>
       </c>
       <c r="D8" t="n">
         <v>22500</v>
       </c>
       <c r="E8" t="n">
-        <v>37531.69699999999</v>
+        <v>34529.78613861385</v>
       </c>
     </row>
     <row r="9">
@@ -572,16 +572,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>77477.15949999999</v>
+        <v>74626.34306930692</v>
       </c>
       <c r="C9" t="n">
-        <v>7207.8405</v>
+        <v>7216.65693069307</v>
       </c>
       <c r="D9" t="n">
         <v>22500</v>
       </c>
       <c r="E9" t="n">
-        <v>47769.31899999999</v>
+        <v>44909.68613861385</v>
       </c>
     </row>
     <row r="10">
@@ -589,16 +589,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>93062.8</v>
+        <v>93676.24554455446</v>
       </c>
       <c r="C10" t="n">
-        <v>9489.200000000001</v>
+        <v>8943.754455445545</v>
       </c>
       <c r="D10" t="n">
         <v>55000</v>
       </c>
       <c r="E10" t="n">
-        <v>28573.60000000001</v>
+        <v>29732.49108910892</v>
       </c>
     </row>
     <row r="11">
@@ -606,16 +606,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>97938.8115</v>
+        <v>105712.697</v>
       </c>
       <c r="C11" t="n">
-        <v>14318.1885</v>
+        <v>13673.303</v>
       </c>
       <c r="D11" t="n">
         <v>65000</v>
       </c>
       <c r="E11" t="n">
-        <v>18620.62299999999</v>
+        <v>27039.394</v>
       </c>
     </row>
     <row r="12">
@@ -623,16 +623,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>100816.808</v>
+        <v>100773.909</v>
       </c>
       <c r="C12" t="n">
-        <v>15340.192</v>
+        <v>15596.091</v>
       </c>
       <c r="D12" t="n">
         <v>65000</v>
       </c>
       <c r="E12" t="n">
-        <v>20476.61600000001</v>
+        <v>20177.818</v>
       </c>
     </row>
     <row r="13">
@@ -640,16 +640,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>99591.12850000001</v>
+        <v>104781.504255</v>
       </c>
       <c r="C13" t="n">
-        <v>15589.8715</v>
+        <v>15591.495745</v>
       </c>
       <c r="D13" t="n">
         <v>65000</v>
       </c>
       <c r="E13" t="n">
-        <v>19001.25700000001</v>
+        <v>24190.00851000001</v>
       </c>
     </row>
     <row r="14">
@@ -657,16 +657,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>103078.6315</v>
+        <v>103107.418145</v>
       </c>
       <c r="C14" t="n">
-        <v>15359.3685</v>
+        <v>15952.581855</v>
       </c>
       <c r="D14" t="n">
         <v>65000</v>
       </c>
       <c r="E14" t="n">
-        <v>22719.26300000001</v>
+        <v>22154.83629000001</v>
       </c>
     </row>
     <row r="15">
@@ -674,16 +674,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>103456.56</v>
+        <v>109305.36965</v>
       </c>
       <c r="C15" t="n">
-        <v>15511.44</v>
+        <v>15967.63035</v>
       </c>
       <c r="D15" t="n">
         <v>65000</v>
       </c>
       <c r="E15" t="n">
-        <v>22945.12</v>
+        <v>28337.73929999999</v>
       </c>
     </row>
     <row r="16">
@@ -691,16 +691,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>106139.5625</v>
+        <v>105855.462415</v>
       </c>
       <c r="C16" t="n">
-        <v>15666.4375</v>
+        <v>16122.537585</v>
       </c>
       <c r="D16" t="n">
         <v>65000</v>
       </c>
       <c r="E16" t="n">
-        <v>25473.125</v>
+        <v>24732.92483</v>
       </c>
     </row>
     <row r="17">
@@ -708,16 +708,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>98840.583</v>
+        <v>63205.732835</v>
       </c>
       <c r="C17" t="n">
-        <v>16125.417</v>
+        <v>16685.267165</v>
       </c>
       <c r="D17" t="n">
         <v>65000</v>
       </c>
       <c r="E17" t="n">
-        <v>17715.166</v>
+        <v>-18479.53432999999</v>
       </c>
     </row>
     <row r="18">
@@ -725,13 +725,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>64148.58444999999</v>
       </c>
       <c r="C18" t="n">
-        <v>16406.873</v>
+        <v>16903.41555</v>
       </c>
       <c r="D18" t="n">
         <v>65000</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-17754.83110000001</v>
       </c>
     </row>
     <row r="19">
@@ -739,16 +742,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>91921.8355</v>
+        <v>64570.478235</v>
       </c>
       <c r="C19" t="n">
-        <v>16163.1645</v>
+        <v>16563.521765</v>
       </c>
       <c r="D19" t="n">
         <v>65000</v>
       </c>
       <c r="E19" t="n">
-        <v>10758.671</v>
+        <v>-16993.04353</v>
       </c>
     </row>
     <row r="20">
@@ -756,16 +759,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>91677.2825</v>
+        <v>63680.90993</v>
       </c>
       <c r="C20" t="n">
-        <v>15659.7175</v>
+        <v>16239.09007</v>
       </c>
       <c r="D20" t="n">
         <v>65000</v>
       </c>
       <c r="E20" t="n">
-        <v>11017.565</v>
+        <v>-17558.18014</v>
       </c>
     </row>
     <row r="21">
@@ -773,16 +776,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>78811.4135</v>
+        <v>63024.928185</v>
       </c>
       <c r="C21" t="n">
-        <v>13764.5865</v>
+        <v>14649.071815</v>
       </c>
       <c r="D21" t="n">
         <v>65000</v>
       </c>
       <c r="E21" t="n">
-        <v>46.8269999999975</v>
+        <v>-16624.14363000001</v>
       </c>
     </row>
     <row r="22">
@@ -790,16 +793,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>80527.792</v>
+        <v>63689.698075</v>
       </c>
       <c r="C22" t="n">
-        <v>11506.208</v>
+        <v>12459.301925</v>
       </c>
       <c r="D22" t="n">
         <v>65000</v>
       </c>
       <c r="E22" t="n">
-        <v>4021.584000000003</v>
+        <v>-13769.60385</v>
       </c>
     </row>
     <row r="23">
@@ -807,16 +810,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>59160.206</v>
+        <v>62512.857865</v>
       </c>
       <c r="C23" t="n">
-        <v>8102.793999999999</v>
+        <v>9926.142135</v>
       </c>
       <c r="D23" t="n">
         <v>65000</v>
       </c>
       <c r="E23" t="n">
-        <v>-13942.588</v>
+        <v>-12413.28427</v>
       </c>
     </row>
     <row r="24">
@@ -824,16 +827,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>65087.887</v>
+        <v>59950.801475</v>
       </c>
       <c r="C24" t="n">
-        <v>6308.112999999999</v>
+        <v>6827.198525000001</v>
       </c>
       <c r="D24" t="n">
         <v>65000</v>
       </c>
       <c r="E24" t="n">
-        <v>-6220.225999999995</v>
+        <v>-11876.39705</v>
       </c>
     </row>
     <row r="25">
@@ -841,16 +844,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>71567.1335</v>
+        <v>23066.7285</v>
       </c>
       <c r="C25" t="n">
-        <v>5711.482</v>
+        <v>6013.597064999999</v>
       </c>
       <c r="D25" t="n">
         <v>65000</v>
       </c>
       <c r="E25" t="n">
-        <v>855.6514999999927</v>
+        <v>-47946.868565</v>
       </c>
     </row>
   </sheetData>

--- a/wesm_exposure.xlsx
+++ b/wesm_exposure.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -448,13 +448,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>49055.70767884596</v>
+        <v>38477.55292684464</v>
       </c>
       <c r="C2" t="n">
-        <v>47500</v>
+        <v>52500</v>
       </c>
       <c r="D2" t="n">
-        <v>1555.70767884596</v>
+        <v>-14022.44707315536</v>
       </c>
     </row>
     <row r="3">
@@ -462,13 +462,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>45913.44015241734</v>
+        <v>36620.40118456523</v>
       </c>
       <c r="C3" t="n">
-        <v>37500</v>
+        <v>42500</v>
       </c>
       <c r="D3" t="n">
-        <v>8413.440152417337</v>
+        <v>-5879.598815434772</v>
       </c>
     </row>
     <row r="4">
@@ -476,13 +476,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>43785.45451533525</v>
+        <v>35248.56030425699</v>
       </c>
       <c r="C4" t="n">
-        <v>27500</v>
+        <v>22500</v>
       </c>
       <c r="D4" t="n">
-        <v>16285.45451533525</v>
+        <v>12748.56030425699</v>
       </c>
     </row>
     <row r="5">
@@ -490,13 +490,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>41929.94255221684</v>
+        <v>34216.17080189522</v>
       </c>
       <c r="C5" t="n">
-        <v>27500</v>
+        <v>22500</v>
       </c>
       <c r="D5" t="n">
-        <v>14429.94255221684</v>
+        <v>11716.17080189522</v>
       </c>
     </row>
     <row r="6">
@@ -504,13 +504,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>42771.98937702928</v>
+        <v>34922.90443273044</v>
       </c>
       <c r="C6" t="n">
-        <v>27500</v>
+        <v>22500</v>
       </c>
       <c r="D6" t="n">
-        <v>15271.98937702928</v>
+        <v>12422.90443273044</v>
       </c>
     </row>
     <row r="7">
@@ -518,13 +518,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>43594.49335046268</v>
+        <v>35984.87301104541</v>
       </c>
       <c r="C7" t="n">
-        <v>27500</v>
+        <v>22500</v>
       </c>
       <c r="D7" t="n">
-        <v>16094.49335046268</v>
+        <v>13484.87301104541</v>
       </c>
     </row>
     <row r="8">
@@ -532,13 +532,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>42603.55084781715</v>
+        <v>37061.67659102493</v>
       </c>
       <c r="C8" t="n">
-        <v>27500</v>
+        <v>22500</v>
       </c>
       <c r="D8" t="n">
-        <v>15103.55084781715</v>
+        <v>14561.67659102493</v>
       </c>
     </row>
     <row r="9">
@@ -546,13 +546,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>35409.32129739954</v>
+        <v>41874.97220930031</v>
       </c>
       <c r="C9" t="n">
-        <v>27500</v>
+        <v>22500</v>
       </c>
       <c r="D9" t="n">
-        <v>7909.32129739954</v>
+        <v>19374.97220930031</v>
       </c>
     </row>
     <row r="10">
@@ -560,13 +560,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>57208.2105</v>
+        <v>47716.503</v>
       </c>
       <c r="C10" t="n">
-        <v>70000</v>
+        <v>42500</v>
       </c>
       <c r="D10" t="n">
-        <v>-12791.7895</v>
+        <v>5216.502999999997</v>
       </c>
     </row>
     <row r="11">
@@ -574,13 +574,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>59820.862</v>
+        <v>47786.911945</v>
       </c>
       <c r="C11" t="n">
-        <v>70000</v>
+        <v>42500</v>
       </c>
       <c r="D11" t="n">
-        <v>-10179.138</v>
+        <v>5286.911945</v>
       </c>
     </row>
     <row r="12">
@@ -588,13 +588,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>62649.0755</v>
+        <v>47367.6765</v>
       </c>
       <c r="C12" t="n">
-        <v>75000</v>
+        <v>42500</v>
       </c>
       <c r="D12" t="n">
-        <v>-12350.9245</v>
+        <v>4867.676500000001</v>
       </c>
     </row>
     <row r="13">
@@ -602,13 +602,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>63585.374</v>
+        <v>46397.346</v>
       </c>
       <c r="C13" t="n">
-        <v>75000</v>
+        <v>42500</v>
       </c>
       <c r="D13" t="n">
-        <v>-11414.626</v>
+        <v>3897.345999999998</v>
       </c>
     </row>
     <row r="14">
@@ -616,13 +616,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>64148.74625</v>
+        <v>46850.4575</v>
       </c>
       <c r="C14" t="n">
-        <v>75000</v>
+        <v>52500</v>
       </c>
       <c r="D14" t="n">
-        <v>-10851.25375</v>
+        <v>-5649.542500000003</v>
       </c>
     </row>
     <row r="15">
@@ -630,13 +630,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>67428.30775000001</v>
+        <v>48334.546</v>
       </c>
       <c r="C15" t="n">
         <v>75000</v>
       </c>
       <c r="D15" t="n">
-        <v>-7571.692249999993</v>
+        <v>-26665.454</v>
       </c>
     </row>
     <row r="16">
@@ -644,13 +644,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>36096.26075</v>
+        <v>29855.791</v>
       </c>
       <c r="C16" t="n">
         <v>75000</v>
       </c>
       <c r="D16" t="n">
-        <v>-38903.73925</v>
+        <v>-45144.209</v>
       </c>
     </row>
     <row r="17">
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>47500</v>
+        <v>75000</v>
       </c>
     </row>
   </sheetData>

--- a/wesm_exposure.xlsx
+++ b/wesm_exposure.xlsx
@@ -644,13 +644,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>29855.791</v>
+        <v>46171.791</v>
       </c>
       <c r="C16" t="n">
         <v>75000</v>
       </c>
       <c r="D16" t="n">
-        <v>-45144.209</v>
+        <v>-28828.209</v>
       </c>
     </row>
     <row r="17">

--- a/wesm_exposure.xlsx
+++ b/wesm_exposure.xlsx
@@ -658,10 +658,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>43473.5805</v>
       </c>
       <c r="C17" t="n">
         <v>75000</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-31526.4195</v>
       </c>
     </row>
     <row r="18">
@@ -669,13 +672,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>1768.269410000001</v>
+        <v>38591.5135</v>
       </c>
       <c r="C18" t="n">
         <v>75000</v>
       </c>
       <c r="D18" t="n">
-        <v>-73231.73058999999</v>
+        <v>-36408.4865</v>
       </c>
     </row>
     <row r="19">

--- a/wesm_exposure.xlsx
+++ b/wesm_exposure.xlsx
@@ -672,13 +672,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>38591.5135</v>
+        <v>41665.5135</v>
       </c>
       <c r="C18" t="n">
         <v>75000</v>
       </c>
       <c r="D18" t="n">
-        <v>-36408.4865</v>
+        <v>-33334.4865</v>
       </c>
     </row>
     <row r="19">
@@ -686,10 +686,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>39727.5055</v>
       </c>
       <c r="C19" t="n">
         <v>75000</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-35272.4945</v>
       </c>
     </row>
     <row r="20">
@@ -697,10 +700,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>39165.7675</v>
       </c>
       <c r="C20" t="n">
         <v>75000</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-35834.2325</v>
       </c>
     </row>
     <row r="21">
@@ -708,10 +714,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>37817.495</v>
       </c>
       <c r="C21" t="n">
         <v>75000</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-37182.505</v>
       </c>
     </row>
     <row r="22">
@@ -719,10 +728,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>38010.227</v>
       </c>
       <c r="C22" t="n">
         <v>75000</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-36989.773</v>
       </c>
     </row>
     <row r="23">
@@ -730,10 +742,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>38285.2065</v>
       </c>
       <c r="C23" t="n">
         <v>75000</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-36714.7935</v>
       </c>
     </row>
     <row r="24">

--- a/wesm_exposure.xlsx
+++ b/wesm_exposure.xlsx
@@ -448,13 +448,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>38477.55292684464</v>
+        <v>33675.812</v>
       </c>
       <c r="C2" t="n">
-        <v>52500</v>
+        <v>66500</v>
       </c>
       <c r="D2" t="n">
-        <v>-14022.44707315536</v>
+        <v>-32824.188</v>
       </c>
     </row>
     <row r="3">
@@ -462,13 +462,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>36620.40118456523</v>
+        <v>32273.281</v>
       </c>
       <c r="C3" t="n">
-        <v>42500</v>
+        <v>32500</v>
       </c>
       <c r="D3" t="n">
-        <v>-5879.598815434772</v>
+        <v>-226.719000000001</v>
       </c>
     </row>
     <row r="4">
@@ -476,13 +476,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>35248.56030425699</v>
+        <v>31058.9055</v>
       </c>
       <c r="C4" t="n">
         <v>22500</v>
       </c>
       <c r="D4" t="n">
-        <v>12748.56030425699</v>
+        <v>8558.905500000001</v>
       </c>
     </row>
     <row r="5">
@@ -490,13 +490,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>34216.17080189522</v>
+        <v>30043.72</v>
       </c>
       <c r="C5" t="n">
         <v>22500</v>
       </c>
       <c r="D5" t="n">
-        <v>11716.17080189522</v>
+        <v>7543.720000000001</v>
       </c>
     </row>
     <row r="6">
@@ -504,13 +504,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>34922.90443273044</v>
+        <v>30457.999</v>
       </c>
       <c r="C6" t="n">
-        <v>22500</v>
+        <v>32500</v>
       </c>
       <c r="D6" t="n">
-        <v>12422.90443273044</v>
+        <v>-2042.001</v>
       </c>
     </row>
     <row r="7">
@@ -518,13 +518,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>35984.87301104541</v>
+        <v>32439.602</v>
       </c>
       <c r="C7" t="n">
-        <v>22500</v>
+        <v>32500</v>
       </c>
       <c r="D7" t="n">
-        <v>13484.87301104541</v>
+        <v>-60.39800000000105</v>
       </c>
     </row>
     <row r="8">
@@ -532,13 +532,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>37061.67659102493</v>
+        <v>33487.616</v>
       </c>
       <c r="C8" t="n">
-        <v>22500</v>
+        <v>32500</v>
       </c>
       <c r="D8" t="n">
-        <v>14561.67659102493</v>
+        <v>987.6160000000018</v>
       </c>
     </row>
     <row r="9">
@@ -546,13 +546,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>41874.97220930031</v>
+        <v>36902.407</v>
       </c>
       <c r="C9" t="n">
-        <v>22500</v>
+        <v>32500</v>
       </c>
       <c r="D9" t="n">
-        <v>19374.97220930031</v>
+        <v>4402.406999999999</v>
       </c>
     </row>
     <row r="10">
@@ -560,13 +560,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>47716.503</v>
+        <v>45523.5715</v>
       </c>
       <c r="C10" t="n">
         <v>42500</v>
       </c>
       <c r="D10" t="n">
-        <v>5216.502999999997</v>
+        <v>3023.571499999998</v>
       </c>
     </row>
     <row r="11">
@@ -574,13 +574,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>47786.911945</v>
+        <v>45390.0645</v>
       </c>
       <c r="C11" t="n">
         <v>42500</v>
       </c>
       <c r="D11" t="n">
-        <v>5286.911945</v>
+        <v>2890.0645</v>
       </c>
     </row>
     <row r="12">
@@ -588,13 +588,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>47367.6765</v>
+        <v>47739.972</v>
       </c>
       <c r="C12" t="n">
-        <v>42500</v>
+        <v>52500</v>
       </c>
       <c r="D12" t="n">
-        <v>4867.676500000001</v>
+        <v>-4760.027999999998</v>
       </c>
     </row>
     <row r="13">
@@ -602,13 +602,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>46397.346</v>
+        <v>48877.793</v>
       </c>
       <c r="C13" t="n">
-        <v>42500</v>
+        <v>52500</v>
       </c>
       <c r="D13" t="n">
-        <v>3897.345999999998</v>
+        <v>-3622.207000000002</v>
       </c>
     </row>
     <row r="14">
@@ -616,13 +616,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>46850.4575</v>
+        <v>49490.527</v>
       </c>
       <c r="C14" t="n">
         <v>52500</v>
       </c>
       <c r="D14" t="n">
-        <v>-5649.542500000003</v>
+        <v>-3009.472999999998</v>
       </c>
     </row>
     <row r="15">
@@ -630,13 +630,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>48334.546</v>
+        <v>46559.931</v>
       </c>
       <c r="C15" t="n">
         <v>75000</v>
       </c>
       <c r="D15" t="n">
-        <v>-26665.454</v>
+        <v>-28440.069</v>
       </c>
     </row>
     <row r="16">
@@ -644,13 +644,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>46171.791</v>
+        <v>49763.3545</v>
       </c>
       <c r="C16" t="n">
         <v>75000</v>
       </c>
       <c r="D16" t="n">
-        <v>-28828.209</v>
+        <v>-25236.6455</v>
       </c>
     </row>
     <row r="17">
@@ -658,13 +658,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>43473.5805</v>
+        <v>28812.386</v>
       </c>
       <c r="C17" t="n">
         <v>75000</v>
       </c>
       <c r="D17" t="n">
-        <v>-31526.4195</v>
+        <v>-46187.614</v>
       </c>
     </row>
     <row r="18">
@@ -672,13 +672,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>41665.5135</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>75000</v>
-      </c>
-      <c r="D18" t="n">
-        <v>-33334.4865</v>
       </c>
     </row>
     <row r="19">
@@ -770,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>75000</v>
+        <v>72500</v>
       </c>
     </row>
   </sheetData>

--- a/wesm_exposure.xlsx
+++ b/wesm_exposure.xlsx
@@ -672,10 +672,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>96.81750000000102</v>
       </c>
       <c r="C18" t="n">
         <v>75000</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-74903.1825</v>
       </c>
     </row>
     <row r="19">

--- a/wesm_exposure.xlsx
+++ b/wesm_exposure.xlsx
@@ -448,13 +448,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>33675.812</v>
+        <v>28055.51662633527</v>
       </c>
       <c r="C2" t="n">
-        <v>66500</v>
+        <v>42500</v>
       </c>
       <c r="D2" t="n">
-        <v>-32824.188</v>
+        <v>-14444.48337366473</v>
       </c>
     </row>
     <row r="3">
@@ -462,13 +462,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>32273.281</v>
+        <v>26905.70154390091</v>
       </c>
       <c r="C3" t="n">
-        <v>32500</v>
+        <v>22500</v>
       </c>
       <c r="D3" t="n">
-        <v>-226.719000000001</v>
+        <v>4405.701543900908</v>
       </c>
     </row>
     <row r="4">
@@ -476,13 +476,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>31058.9055</v>
+        <v>25723.37458066656</v>
       </c>
       <c r="C4" t="n">
         <v>22500</v>
       </c>
       <c r="D4" t="n">
-        <v>8558.905500000001</v>
+        <v>3223.374580666561</v>
       </c>
     </row>
     <row r="5">
@@ -490,13 +490,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>30043.72</v>
+        <v>24845.72510195928</v>
       </c>
       <c r="C5" t="n">
         <v>22500</v>
       </c>
       <c r="D5" t="n">
-        <v>7543.720000000001</v>
+        <v>2345.72510195928</v>
       </c>
     </row>
     <row r="6">
@@ -504,13 +504,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>30457.999</v>
+        <v>24988.90498752365</v>
       </c>
       <c r="C6" t="n">
-        <v>32500</v>
+        <v>22500</v>
       </c>
       <c r="D6" t="n">
-        <v>-2042.001</v>
+        <v>2488.904987523649</v>
       </c>
     </row>
     <row r="7">
@@ -518,13 +518,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>32439.602</v>
+        <v>25835.11014617304</v>
       </c>
       <c r="C7" t="n">
-        <v>32500</v>
+        <v>22500</v>
       </c>
       <c r="D7" t="n">
-        <v>-60.39800000000105</v>
+        <v>3335.11014617304</v>
       </c>
     </row>
     <row r="8">
@@ -532,13 +532,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>33487.616</v>
+        <v>26401.55040670632</v>
       </c>
       <c r="C8" t="n">
-        <v>32500</v>
+        <v>22500</v>
       </c>
       <c r="D8" t="n">
-        <v>987.6160000000018</v>
+        <v>3901.550406706319</v>
       </c>
     </row>
     <row r="9">
@@ -546,13 +546,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>36902.407</v>
+        <v>28889.35044967622</v>
       </c>
       <c r="C9" t="n">
-        <v>32500</v>
+        <v>22500</v>
       </c>
       <c r="D9" t="n">
-        <v>4402.406999999999</v>
+        <v>6389.350449676222</v>
       </c>
     </row>
     <row r="10">
@@ -560,13 +560,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>45523.5715</v>
+        <v>33516.87245290272</v>
       </c>
       <c r="C10" t="n">
         <v>42500</v>
       </c>
       <c r="D10" t="n">
-        <v>3023.571499999998</v>
+        <v>-8983.127547097283</v>
       </c>
     </row>
     <row r="11">
@@ -574,13 +574,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>45390.0645</v>
+        <v>29249.825</v>
       </c>
       <c r="C11" t="n">
         <v>42500</v>
       </c>
       <c r="D11" t="n">
-        <v>2890.0645</v>
+        <v>-13250.175</v>
       </c>
     </row>
     <row r="12">
@@ -588,13 +588,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>47739.972</v>
+        <v>29168.172</v>
       </c>
       <c r="C12" t="n">
         <v>52500</v>
       </c>
       <c r="D12" t="n">
-        <v>-4760.027999999998</v>
+        <v>-23331.828</v>
       </c>
     </row>
     <row r="13">
@@ -602,13 +602,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>48877.793</v>
+        <v>30065.795</v>
       </c>
       <c r="C13" t="n">
         <v>52500</v>
       </c>
       <c r="D13" t="n">
-        <v>-3622.207000000002</v>
+        <v>-22434.205</v>
       </c>
     </row>
     <row r="14">
@@ -616,13 +616,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>49490.527</v>
+        <v>30878.246</v>
       </c>
       <c r="C14" t="n">
         <v>52500</v>
       </c>
       <c r="D14" t="n">
-        <v>-3009.472999999998</v>
+        <v>-21621.754</v>
       </c>
     </row>
     <row r="15">
@@ -630,13 +630,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>46559.931</v>
+        <v>32676.0655</v>
       </c>
       <c r="C15" t="n">
         <v>75000</v>
       </c>
       <c r="D15" t="n">
-        <v>-28440.069</v>
+        <v>-42323.9345</v>
       </c>
     </row>
     <row r="16">
@@ -745,10 +745,10 @@
         <v>38285.2065</v>
       </c>
       <c r="C23" t="n">
-        <v>75000</v>
+        <v>74000</v>
       </c>
       <c r="D23" t="n">
-        <v>-36714.7935</v>
+        <v>-35714.7935</v>
       </c>
     </row>
     <row r="24">
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>75000</v>
+        <v>71000</v>
       </c>
     </row>
     <row r="25">
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>72500</v>
+        <v>67500</v>
       </c>
     </row>
   </sheetData>

--- a/wesm_exposure.xlsx
+++ b/wesm_exposure.xlsx
@@ -448,13 +448,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>28055.51662633527</v>
+        <v>28173.812</v>
       </c>
       <c r="C2" t="n">
-        <v>42500</v>
+        <v>75000</v>
       </c>
       <c r="D2" t="n">
-        <v>-14444.48337366473</v>
+        <v>-46826.18799999999</v>
       </c>
     </row>
     <row r="3">
@@ -462,13 +462,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>26905.70154390091</v>
+        <v>26623.281</v>
       </c>
       <c r="C3" t="n">
         <v>22500</v>
       </c>
       <c r="D3" t="n">
-        <v>4405.701543900908</v>
+        <v>4123.280999999999</v>
       </c>
     </row>
     <row r="4">
@@ -476,13 +476,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>25723.37458066656</v>
+        <v>25579.9055</v>
       </c>
       <c r="C4" t="n">
         <v>22500</v>
       </c>
       <c r="D4" t="n">
-        <v>3223.374580666561</v>
+        <v>3079.905500000001</v>
       </c>
     </row>
     <row r="5">
@@ -490,13 +490,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24845.72510195928</v>
+        <v>24846.72</v>
       </c>
       <c r="C5" t="n">
         <v>22500</v>
       </c>
       <c r="D5" t="n">
-        <v>2345.72510195928</v>
+        <v>2346.720000000001</v>
       </c>
     </row>
     <row r="6">
@@ -504,13 +504,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24988.90498752365</v>
+        <v>26542.999</v>
       </c>
       <c r="C6" t="n">
         <v>22500</v>
       </c>
       <c r="D6" t="n">
-        <v>2488.904987523649</v>
+        <v>4042.999</v>
       </c>
     </row>
     <row r="7">
@@ -518,13 +518,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>25835.11014617304</v>
+        <v>27110.602</v>
       </c>
       <c r="C7" t="n">
-        <v>22500</v>
+        <v>42500</v>
       </c>
       <c r="D7" t="n">
-        <v>3335.11014617304</v>
+        <v>-15389.398</v>
       </c>
     </row>
     <row r="8">
@@ -532,13 +532,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>26401.55040670632</v>
+        <v>27082.616</v>
       </c>
       <c r="C8" t="n">
-        <v>22500</v>
+        <v>42500</v>
       </c>
       <c r="D8" t="n">
-        <v>3901.550406706319</v>
+        <v>-15417.384</v>
       </c>
     </row>
     <row r="9">
@@ -546,13 +546,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>28889.35044967622</v>
+        <v>28671.407</v>
       </c>
       <c r="C9" t="n">
-        <v>22500</v>
+        <v>42500</v>
       </c>
       <c r="D9" t="n">
-        <v>6389.350449676222</v>
+        <v>-13828.593</v>
       </c>
     </row>
     <row r="10">
@@ -560,13 +560,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>33516.87245290272</v>
+        <v>17524.5715</v>
       </c>
       <c r="C10" t="n">
         <v>42500</v>
       </c>
       <c r="D10" t="n">
-        <v>-8983.127547097283</v>
+        <v>-24975.4285</v>
       </c>
     </row>
     <row r="11">
@@ -591,10 +591,10 @@
         <v>29168.172</v>
       </c>
       <c r="C12" t="n">
-        <v>52500</v>
+        <v>42500</v>
       </c>
       <c r="D12" t="n">
-        <v>-23331.828</v>
+        <v>-13331.828</v>
       </c>
     </row>
     <row r="13">
@@ -605,10 +605,10 @@
         <v>30065.795</v>
       </c>
       <c r="C13" t="n">
-        <v>52500</v>
+        <v>42500</v>
       </c>
       <c r="D13" t="n">
-        <v>-22434.205</v>
+        <v>-12434.205</v>
       </c>
     </row>
     <row r="14">
@@ -619,10 +619,10 @@
         <v>30878.246</v>
       </c>
       <c r="C14" t="n">
-        <v>52500</v>
+        <v>42500</v>
       </c>
       <c r="D14" t="n">
-        <v>-21621.754</v>
+        <v>-11621.754</v>
       </c>
     </row>
     <row r="15">
@@ -745,10 +745,10 @@
         <v>38285.2065</v>
       </c>
       <c r="C23" t="n">
-        <v>74000</v>
+        <v>75000</v>
       </c>
       <c r="D23" t="n">
-        <v>-35714.7935</v>
+        <v>-36714.7935</v>
       </c>
     </row>
     <row r="24">
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>71000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="25">
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>67500</v>
+        <v>65000</v>
       </c>
     </row>
   </sheetData>

--- a/wesm_exposure.xlsx
+++ b/wesm_exposure.xlsx
@@ -560,13 +560,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17524.5715</v>
+        <v>33173.5715</v>
       </c>
       <c r="C10" t="n">
         <v>42500</v>
       </c>
       <c r="D10" t="n">
-        <v>-24975.4285</v>
+        <v>-9326.428500000002</v>
       </c>
     </row>
     <row r="11">

--- a/wesm_exposure.xlsx
+++ b/wesm_exposure.xlsx
@@ -574,13 +574,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>29249.825</v>
+        <v>30257.0645</v>
       </c>
       <c r="C11" t="n">
         <v>42500</v>
       </c>
       <c r="D11" t="n">
-        <v>-13250.175</v>
+        <v>-12242.9355</v>
       </c>
     </row>
     <row r="12">
@@ -588,13 +588,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>29168.172</v>
+        <v>31759.972</v>
       </c>
       <c r="C12" t="n">
         <v>42500</v>
       </c>
       <c r="D12" t="n">
-        <v>-13331.828</v>
+        <v>-10740.028</v>
       </c>
     </row>
     <row r="13">
@@ -602,13 +602,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>30065.795</v>
+        <v>30912.793</v>
       </c>
       <c r="C13" t="n">
         <v>42500</v>
       </c>
       <c r="D13" t="n">
-        <v>-12434.205</v>
+        <v>-11587.207</v>
       </c>
     </row>
     <row r="14">
@@ -616,13 +616,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>30878.246</v>
+        <v>30557.527</v>
       </c>
       <c r="C14" t="n">
         <v>42500</v>
       </c>
       <c r="D14" t="n">
-        <v>-11621.754</v>
+        <v>-11942.473</v>
       </c>
     </row>
     <row r="15">
@@ -630,13 +630,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>32676.0655</v>
+        <v>15011.931</v>
       </c>
       <c r="C15" t="n">
         <v>75000</v>
       </c>
       <c r="D15" t="n">
-        <v>-42323.9345</v>
+        <v>-59988.069</v>
       </c>
     </row>
     <row r="16">

--- a/wesm_exposure.xlsx
+++ b/wesm_exposure.xlsx
@@ -448,13 +448,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>28173.812</v>
+        <v>30928.199</v>
       </c>
       <c r="C2" t="n">
-        <v>75000</v>
+        <v>66500</v>
       </c>
       <c r="D2" t="n">
-        <v>-46826.18799999999</v>
+        <v>-35571.801</v>
       </c>
     </row>
     <row r="3">
@@ -462,13 +462,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>26623.281</v>
+        <v>29619.8635</v>
       </c>
       <c r="C3" t="n">
-        <v>22500</v>
+        <v>63500</v>
       </c>
       <c r="D3" t="n">
-        <v>4123.280999999999</v>
+        <v>-33880.1365</v>
       </c>
     </row>
     <row r="4">
@@ -476,13 +476,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>25579.9055</v>
+        <v>27793.1675</v>
       </c>
       <c r="C4" t="n">
-        <v>22500</v>
+        <v>42500</v>
       </c>
       <c r="D4" t="n">
-        <v>3079.905500000001</v>
+        <v>-14706.8325</v>
       </c>
     </row>
     <row r="5">
@@ -490,13 +490,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24846.72</v>
+        <v>26218.02</v>
       </c>
       <c r="C5" t="n">
-        <v>22500</v>
+        <v>42500</v>
       </c>
       <c r="D5" t="n">
-        <v>2346.720000000001</v>
+        <v>-16281.98</v>
       </c>
     </row>
     <row r="6">
@@ -504,13 +504,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>26542.999</v>
+        <v>25305.1185</v>
       </c>
       <c r="C6" t="n">
         <v>22500</v>
       </c>
       <c r="D6" t="n">
-        <v>4042.999</v>
+        <v>2805.1185</v>
       </c>
     </row>
     <row r="7">
@@ -518,13 +518,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>27110.602</v>
+        <v>25440.605</v>
       </c>
       <c r="C7" t="n">
-        <v>42500</v>
+        <v>22500</v>
       </c>
       <c r="D7" t="n">
-        <v>-15389.398</v>
+        <v>2940.605</v>
       </c>
     </row>
     <row r="8">
@@ -532,13 +532,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>27082.616</v>
+        <v>25564.52277227723</v>
       </c>
       <c r="C8" t="n">
-        <v>42500</v>
+        <v>22500</v>
       </c>
       <c r="D8" t="n">
-        <v>-15417.384</v>
+        <v>3064.522772277229</v>
       </c>
     </row>
     <row r="9">
@@ -546,13 +546,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>28671.407</v>
+        <v>26075.5535</v>
       </c>
       <c r="C9" t="n">
-        <v>42500</v>
+        <v>22500</v>
       </c>
       <c r="D9" t="n">
-        <v>-13828.593</v>
+        <v>3575.553500000002</v>
       </c>
     </row>
     <row r="10">
@@ -560,13 +560,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>33173.5715</v>
+        <v>28306.4105</v>
       </c>
       <c r="C10" t="n">
-        <v>42500</v>
+        <v>22500</v>
       </c>
       <c r="D10" t="n">
-        <v>-9326.428500000002</v>
+        <v>5806.410500000002</v>
       </c>
     </row>
     <row r="11">
@@ -574,13 +574,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>30257.0645</v>
+        <v>26016.9995</v>
       </c>
       <c r="C11" t="n">
-        <v>42500</v>
+        <v>32500</v>
       </c>
       <c r="D11" t="n">
-        <v>-12242.9355</v>
+        <v>-6483.000499999998</v>
       </c>
     </row>
     <row r="12">
@@ -588,13 +588,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>31759.972</v>
+        <v>24997.2015</v>
       </c>
       <c r="C12" t="n">
-        <v>42500</v>
+        <v>32500</v>
       </c>
       <c r="D12" t="n">
-        <v>-10740.028</v>
+        <v>-7502.798500000001</v>
       </c>
     </row>
     <row r="13">
@@ -602,13 +602,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>30912.793</v>
+        <v>24407.995</v>
       </c>
       <c r="C13" t="n">
-        <v>42500</v>
+        <v>32500</v>
       </c>
       <c r="D13" t="n">
-        <v>-11587.207</v>
+        <v>-8092.005000000001</v>
       </c>
     </row>
     <row r="14">
@@ -616,13 +616,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>30557.527</v>
+        <v>23983.6615</v>
       </c>
       <c r="C14" t="n">
-        <v>42500</v>
+        <v>32500</v>
       </c>
       <c r="D14" t="n">
-        <v>-11942.473</v>
+        <v>-8516.338500000002</v>
       </c>
     </row>
     <row r="15">
@@ -630,13 +630,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15011.931</v>
+        <v>25520.364</v>
       </c>
       <c r="C15" t="n">
-        <v>75000</v>
+        <v>52500</v>
       </c>
       <c r="D15" t="n">
-        <v>-59988.069</v>
+        <v>-26979.636</v>
       </c>
     </row>
     <row r="16">
@@ -644,13 +644,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>49763.3545</v>
+        <v>26075.793</v>
       </c>
       <c r="C16" t="n">
         <v>75000</v>
       </c>
       <c r="D16" t="n">
-        <v>-25236.6455</v>
+        <v>-48924.20699999999</v>
       </c>
     </row>
     <row r="17">
@@ -658,13 +658,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>28812.386</v>
+        <v>25427.0925</v>
       </c>
       <c r="C17" t="n">
         <v>75000</v>
       </c>
       <c r="D17" t="n">
-        <v>-46187.614</v>
+        <v>-49572.9075</v>
       </c>
     </row>
     <row r="18">
@@ -672,13 +672,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>96.81750000000102</v>
+        <v>23201.19782374277</v>
       </c>
       <c r="C18" t="n">
         <v>75000</v>
       </c>
       <c r="D18" t="n">
-        <v>-74903.1825</v>
+        <v>-51798.80217625723</v>
       </c>
     </row>
     <row r="19">
@@ -686,13 +686,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>39727.5055</v>
+        <v>20688.49828448191</v>
       </c>
       <c r="C19" t="n">
         <v>75000</v>
       </c>
       <c r="D19" t="n">
-        <v>-35272.4945</v>
+        <v>-54311.50171551809</v>
       </c>
     </row>
     <row r="20">
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>75000</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="25">
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>65000</v>
+        <v>52500</v>
       </c>
     </row>
   </sheetData>

--- a/wesm_exposure.xlsx
+++ b/wesm_exposure.xlsx
@@ -700,13 +700,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>39165.7675</v>
+        <v>527.5012253700606</v>
       </c>
       <c r="C20" t="n">
         <v>75000</v>
       </c>
       <c r="D20" t="n">
-        <v>-35834.2325</v>
+        <v>-74472.49877462994</v>
       </c>
     </row>
     <row r="21">

--- a/wesm_exposure.xlsx
+++ b/wesm_exposure.xlsx
@@ -686,13 +686,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>20688.49828448191</v>
+        <v>23765.49828448191</v>
       </c>
       <c r="C19" t="n">
         <v>75000</v>
       </c>
       <c r="D19" t="n">
-        <v>-54311.50171551809</v>
+        <v>-51234.50171551809</v>
       </c>
     </row>
     <row r="20">
@@ -700,13 +700,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>527.5012253700606</v>
+        <v>25886.50122537006</v>
       </c>
       <c r="C20" t="n">
         <v>75000</v>
       </c>
       <c r="D20" t="n">
-        <v>-74472.49877462994</v>
+        <v>-49113.49877462994</v>
       </c>
     </row>
     <row r="21">

--- a/wesm_exposure.xlsx
+++ b/wesm_exposure.xlsx
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>37817.495</v>
+        <v>1520.09097147339</v>
       </c>
       <c r="C21" t="n">
         <v>75000</v>
       </c>
       <c r="D21" t="n">
-        <v>-37182.505</v>
+        <v>-73479.90902852661</v>
       </c>
     </row>
     <row r="22">
@@ -728,13 +728,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>38010.227</v>
+        <v>68523.995</v>
       </c>
       <c r="C22" t="n">
         <v>75000</v>
       </c>
       <c r="D22" t="n">
-        <v>-36989.773</v>
+        <v>-6476.005000000005</v>
       </c>
     </row>
     <row r="23">
@@ -742,13 +742,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>38285.2065</v>
+        <v>66852.495</v>
       </c>
       <c r="C23" t="n">
         <v>75000</v>
       </c>
       <c r="D23" t="n">
-        <v>-36714.7935</v>
+        <v>-8147.505000000005</v>
       </c>
     </row>
     <row r="24">
@@ -756,10 +756,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>33754.2325</v>
       </c>
       <c r="C24" t="n">
         <v>72000</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-38245.7675</v>
       </c>
     </row>
     <row r="25">

--- a/wesm_exposure.xlsx
+++ b/wesm_exposure.xlsx
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>1520.09097147339</v>
+        <v>21835.09097147339</v>
       </c>
       <c r="C21" t="n">
         <v>75000</v>
       </c>
       <c r="D21" t="n">
-        <v>-73479.90902852661</v>
+        <v>-53164.90902852661</v>
       </c>
     </row>
     <row r="22">
@@ -728,13 +728,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>68523.995</v>
+        <v>3245.15567101265</v>
       </c>
       <c r="C22" t="n">
         <v>75000</v>
       </c>
       <c r="D22" t="n">
-        <v>-6476.005000000005</v>
+        <v>-71754.84432898735</v>
       </c>
     </row>
     <row r="23">

--- a/wesm_exposure.xlsx
+++ b/wesm_exposure.xlsx
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>21835.09097147339</v>
+        <v>24833.09097147339</v>
       </c>
       <c r="C21" t="n">
         <v>75000</v>
       </c>
       <c r="D21" t="n">
-        <v>-53164.90902852661</v>
+        <v>-50166.90902852661</v>
       </c>
     </row>
     <row r="22">
@@ -728,13 +728,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>3245.15567101265</v>
+        <v>26245.15567101265</v>
       </c>
       <c r="C22" t="n">
         <v>75000</v>
       </c>
       <c r="D22" t="n">
-        <v>-71754.84432898735</v>
+        <v>-48754.84432898735</v>
       </c>
     </row>
     <row r="23">
@@ -742,13 +742,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>66852.495</v>
+        <v>29155.857</v>
       </c>
       <c r="C23" t="n">
         <v>75000</v>
       </c>
       <c r="D23" t="n">
-        <v>-8147.505000000005</v>
+        <v>-45844.143</v>
       </c>
     </row>
     <row r="24">
@@ -756,13 +756,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>33754.2325</v>
+        <v>31722.2145</v>
       </c>
       <c r="C24" t="n">
         <v>72000</v>
       </c>
       <c r="D24" t="n">
-        <v>-38245.7675</v>
+        <v>-40277.7855</v>
       </c>
     </row>
     <row r="25">

--- a/wesm_exposure.xlsx
+++ b/wesm_exposure.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,12 +432,12 @@
           <t>ACTUAL_ENERGY</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>TOTAL_BCQ_NOMINATION</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>WESM_EXPOSURE</t>
         </is>
@@ -448,13 +448,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>30928.199</v>
+        <v>73890.9614234195</v>
       </c>
       <c r="C2" t="n">
-        <v>66500</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-35571.801</v>
+        <v>57000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>16890.9614234195</v>
       </c>
     </row>
     <row r="3">
@@ -462,13 +462,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>29619.8635</v>
+        <v>69756.189908121</v>
       </c>
       <c r="C3" t="n">
-        <v>63500</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-33880.1365</v>
+        <v>45000</v>
+      </c>
+      <c r="E3" t="n">
+        <v>24756.189908121</v>
       </c>
     </row>
     <row r="4">
@@ -476,13 +476,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>27793.1675</v>
+        <v>66165.3265082625</v>
       </c>
       <c r="C4" t="n">
-        <v>42500</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-14706.8325</v>
+        <v>45000</v>
+      </c>
+      <c r="E4" t="n">
+        <v>21165.3265082625</v>
       </c>
     </row>
     <row r="5">
@@ -490,13 +490,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>26218.02</v>
+        <v>64261.268600774</v>
       </c>
       <c r="C5" t="n">
-        <v>42500</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-16281.98</v>
+        <v>45000</v>
+      </c>
+      <c r="E5" t="n">
+        <v>19261.268600774</v>
       </c>
     </row>
     <row r="6">
@@ -504,13 +504,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>25305.1185</v>
+        <v>65433.678829078</v>
       </c>
       <c r="C6" t="n">
-        <v>22500</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2805.1185</v>
+        <v>45000</v>
+      </c>
+      <c r="E6" t="n">
+        <v>20433.678829078</v>
       </c>
     </row>
     <row r="7">
@@ -518,13 +518,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>25440.605</v>
+        <v>67851.240104599</v>
       </c>
       <c r="C7" t="n">
-        <v>22500</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2940.605</v>
+        <v>45000</v>
+      </c>
+      <c r="E7" t="n">
+        <v>22851.240104599</v>
       </c>
     </row>
     <row r="8">
@@ -532,13 +532,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>25564.52277227723</v>
+        <v>71695.930086661</v>
       </c>
       <c r="C8" t="n">
         <v>22500</v>
       </c>
-      <c r="D8" t="n">
-        <v>3064.522772277229</v>
+      <c r="E8" t="n">
+        <v>49195.930086661</v>
       </c>
     </row>
     <row r="9">
@@ -546,13 +546,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>26075.5535</v>
+        <v>73754.3314610815</v>
       </c>
       <c r="C9" t="n">
-        <v>22500</v>
-      </c>
-      <c r="D9" t="n">
-        <v>3575.553500000002</v>
+        <v>45000</v>
+      </c>
+      <c r="E9" t="n">
+        <v>28754.3314610815</v>
       </c>
     </row>
     <row r="10">
@@ -560,13 +560,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>28306.4105</v>
+        <v>94573.6465</v>
       </c>
       <c r="C10" t="n">
-        <v>22500</v>
-      </c>
-      <c r="D10" t="n">
-        <v>5806.410500000002</v>
+        <v>45000</v>
+      </c>
+      <c r="E10" t="n">
+        <v>49573.6465</v>
       </c>
     </row>
     <row r="11">
@@ -574,13 +574,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>26016.9995</v>
+        <v>100074.4615</v>
       </c>
       <c r="C11" t="n">
-        <v>32500</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-6483.000499999998</v>
+        <v>65000</v>
+      </c>
+      <c r="E11" t="n">
+        <v>35074.4615</v>
       </c>
     </row>
     <row r="12">
@@ -588,13 +588,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24997.2015</v>
+        <v>80533.60500000001</v>
       </c>
       <c r="C12" t="n">
-        <v>32500</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-7502.798500000001</v>
+        <v>65000</v>
+      </c>
+      <c r="E12" t="n">
+        <v>15533.60500000001</v>
       </c>
     </row>
     <row r="13">
@@ -602,13 +602,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>24407.995</v>
+        <v>103987.3835</v>
       </c>
       <c r="C13" t="n">
-        <v>32500</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-8092.005000000001</v>
+        <v>65000</v>
+      </c>
+      <c r="E13" t="n">
+        <v>38987.3835</v>
       </c>
     </row>
     <row r="14">
@@ -616,13 +616,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>23983.6615</v>
+        <v>76684.94</v>
       </c>
       <c r="C14" t="n">
-        <v>32500</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-8516.338500000002</v>
+        <v>65000</v>
+      </c>
+      <c r="E14" t="n">
+        <v>11684.94</v>
       </c>
     </row>
     <row r="15">
@@ -630,13 +630,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25520.364</v>
+        <v>103417.3795</v>
       </c>
       <c r="C15" t="n">
-        <v>52500</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-26979.636</v>
+        <v>65000</v>
+      </c>
+      <c r="E15" t="n">
+        <v>38417.3795</v>
       </c>
     </row>
     <row r="16">
@@ -644,13 +644,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>26075.793</v>
+        <v>110937.064</v>
       </c>
       <c r="C16" t="n">
-        <v>75000</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-48924.20699999999</v>
+        <v>65000</v>
+      </c>
+      <c r="E16" t="n">
+        <v>45937.064</v>
       </c>
     </row>
     <row r="17">
@@ -658,13 +658,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25427.0925</v>
+        <v>87260.16500000001</v>
       </c>
       <c r="C17" t="n">
-        <v>75000</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-49572.9075</v>
+        <v>65000</v>
+      </c>
+      <c r="E17" t="n">
+        <v>22260.16500000001</v>
       </c>
     </row>
     <row r="18">
@@ -672,13 +672,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>23201.19782374277</v>
+        <v>81550.3625</v>
       </c>
       <c r="C18" t="n">
-        <v>75000</v>
-      </c>
-      <c r="D18" t="n">
-        <v>-51798.80217625723</v>
+        <v>65000</v>
+      </c>
+      <c r="E18" t="n">
+        <v>16550.3625</v>
       </c>
     </row>
     <row r="19">
@@ -686,13 +686,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>23765.49828448191</v>
+        <v>75216.18400000001</v>
       </c>
       <c r="C19" t="n">
-        <v>75000</v>
-      </c>
-      <c r="D19" t="n">
-        <v>-51234.50171551809</v>
+        <v>65000</v>
+      </c>
+      <c r="E19" t="n">
+        <v>10216.18400000001</v>
       </c>
     </row>
     <row r="20">
@@ -700,13 +700,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>25886.50122537006</v>
+        <v>71081.504</v>
       </c>
       <c r="C20" t="n">
-        <v>75000</v>
-      </c>
-      <c r="D20" t="n">
-        <v>-49113.49877462994</v>
+        <v>65000</v>
+      </c>
+      <c r="E20" t="n">
+        <v>6081.504000000001</v>
       </c>
     </row>
     <row r="21">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>24833.09097147339</v>
+        <v>69127.929</v>
       </c>
       <c r="C21" t="n">
-        <v>75000</v>
-      </c>
-      <c r="D21" t="n">
-        <v>-50166.90902852661</v>
+        <v>65000</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4127.929000000004</v>
       </c>
     </row>
     <row r="22">
@@ -728,13 +728,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>26245.15567101265</v>
+        <v>68523.995</v>
       </c>
       <c r="C22" t="n">
-        <v>75000</v>
-      </c>
-      <c r="D22" t="n">
-        <v>-48754.84432898735</v>
+        <v>65000</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3523.994999999995</v>
       </c>
     </row>
     <row r="23">
@@ -742,13 +742,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>29155.857</v>
+        <v>66852.495</v>
       </c>
       <c r="C23" t="n">
-        <v>75000</v>
-      </c>
-      <c r="D23" t="n">
-        <v>-45844.143</v>
+        <v>65000</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1852.494999999995</v>
       </c>
     </row>
     <row r="24">
@@ -756,13 +756,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>31722.2145</v>
+        <v>33754.2325</v>
       </c>
       <c r="C24" t="n">
-        <v>72000</v>
-      </c>
-      <c r="D24" t="n">
-        <v>-40277.7855</v>
+        <v>65000</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-31245.7675</v>
       </c>
     </row>
     <row r="25">
@@ -773,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>52500</v>
+        <v>65000</v>
       </c>
     </row>
   </sheetData>

--- a/wesm_exposure.xlsx
+++ b/wesm_exposure.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,12 +432,12 @@
           <t>ACTUAL_ENERGY</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>TOTAL_BCQ_NOMINATION</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>WESM_EXPOSURE</t>
         </is>
@@ -448,13 +448,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>73890.9614234195</v>
+        <v>29122.8805</v>
       </c>
       <c r="C2" t="n">
-        <v>57000</v>
-      </c>
-      <c r="E2" t="n">
-        <v>16890.9614234195</v>
+        <v>22500</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6622.880499999999</v>
       </c>
     </row>
     <row r="3">
@@ -462,13 +462,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>69756.189908121</v>
+        <v>27622.841</v>
       </c>
       <c r="C3" t="n">
-        <v>45000</v>
-      </c>
-      <c r="E3" t="n">
-        <v>24756.189908121</v>
+        <v>22500</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5122.841</v>
       </c>
     </row>
     <row r="4">
@@ -476,13 +476,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>66165.3265082625</v>
+        <v>26768.443</v>
       </c>
       <c r="C4" t="n">
-        <v>45000</v>
-      </c>
-      <c r="E4" t="n">
-        <v>21165.3265082625</v>
+        <v>22500</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4268.442999999999</v>
       </c>
     </row>
     <row r="5">
@@ -490,13 +490,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>64261.268600774</v>
+        <v>25618.6665</v>
       </c>
       <c r="C5" t="n">
-        <v>45000</v>
-      </c>
-      <c r="E5" t="n">
-        <v>19261.268600774</v>
+        <v>22500</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3118.666499999999</v>
       </c>
     </row>
     <row r="6">
@@ -504,13 +504,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>65433.678829078</v>
+        <v>21438.403</v>
       </c>
       <c r="C6" t="n">
-        <v>45000</v>
-      </c>
-      <c r="E6" t="n">
-        <v>20433.678829078</v>
+        <v>22500</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-1061.597000000002</v>
       </c>
     </row>
     <row r="7">
@@ -518,13 +518,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>67851.240104599</v>
+        <v>24782.776</v>
       </c>
       <c r="C7" t="n">
-        <v>45000</v>
-      </c>
-      <c r="E7" t="n">
-        <v>22851.240104599</v>
+        <v>22500</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2282.776000000002</v>
       </c>
     </row>
     <row r="8">
@@ -532,13 +532,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>71695.930086661</v>
+        <v>23402.9005</v>
       </c>
       <c r="C8" t="n">
         <v>22500</v>
       </c>
-      <c r="E8" t="n">
-        <v>49195.930086661</v>
+      <c r="D8" t="n">
+        <v>902.9004999999997</v>
       </c>
     </row>
     <row r="9">
@@ -546,13 +546,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>73754.3314610815</v>
+        <v>23572.2015</v>
       </c>
       <c r="C9" t="n">
-        <v>45000</v>
-      </c>
-      <c r="E9" t="n">
-        <v>28754.3314610815</v>
+        <v>22500</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1072.201499999999</v>
       </c>
     </row>
     <row r="10">
@@ -560,13 +560,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>94573.6465</v>
+        <v>24529.095</v>
       </c>
       <c r="C10" t="n">
-        <v>45000</v>
-      </c>
-      <c r="E10" t="n">
-        <v>49573.6465</v>
+        <v>22500</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2029.095000000001</v>
       </c>
     </row>
     <row r="11">
@@ -574,13 +574,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>100074.4615</v>
+        <v>19451.102</v>
       </c>
       <c r="C11" t="n">
-        <v>65000</v>
-      </c>
-      <c r="E11" t="n">
-        <v>35074.4615</v>
+        <v>22500</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-3048.898000000001</v>
       </c>
     </row>
     <row r="12">
@@ -588,13 +588,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>80533.60500000001</v>
+        <v>18061.421</v>
       </c>
       <c r="C12" t="n">
-        <v>65000</v>
-      </c>
-      <c r="E12" t="n">
-        <v>15533.60500000001</v>
+        <v>22500</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-4438.579000000002</v>
       </c>
     </row>
     <row r="13">
@@ -602,13 +602,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>103987.3835</v>
+        <v>18201.4465</v>
       </c>
       <c r="C13" t="n">
-        <v>65000</v>
-      </c>
-      <c r="E13" t="n">
-        <v>38987.3835</v>
+        <v>22500</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-4298.553500000002</v>
       </c>
     </row>
     <row r="14">
@@ -616,13 +616,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>76684.94</v>
+        <v>19619.5785</v>
       </c>
       <c r="C14" t="n">
-        <v>65000</v>
-      </c>
-      <c r="E14" t="n">
-        <v>11684.94</v>
+        <v>22500</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-2880.4215</v>
       </c>
     </row>
     <row r="15">
@@ -630,13 +630,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>103417.3795</v>
+        <v>20554.4725</v>
       </c>
       <c r="C15" t="n">
-        <v>65000</v>
-      </c>
-      <c r="E15" t="n">
-        <v>38417.3795</v>
+        <v>22500</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-1945.5275</v>
       </c>
     </row>
     <row r="16">
@@ -644,13 +644,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>110937.064</v>
+        <v>21841.412</v>
       </c>
       <c r="C16" t="n">
-        <v>65000</v>
-      </c>
-      <c r="E16" t="n">
-        <v>45937.064</v>
+        <v>22500</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-658.5879999999997</v>
       </c>
     </row>
     <row r="17">
@@ -658,13 +658,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>87260.16500000001</v>
+        <v>22296.222</v>
       </c>
       <c r="C17" t="n">
-        <v>65000</v>
-      </c>
-      <c r="E17" t="n">
-        <v>22260.16500000001</v>
+        <v>22500</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-203.7779999999984</v>
       </c>
     </row>
     <row r="18">
@@ -672,13 +672,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>81550.3625</v>
+        <v>21879.0265</v>
       </c>
       <c r="C18" t="n">
-        <v>65000</v>
-      </c>
-      <c r="E18" t="n">
-        <v>16550.3625</v>
+        <v>52500</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-30620.9735</v>
       </c>
     </row>
     <row r="19">
@@ -686,13 +686,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>75216.18400000001</v>
+        <v>24784.9395</v>
       </c>
       <c r="C19" t="n">
-        <v>65000</v>
-      </c>
-      <c r="E19" t="n">
-        <v>10216.18400000001</v>
+        <v>75000</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-50215.0605</v>
       </c>
     </row>
     <row r="20">
@@ -700,13 +700,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>71081.504</v>
+        <v>27200.6845</v>
       </c>
       <c r="C20" t="n">
-        <v>65000</v>
-      </c>
-      <c r="E20" t="n">
-        <v>6081.504000000001</v>
+        <v>75000</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-47799.3155</v>
       </c>
     </row>
     <row r="21">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>69127.929</v>
+        <v>26829.0295</v>
       </c>
       <c r="C21" t="n">
-        <v>65000</v>
-      </c>
-      <c r="E21" t="n">
-        <v>4127.929000000004</v>
+        <v>75000</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-48170.9705</v>
       </c>
     </row>
     <row r="22">
@@ -728,13 +728,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>68523.995</v>
+        <v>29178.267</v>
       </c>
       <c r="C22" t="n">
-        <v>65000</v>
-      </c>
-      <c r="E22" t="n">
-        <v>3523.994999999995</v>
+        <v>75000</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-45821.733</v>
       </c>
     </row>
     <row r="23">
@@ -742,13 +742,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>66852.495</v>
+        <v>31911.4905</v>
       </c>
       <c r="C23" t="n">
-        <v>65000</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1852.494999999995</v>
+        <v>52500</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-20588.5095</v>
       </c>
     </row>
     <row r="24">
@@ -756,13 +756,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>33754.2325</v>
+        <v>31741.664</v>
       </c>
       <c r="C24" t="n">
-        <v>65000</v>
-      </c>
-      <c r="E24" t="n">
-        <v>-31245.7675</v>
+        <v>22500</v>
+      </c>
+      <c r="D24" t="n">
+        <v>9241.664000000001</v>
       </c>
     </row>
     <row r="25">
@@ -773,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>65000</v>
+        <v>22500</v>
       </c>
     </row>
   </sheetData>

--- a/wesm_exposure.xlsx
+++ b/wesm_exposure.xlsx
@@ -448,13 +448,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>29122.8805</v>
+        <v>31211.75948073177</v>
       </c>
       <c r="C2" t="n">
         <v>22500</v>
       </c>
       <c r="D2" t="n">
-        <v>6622.880499999999</v>
+        <v>8711.759480731769</v>
       </c>
     </row>
     <row r="3">
@@ -462,13 +462,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>27622.841</v>
+        <v>31702.25591512984</v>
       </c>
       <c r="C3" t="n">
         <v>22500</v>
       </c>
       <c r="D3" t="n">
-        <v>5122.841</v>
+        <v>9202.255915129841</v>
       </c>
     </row>
     <row r="4">
@@ -476,13 +476,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>26768.443</v>
+        <v>28159.03548588791</v>
       </c>
       <c r="C4" t="n">
         <v>22500</v>
       </c>
       <c r="D4" t="n">
-        <v>4268.442999999999</v>
+        <v>5659.035485887911</v>
       </c>
     </row>
     <row r="5">
@@ -490,13 +490,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>25618.6665</v>
+        <v>26657.05367631955</v>
       </c>
       <c r="C5" t="n">
         <v>22500</v>
       </c>
       <c r="D5" t="n">
-        <v>3118.666499999999</v>
+        <v>4157.053676319549</v>
       </c>
     </row>
     <row r="6">
@@ -504,13 +504,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>21438.403</v>
+        <v>27338.67628669798</v>
       </c>
       <c r="C6" t="n">
         <v>22500</v>
       </c>
       <c r="D6" t="n">
-        <v>-1061.597000000002</v>
+        <v>4838.676286697981</v>
       </c>
     </row>
     <row r="7">
@@ -518,13 +518,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>24782.776</v>
+        <v>33968.79982637541</v>
       </c>
       <c r="C7" t="n">
-        <v>22500</v>
+        <v>32500</v>
       </c>
       <c r="D7" t="n">
-        <v>2282.776000000002</v>
+        <v>1468.799826375413</v>
       </c>
     </row>
     <row r="8">
@@ -532,13 +532,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>23402.9005</v>
+        <v>31741.06297705363</v>
       </c>
       <c r="C8" t="n">
-        <v>22500</v>
+        <v>32500</v>
       </c>
       <c r="D8" t="n">
-        <v>902.9004999999997</v>
+        <v>-758.9370229463711</v>
       </c>
     </row>
     <row r="9">
@@ -546,13 +546,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23572.2015</v>
+        <v>30137.26817367624</v>
       </c>
       <c r="C9" t="n">
-        <v>22500</v>
+        <v>32500</v>
       </c>
       <c r="D9" t="n">
-        <v>1072.201499999999</v>
+        <v>-2362.731826323761</v>
       </c>
     </row>
     <row r="10">
@@ -560,13 +560,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24529.095</v>
+        <v>34968.8746394957</v>
       </c>
       <c r="C10" t="n">
-        <v>22500</v>
+        <v>42500</v>
       </c>
       <c r="D10" t="n">
-        <v>2029.095000000001</v>
+        <v>-7531.125360504302</v>
       </c>
     </row>
     <row r="11">
@@ -574,13 +574,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19451.102</v>
+        <v>33833.86870104079</v>
       </c>
       <c r="C11" t="n">
-        <v>22500</v>
+        <v>42500</v>
       </c>
       <c r="D11" t="n">
-        <v>-3048.898000000001</v>
+        <v>-8666.131298959212</v>
       </c>
     </row>
     <row r="12">
@@ -588,13 +588,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18061.421</v>
+        <v>33386.25158306386</v>
       </c>
       <c r="C12" t="n">
-        <v>22500</v>
+        <v>42500</v>
       </c>
       <c r="D12" t="n">
-        <v>-4438.579000000002</v>
+        <v>-9113.748416936141</v>
       </c>
     </row>
     <row r="13">
@@ -602,13 +602,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18201.4465</v>
+        <v>35205.51732439346</v>
       </c>
       <c r="C13" t="n">
-        <v>22500</v>
+        <v>42500</v>
       </c>
       <c r="D13" t="n">
-        <v>-4298.553500000002</v>
+        <v>-7294.482675606538</v>
       </c>
     </row>
     <row r="14">
@@ -619,10 +619,10 @@
         <v>19619.5785</v>
       </c>
       <c r="C14" t="n">
-        <v>22500</v>
+        <v>42500</v>
       </c>
       <c r="D14" t="n">
-        <v>-2880.4215</v>
+        <v>-22880.4215</v>
       </c>
     </row>
     <row r="15">
@@ -633,10 +633,10 @@
         <v>20554.4725</v>
       </c>
       <c r="C15" t="n">
-        <v>22500</v>
+        <v>52500</v>
       </c>
       <c r="D15" t="n">
-        <v>-1945.5275</v>
+        <v>-31945.5275</v>
       </c>
     </row>
     <row r="16">
@@ -647,10 +647,10 @@
         <v>21841.412</v>
       </c>
       <c r="C16" t="n">
-        <v>22500</v>
+        <v>52500</v>
       </c>
       <c r="D16" t="n">
-        <v>-658.5879999999997</v>
+        <v>-30658.588</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         <v>22296.222</v>
       </c>
       <c r="C17" t="n">
-        <v>22500</v>
+        <v>52500</v>
       </c>
       <c r="D17" t="n">
-        <v>-203.7779999999984</v>
+        <v>-30203.778</v>
       </c>
     </row>
     <row r="18">
@@ -675,10 +675,10 @@
         <v>21879.0265</v>
       </c>
       <c r="C18" t="n">
-        <v>52500</v>
+        <v>75000</v>
       </c>
       <c r="D18" t="n">
-        <v>-30620.9735</v>
+        <v>-53120.9735</v>
       </c>
     </row>
     <row r="19">
@@ -745,10 +745,10 @@
         <v>31911.4905</v>
       </c>
       <c r="C23" t="n">
-        <v>52500</v>
+        <v>75000</v>
       </c>
       <c r="D23" t="n">
-        <v>-20588.5095</v>
+        <v>-43088.5095</v>
       </c>
     </row>
     <row r="24">
@@ -759,10 +759,10 @@
         <v>31741.664</v>
       </c>
       <c r="C24" t="n">
-        <v>22500</v>
+        <v>52500</v>
       </c>
       <c r="D24" t="n">
-        <v>9241.664000000001</v>
+        <v>-20758.336</v>
       </c>
     </row>
     <row r="25">
@@ -773,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>22500</v>
+        <v>42500</v>
       </c>
     </row>
   </sheetData>
